--- a/GUI + Reviews/202509/Eurozone 300.xlsx
+++ b/GUI + Reviews/202509/Eurozone 300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202509\20250908\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202509\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26BD2F32-4998-4D49-B34B-B4819A61AFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F73D439-CAFF-4CB7-AD32-FE2D2DAB75E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="17640" xr2:uid="{71EEFF28-AD09-4A36-9988-6F3E6646AD25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA55FEA7-29F8-483C-A4D9-E09977B17649}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,6 +353,15 @@
     <t>ES0109067019</t>
   </si>
   <si>
+    <t>AMP-IT</t>
+  </si>
+  <si>
+    <t>AMPLIFON</t>
+  </si>
+  <si>
+    <t>IT0004056880</t>
+  </si>
+  <si>
     <t>AMUN-FR</t>
   </si>
   <si>
@@ -1800,15 +1809,6 @@
   </si>
   <si>
     <t>FI4000552526</t>
-  </si>
-  <si>
-    <t>MB-IT</t>
-  </si>
-  <si>
-    <t>MEDIOBANCA</t>
-  </si>
-  <si>
-    <t>IT0000062957</t>
   </si>
   <si>
     <t>MBG-DE</t>
@@ -3224,28 +3224,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18F3C341-F9DE-4781-80CE-1D733E8701E6}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:S301" xr:uid="{18F3C341-F9DE-4781-80CE-1D733E8701E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C62BB62-41E2-4B44-BD63-DFC11FBEAC65}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:S301" xr:uid="{7C62BB62-41E2-4B44-BD63-DFC11FBEAC65}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{1D2E55E7-A57D-4641-B384-E3FD1726E201}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{DCD65592-5A0C-4FE7-ADF7-588BBD8B744F}" name="Ticker" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{99D578BD-77DF-4042-BE36-A2D6D6E12A74}" name="Name" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{9447BEFD-7A45-4E8F-8BD0-A8355804A5BE}" name="ISIN" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{D0B777FC-4941-4179-AFAC-312BEE99180C}" name="MIC" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{54AFF608-CCF0-4500-BC00-710402E8F2C8}" name="NOSH" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{E4497EEA-12D6-43C9-859B-6061B9CD44D0}" name="Price" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{225B6A73-1AC4-4C1B-A845-4BE42D186108}" name="Currency" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{82A8296A-8240-48B6-B86F-4AED79B45C0F}" name="12 month aver. turnover EUR" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{F29B6697-36F8-4BA5-BAC4-B049A0EB4283}" name="20 days aver. turn EUR" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{72E7D48A-2F55-4B1D-A42A-02C911E4190F}" name="10 days aver. turn EUR" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{00B077DD-2BCD-42A9-9C7E-8A26BAEB535D}" name="5 days aver. turn EUR" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{797BD6DF-B03D-415C-A658-0F0EA64A828E}" name="6 month aver. turnover EUR" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{AD8D7307-80F9-4857-8D58-2902ACA48A69}" name="126 days volatility" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{6BE35006-5858-4872-875E-D6CBD4E8DDA6}" name="100 days volatility" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{9832B711-A310-418C-B584-98BD7AC1F337}" name="100 days aver. turn EUR" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{CEEFFC69-AB92-44BE-9458-673C56930838}" name="180 days volatility" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{D08516E7-2931-4166-8F0C-5F90B55A3850}" name="3 months aver. Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{91486597-1231-4444-B5D2-FAB0AB177C7C}" name="3 months aver. Turnover USD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E215F094-97BE-4944-88AF-6E03B27FD7E1}" name="Rank" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{A91E4964-0DFA-4C23-9C32-4C5B7F81E079}" name="Ticker" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{09C61BBF-4A7D-445C-A174-2633C89C4D03}" name="Name" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{A2472CB4-6BAC-4A2A-A7CD-0C0986AFFA63}" name="ISIN" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{52862F4B-863C-44C7-85EC-28DD545EAF94}" name="MIC" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{CA9060AC-1882-4ED3-A92F-F226B2FAB108}" name="NOSH" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{2CFCA56F-E81D-4BB6-95AA-E107AD2EA801}" name="Price" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{B724BE25-F6F2-44D7-880D-281A7204221D}" name="Currency" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{C58A7779-7C0E-4D8A-80BB-1A3B56CDAC1A}" name="12 month aver. turnover EUR" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{96C464E6-4883-4130-8153-D3AA680273F4}" name="20 days aver. turn EUR" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{007E292D-134A-48BF-A792-25AD6AAECFD6}" name="10 days aver. turn EUR" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{8F40393A-8172-46B5-801C-C6DD195B08B4}" name="5 days aver. turn EUR" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{EA764463-63A5-4B5F-A1D4-28595B849551}" name="6 month aver. turnover EUR" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{6A7F90B4-D9B5-48B0-B4F4-D0D8434BD9CD}" name="126 days volatility" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{8FD176E5-A4AD-4105-9F15-8855B3459B1C}" name="100 days volatility" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{29334AF4-219B-454C-9C53-2C5E4BB0FB4B}" name="100 days aver. turn EUR" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{3786DFEC-D1DB-43ED-8937-1DAF377442D5}" name="180 days volatility" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{FB6945E7-B6C3-4AF7-A681-AB7CB1A73445}" name="3 months aver. Turnover EUR" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{EB7D353A-E6FC-4087-8884-A5CA1001B142}" name="3 months aver. Turnover USD" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3567,7 +3567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312E8701-AE4E-483A-B002-9C3CA20A1AA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECF2085-3478-42F7-A3CA-E0866A8BCD8A}">
   <dimension ref="A1:S301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5096,45 +5096,45 @@
         <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F28" s="1">
-        <v>205419262</v>
+        <v>226388620</v>
       </c>
       <c r="G28" s="1">
-        <v>66.400000000000006</v>
+        <v>15.545</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="1">
-        <v>10331336.498823499</v>
+        <v>24510888.477757901</v>
       </c>
       <c r="J28" s="1">
-        <v>7072919.3233333398</v>
+        <v>29485103.4389286</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
-        <v>11090433.0625984</v>
+        <v>31699813.443809599</v>
       </c>
       <c r="N28" s="1">
-        <v>30.431857999999998</v>
+        <v>52.955069999999999</v>
       </c>
       <c r="O28" s="1">
-        <v>31.734373000000001</v>
+        <v>52.547744999999999</v>
       </c>
       <c r="P28" s="1">
-        <v>10965221.023499999</v>
+        <v>32730449.8389</v>
       </c>
       <c r="Q28" s="1">
-        <v>27.202964999999999</v>
+        <v>46.504623000000002</v>
       </c>
       <c r="R28" s="1">
-        <v>9497064.5469697006</v>
+        <v>34016967.720846198</v>
       </c>
       <c r="S28" s="1">
-        <v>10977404.9812798</v>
+        <v>39278496.045617901</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -5151,45 +5151,45 @@
         <v>110</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="F29" s="1">
-        <v>104000000</v>
+        <v>205419262</v>
       </c>
       <c r="G29" s="1">
-        <v>62.6</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="1">
-        <v>5758442.9134782599</v>
+        <v>10331336.498823499</v>
       </c>
       <c r="J29" s="1">
-        <v>3915565.0666666701</v>
+        <v>7072919.3233333398</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
-        <v>5345137.5498425197</v>
+        <v>11090433.0625984</v>
       </c>
       <c r="N29" s="1">
-        <v>32.746352999999999</v>
+        <v>30.431857999999998</v>
       </c>
       <c r="O29" s="1">
-        <v>29.703067999999998</v>
+        <v>31.734373000000001</v>
       </c>
       <c r="P29" s="1">
-        <v>4963461.6612999998</v>
+        <v>10965221.023499999</v>
       </c>
       <c r="Q29" s="1">
-        <v>29.004083999999999</v>
+        <v>27.202964999999999</v>
       </c>
       <c r="R29" s="1">
-        <v>4541598.1742424201</v>
+        <v>9497064.5469697006</v>
       </c>
       <c r="S29" s="1">
-        <v>5256707.2191247903</v>
+        <v>10977404.9812798</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -5197,54 +5197,54 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F30" s="1">
-        <v>90442091</v>
+        <v>104000000</v>
       </c>
       <c r="G30" s="1">
-        <v>41.34</v>
+        <v>62.6</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I30" s="1">
-        <v>8273345.3458627397</v>
+        <v>5758442.9134782599</v>
       </c>
       <c r="J30" s="1">
-        <v>4460755.19533333</v>
+        <v>3915565.0666666701</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
-        <v>6498567.2904724404</v>
+        <v>5345137.5498425197</v>
       </c>
       <c r="N30" s="1">
-        <v>30.697271000000001</v>
+        <v>32.746352999999999</v>
       </c>
       <c r="O30" s="1">
-        <v>31.599779999999999</v>
+        <v>29.703067999999998</v>
       </c>
       <c r="P30" s="1">
-        <v>5942946.2741</v>
+        <v>4963461.6612999998</v>
       </c>
       <c r="Q30" s="1">
-        <v>28.304590000000001</v>
+        <v>29.004083999999999</v>
       </c>
       <c r="R30" s="1">
-        <v>5436545.9978787899</v>
+        <v>4541598.1742424201</v>
       </c>
       <c r="S30" s="1">
-        <v>6295295.3551155999</v>
+        <v>5256707.2191247903</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -5264,42 +5264,42 @@
         <v>27</v>
       </c>
       <c r="F31" s="1">
-        <v>852809772</v>
+        <v>90442091</v>
       </c>
       <c r="G31" s="1">
-        <v>29.16</v>
+        <v>41.34</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I31" s="1">
-        <v>60153958.0411667</v>
+        <v>8273345.3458627397</v>
       </c>
       <c r="J31" s="1">
-        <v>44468221.901666701</v>
+        <v>4460755.19533333</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
-        <v>62716601.460000001</v>
+        <v>6498567.2904724404</v>
       </c>
       <c r="N31" s="1">
-        <v>41.98657</v>
+        <v>30.697271000000001</v>
       </c>
       <c r="O31" s="1">
-        <v>36.014094999999998</v>
+        <v>31.599779999999999</v>
       </c>
       <c r="P31" s="1">
-        <v>50833868.8838</v>
+        <v>5942946.2741</v>
       </c>
       <c r="Q31" s="1">
-        <v>40.834797000000002</v>
+        <v>28.304590000000001</v>
       </c>
       <c r="R31" s="1">
-        <v>47173787.066893898</v>
+        <v>5436545.9978787899</v>
       </c>
       <c r="S31" s="1">
-        <v>54680051.580031298</v>
+        <v>6295295.3551155999</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -5316,45 +5316,45 @@
         <v>120</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F32" s="1">
-        <v>61199902</v>
+        <v>852809772</v>
       </c>
       <c r="G32" s="1">
-        <v>565.6</v>
+        <v>29.16</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="1">
-        <v>38997391.063725501</v>
+        <v>60153958.0411667</v>
       </c>
       <c r="J32" s="1">
-        <v>46722138.713333301</v>
+        <v>44468221.901666701</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
-        <v>45399914.756299198</v>
+        <v>62716601.460000001</v>
       </c>
       <c r="N32" s="1">
-        <v>40.774482999999996</v>
+        <v>41.98657</v>
       </c>
       <c r="O32" s="1">
-        <v>42.998449999999998</v>
+        <v>36.014094999999998</v>
       </c>
       <c r="P32" s="1">
-        <v>42781632.9095001</v>
+        <v>50833868.8838</v>
       </c>
       <c r="Q32" s="1">
-        <v>35.931987999999997</v>
+        <v>40.834797000000002</v>
       </c>
       <c r="R32" s="1">
-        <v>41371397.561363697</v>
+        <v>47173787.066893898</v>
       </c>
       <c r="S32" s="1">
-        <v>47895170.444628999</v>
+        <v>54680051.580031298</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -5371,45 +5371,45 @@
         <v>123</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F33" s="1">
-        <v>76060831</v>
+        <v>61199902</v>
       </c>
       <c r="G33" s="1">
-        <v>64.2</v>
+        <v>565.6</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="1">
-        <v>15349386.815098001</v>
+        <v>38997391.063725501</v>
       </c>
       <c r="J33" s="1">
-        <v>10127707.5666667</v>
+        <v>46722138.713333301</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
-        <v>16374934.878149601</v>
+        <v>45399914.756299198</v>
       </c>
       <c r="N33" s="1">
-        <v>37.925559999999997</v>
+        <v>40.774482999999996</v>
       </c>
       <c r="O33" s="1">
-        <v>34.559750000000001</v>
+        <v>42.998449999999998</v>
       </c>
       <c r="P33" s="1">
-        <v>14057909.83275</v>
+        <v>42781632.9095001</v>
       </c>
       <c r="Q33" s="1">
-        <v>35.478026999999997</v>
+        <v>35.931987999999997</v>
       </c>
       <c r="R33" s="1">
-        <v>13222524.796969701</v>
+        <v>41371397.561363697</v>
       </c>
       <c r="S33" s="1">
-        <v>15334366.744467599</v>
+        <v>47895170.444628999</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -5426,45 +5426,45 @@
         <v>126</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F34" s="1">
-        <v>1537025600</v>
+        <v>76060831</v>
       </c>
       <c r="G34" s="1">
-        <v>3.488</v>
+        <v>64.2</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <v>5837284.8081185697</v>
+        <v>15349386.815098001</v>
       </c>
       <c r="J34" s="1">
-        <v>4907354.6169999996</v>
+        <v>10127707.5666667</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
-        <v>5559692.3942716504</v>
+        <v>16374934.878149601</v>
       </c>
       <c r="N34" s="1">
-        <v>39.519756000000001</v>
+        <v>37.925559999999997</v>
       </c>
       <c r="O34" s="1">
-        <v>38.197597999999999</v>
+        <v>34.559750000000001</v>
       </c>
       <c r="P34" s="1">
-        <v>5102631.9105599998</v>
+        <v>14057909.83275</v>
       </c>
       <c r="Q34" s="1">
-        <v>40.509551999999999</v>
+        <v>35.478026999999997</v>
       </c>
       <c r="R34" s="1">
-        <v>4867541.5307121202</v>
+        <v>13222524.796969701</v>
       </c>
       <c r="S34" s="1">
-        <v>5632509.84443329</v>
+        <v>15334366.744467599</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -5481,45 +5481,45 @@
         <v>129</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F35" s="1">
-        <v>49328548</v>
+        <v>1537025600</v>
       </c>
       <c r="G35" s="1">
-        <v>409.7</v>
+        <v>3.488</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I35" s="1">
-        <v>78192457.683725402</v>
+        <v>5837284.8081185697</v>
       </c>
       <c r="J35" s="1">
-        <v>47432350.806666702</v>
+        <v>4907354.6169999996</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
-        <v>79022206.609448805</v>
+        <v>5559692.3942716504</v>
       </c>
       <c r="N35" s="1">
-        <v>43.804454999999997</v>
+        <v>39.519756000000001</v>
       </c>
       <c r="O35" s="1">
-        <v>42.105400000000003</v>
+        <v>38.197597999999999</v>
       </c>
       <c r="P35" s="1">
-        <v>73905783.640000001</v>
+        <v>5102631.9105599998</v>
       </c>
       <c r="Q35" s="1">
-        <v>43.162483000000002</v>
+        <v>40.509551999999999</v>
       </c>
       <c r="R35" s="1">
-        <v>70832792.148484796</v>
+        <v>4867541.5307121202</v>
       </c>
       <c r="S35" s="1">
-        <v>82130383.492612198</v>
+        <v>5632509.84443329</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -5539,42 +5539,42 @@
         <v>27</v>
       </c>
       <c r="F36" s="1">
-        <v>393830692</v>
+        <v>49328548</v>
       </c>
       <c r="G36" s="1">
-        <v>646.20000000000005</v>
+        <v>409.7</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I36" s="1">
-        <v>498834207.39411801</v>
+        <v>78192457.683725402</v>
       </c>
       <c r="J36" s="1">
-        <v>276855040.56666601</v>
+        <v>47432350.806666702</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
-        <v>481817250.45748001</v>
+        <v>79022206.609448805</v>
       </c>
       <c r="N36" s="1">
-        <v>37.477600000000002</v>
+        <v>43.804454999999997</v>
       </c>
       <c r="O36" s="1">
-        <v>38.260886999999997</v>
+        <v>42.105400000000003</v>
       </c>
       <c r="P36" s="1">
-        <v>458918837.75</v>
+        <v>73905783.640000001</v>
       </c>
       <c r="Q36" s="1">
-        <v>37.593580000000003</v>
+        <v>43.162483000000002</v>
       </c>
       <c r="R36" s="1">
-        <v>413536378.50984901</v>
+        <v>70832792.148484796</v>
       </c>
       <c r="S36" s="1">
-        <v>479167273.78778702</v>
+        <v>82130383.492612198</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -5594,42 +5594,42 @@
         <v>27</v>
       </c>
       <c r="F37" s="1">
-        <v>209113565</v>
+        <v>393830692</v>
       </c>
       <c r="G37" s="1">
-        <v>63.26</v>
+        <v>646.20000000000005</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="1">
-        <v>21311075.5589412</v>
+        <v>498834207.39411801</v>
       </c>
       <c r="J37" s="1">
-        <v>24040150.016666699</v>
+        <v>276855040.56666601</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
-        <v>25681278.983267698</v>
+        <v>481817250.45748001</v>
       </c>
       <c r="N37" s="1">
-        <v>20.676093999999999</v>
+        <v>37.477600000000002</v>
       </c>
       <c r="O37" s="1">
-        <v>21.324124999999999</v>
+        <v>38.260886999999997</v>
       </c>
       <c r="P37" s="1">
-        <v>23772050.40845</v>
+        <v>458918837.75</v>
       </c>
       <c r="Q37" s="1">
-        <v>18.753107</v>
+        <v>37.593580000000003</v>
       </c>
       <c r="R37" s="1">
-        <v>20655941.2965152</v>
+        <v>413536378.50984901</v>
       </c>
       <c r="S37" s="1">
-        <v>23892904.303850599</v>
+        <v>479167273.78778702</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -5646,45 +5646,45 @@
         <v>138</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F38" s="1">
-        <v>44956722</v>
+        <v>209113565</v>
       </c>
       <c r="G38" s="1">
-        <v>97.8</v>
+        <v>63.26</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="1">
-        <v>11561176.7814229</v>
+        <v>21311075.5589412</v>
       </c>
       <c r="J38" s="1">
-        <v>8722146.2383333407</v>
+        <v>24040150.016666699</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
-        <v>10653832.378149601</v>
+        <v>25681278.983267698</v>
       </c>
       <c r="N38" s="1">
-        <v>31.555557</v>
+        <v>20.676093999999999</v>
       </c>
       <c r="O38" s="1">
-        <v>29.846972999999998</v>
+        <v>21.324124999999999</v>
       </c>
       <c r="P38" s="1">
-        <v>9858572.0382499993</v>
+        <v>23772050.40845</v>
       </c>
       <c r="Q38" s="1">
-        <v>31.422906999999999</v>
+        <v>18.753107</v>
       </c>
       <c r="R38" s="1">
-        <v>9828074.3000000007</v>
+        <v>20655941.2965152</v>
       </c>
       <c r="S38" s="1">
-        <v>11392442.573888101</v>
+        <v>23892904.303850599</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -5704,42 +5704,42 @@
         <v>55</v>
       </c>
       <c r="F39" s="1">
-        <v>219518500</v>
+        <v>44956722</v>
       </c>
       <c r="G39" s="1">
-        <v>28.92</v>
+        <v>97.8</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I39" s="1">
-        <v>7057805.3499209499</v>
+        <v>11561176.7814229</v>
       </c>
       <c r="J39" s="1">
-        <v>5748554.1513333302</v>
+        <v>8722146.2383333407</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
-        <v>9592945.9411811009</v>
+        <v>10653832.378149601</v>
       </c>
       <c r="N39" s="1">
-        <v>62.775852</v>
+        <v>31.555557</v>
       </c>
       <c r="O39" s="1">
-        <v>56.510420000000003</v>
+        <v>29.846972999999998</v>
       </c>
       <c r="P39" s="1">
-        <v>8657819.1016000006</v>
+        <v>9858572.0382499993</v>
       </c>
       <c r="Q39" s="1">
-        <v>58.109413000000004</v>
+        <v>31.422906999999999</v>
       </c>
       <c r="R39" s="1">
-        <v>7448378.7903030301</v>
+        <v>9828074.3000000007</v>
       </c>
       <c r="S39" s="1">
-        <v>8621376.2939818706</v>
+        <v>11392442.573888101</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -5756,45 +5756,45 @@
         <v>144</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F40" s="1">
-        <v>2168222821</v>
+        <v>219518500</v>
       </c>
       <c r="G40" s="1">
-        <v>42.59</v>
+        <v>28.92</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="1">
-        <v>152645423.46231401</v>
+        <v>7057805.3499209499</v>
       </c>
       <c r="J40" s="1">
-        <v>126519389.096333</v>
+        <v>5748554.1513333302</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
-        <v>173167595.45574799</v>
+        <v>9592945.9411811009</v>
       </c>
       <c r="N40" s="1">
-        <v>25.193401000000001</v>
+        <v>62.775852</v>
       </c>
       <c r="O40" s="1">
-        <v>26.954440999999999</v>
+        <v>56.510420000000003</v>
       </c>
       <c r="P40" s="1">
-        <v>170746375.8035</v>
+        <v>8657819.1016000006</v>
       </c>
       <c r="Q40" s="1">
-        <v>22.522627</v>
+        <v>58.109413000000004</v>
       </c>
       <c r="R40" s="1">
-        <v>151307129.698939</v>
+        <v>7448378.7903030301</v>
       </c>
       <c r="S40" s="1">
-        <v>175101246.37342399</v>
+        <v>8621376.2939818706</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -5814,42 +5814,42 @@
         <v>35</v>
       </c>
       <c r="F41" s="1">
-        <v>816960428</v>
+        <v>2168222821</v>
       </c>
       <c r="G41" s="1">
-        <v>10.08</v>
+        <v>42.59</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="1">
-        <v>3362131.5600490202</v>
+        <v>152645423.46231401</v>
       </c>
       <c r="J41" s="1">
-        <v>2731911.7313333298</v>
+        <v>126519389.096333</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
-        <v>4096904.0002165302</v>
+        <v>173167595.45574799</v>
       </c>
       <c r="N41" s="1">
-        <v>29.820011000000001</v>
+        <v>25.193401000000001</v>
       </c>
       <c r="O41" s="1">
-        <v>30.293385000000001</v>
+        <v>26.954440999999999</v>
       </c>
       <c r="P41" s="1">
-        <v>4009230.4084999999</v>
+        <v>170746375.8035</v>
       </c>
       <c r="Q41" s="1">
-        <v>30.594912999999998</v>
+        <v>22.522627</v>
       </c>
       <c r="R41" s="1">
-        <v>3880252.17875</v>
+        <v>151307129.698939</v>
       </c>
       <c r="S41" s="1">
-        <v>4497578.4800558304</v>
+        <v>175101246.37342399</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -5866,45 +5866,45 @@
         <v>150</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F42" s="1">
-        <v>243921719</v>
+        <v>816960428</v>
       </c>
       <c r="G42" s="1">
-        <v>13.48</v>
+        <v>10.08</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I42" s="1">
-        <v>4483147.01037254</v>
+        <v>3362131.5600490202</v>
       </c>
       <c r="J42" s="1">
-        <v>5073301.1856666701</v>
+        <v>2731911.7313333298</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
-        <v>4653022.08759843</v>
+        <v>4096904.0002165302</v>
       </c>
       <c r="N42" s="1">
-        <v>40.67398</v>
+        <v>29.820011000000001</v>
       </c>
       <c r="O42" s="1">
-        <v>41.331589999999998</v>
+        <v>30.293385000000001</v>
       </c>
       <c r="P42" s="1">
-        <v>4319696.1124499999</v>
+        <v>4009230.4084999999</v>
       </c>
       <c r="Q42" s="1">
-        <v>36.206919999999997</v>
+        <v>30.594912999999998</v>
       </c>
       <c r="R42" s="1">
-        <v>4259095.2675000001</v>
+        <v>3880252.17875</v>
       </c>
       <c r="S42" s="1">
-        <v>4933464.2816892797</v>
+        <v>4497578.4800558304</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -5921,45 +5921,45 @@
         <v>153</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F43" s="1">
-        <v>143254497</v>
+        <v>243921719</v>
       </c>
       <c r="G43" s="1">
-        <v>31.58</v>
+        <v>13.48</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I43" s="1">
-        <v>19044618.648115098</v>
+        <v>4483147.01037254</v>
       </c>
       <c r="J43" s="1">
-        <v>18490677.633571401</v>
+        <v>5073301.1856666701</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
-        <v>22767640.5354762</v>
+        <v>4653022.08759843</v>
       </c>
       <c r="N43" s="1">
-        <v>34.561360000000001</v>
+        <v>40.67398</v>
       </c>
       <c r="O43" s="1">
-        <v>35.874516</v>
+        <v>41.331589999999998</v>
       </c>
       <c r="P43" s="1">
-        <v>22892953.566799998</v>
+        <v>4319696.1124499999</v>
       </c>
       <c r="Q43" s="1">
-        <v>30.504116</v>
+        <v>36.206919999999997</v>
       </c>
       <c r="R43" s="1">
-        <v>20740987.250153799</v>
+        <v>4259095.2675000001</v>
       </c>
       <c r="S43" s="1">
-        <v>24005436.8518891</v>
+        <v>4933464.2816892797</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -5976,45 +5976,45 @@
         <v>156</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="F44" s="1">
-        <v>15113989952</v>
+        <v>143254497</v>
       </c>
       <c r="G44" s="1">
-        <v>0.77</v>
+        <v>31.58</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I44" s="1">
-        <v>38451154.587855503</v>
+        <v>19044618.648115098</v>
       </c>
       <c r="J44" s="1">
-        <v>59523479.382053398</v>
+        <v>18490677.633571401</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
-        <v>50275288.330954403</v>
+        <v>22767640.5354762</v>
       </c>
       <c r="N44" s="1">
-        <v>37.664940000000001</v>
+        <v>34.561360000000001</v>
       </c>
       <c r="O44" s="1">
-        <v>35.929079999999999</v>
+        <v>35.874516</v>
       </c>
       <c r="P44" s="1">
-        <v>51111433.810633004</v>
+        <v>22892953.566799998</v>
       </c>
       <c r="Q44" s="1">
-        <v>34.276179999999997</v>
+        <v>30.504116</v>
       </c>
       <c r="R44" s="1">
-        <v>50191471.660763703</v>
+        <v>20740987.250153799</v>
       </c>
       <c r="S44" s="1">
-        <v>58104571.843762703</v>
+        <v>24005436.8518891</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
@@ -6022,54 +6022,54 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F45" s="1">
-        <v>116851637</v>
+        <v>15113989952</v>
       </c>
       <c r="G45" s="1">
-        <v>51.3</v>
+        <v>0.77</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I45" s="1">
-        <v>10592884.864603201</v>
+        <v>38451154.587855503</v>
       </c>
       <c r="J45" s="1">
-        <v>13794870.7014286</v>
+        <v>59523479.382053398</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
-        <v>13538670.9879365</v>
+        <v>50275288.330954403</v>
       </c>
       <c r="N45" s="1">
-        <v>30.029242</v>
+        <v>37.664940000000001</v>
       </c>
       <c r="O45" s="1">
-        <v>31.834727999999998</v>
+        <v>35.929079999999999</v>
       </c>
       <c r="P45" s="1">
-        <v>13729709.56315</v>
+        <v>51111433.810633004</v>
       </c>
       <c r="Q45" s="1">
-        <v>27.336905000000002</v>
+        <v>34.276179999999997</v>
       </c>
       <c r="R45" s="1">
-        <v>10894756.7952308</v>
+        <v>50191471.660763703</v>
       </c>
       <c r="S45" s="1">
-        <v>12611332.984058101</v>
+        <v>58104571.843762703</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -6089,42 +6089,42 @@
         <v>22</v>
       </c>
       <c r="F46" s="1">
-        <v>745386391</v>
+        <v>116851637</v>
       </c>
       <c r="G46" s="1">
-        <v>17.510000000000002</v>
+        <v>51.3</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I46" s="1">
-        <v>19696628.178968199</v>
+        <v>10592884.864603201</v>
       </c>
       <c r="J46" s="1">
-        <v>19925455.179642901</v>
+        <v>13794870.7014286</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
-        <v>26834613.216706298</v>
+        <v>13538670.9879365</v>
       </c>
       <c r="N46" s="1">
-        <v>31.928234</v>
+        <v>30.029242</v>
       </c>
       <c r="O46" s="1">
-        <v>33.298430000000003</v>
+        <v>31.834727999999998</v>
       </c>
       <c r="P46" s="1">
-        <v>27443082.436500002</v>
+        <v>13729709.56315</v>
       </c>
       <c r="Q46" s="1">
-        <v>28.184006</v>
+        <v>27.336905000000002</v>
       </c>
       <c r="R46" s="1">
-        <v>25169851.5948461</v>
+        <v>10894756.7952308</v>
       </c>
       <c r="S46" s="1">
-        <v>28986946.486448001</v>
+        <v>12611332.984058101</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -6144,42 +6144,42 @@
         <v>22</v>
       </c>
       <c r="F47" s="1">
-        <v>1259689706</v>
+        <v>745386391</v>
       </c>
       <c r="G47" s="1">
-        <v>8.298</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I47" s="1">
-        <v>110219873.249492</v>
+        <v>19696628.178968199</v>
       </c>
       <c r="J47" s="1">
-        <v>141471476.33732101</v>
+        <v>19925455.179642901</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
-        <v>133136062.01470999</v>
+        <v>26834613.216706298</v>
       </c>
       <c r="N47" s="1">
-        <v>40.779685999999998</v>
+        <v>31.928234</v>
       </c>
       <c r="O47" s="1">
-        <v>40.615609999999997</v>
+        <v>33.298430000000003</v>
       </c>
       <c r="P47" s="1">
-        <v>125204658.024415</v>
+        <v>27443082.436500002</v>
       </c>
       <c r="Q47" s="1">
-        <v>37.097496</v>
+        <v>28.184006</v>
       </c>
       <c r="R47" s="1">
-        <v>105883105.900515</v>
+        <v>25169851.5948461</v>
       </c>
       <c r="S47" s="1">
-        <v>122772352.735294</v>
+        <v>28986946.486448001</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
@@ -6199,42 +6199,42 @@
         <v>22</v>
       </c>
       <c r="F48" s="1">
-        <v>1515182126</v>
+        <v>1259689706</v>
       </c>
       <c r="G48" s="1">
-        <v>12.065</v>
+        <v>8.298</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I48" s="1">
-        <v>87965503.698252007</v>
+        <v>110219873.249492</v>
       </c>
       <c r="J48" s="1">
-        <v>56900917.152678601</v>
+        <v>141471476.33732101</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
-        <v>89715815.536837295</v>
+        <v>133136062.01470999</v>
       </c>
       <c r="N48" s="1">
-        <v>34.381152999999998</v>
+        <v>40.779685999999998</v>
       </c>
       <c r="O48" s="1">
-        <v>34.509360000000001</v>
+        <v>40.615609999999997</v>
       </c>
       <c r="P48" s="1">
-        <v>83962213.090234995</v>
+        <v>125204658.024415</v>
       </c>
       <c r="Q48" s="1">
-        <v>31.108111999999998</v>
+        <v>37.097496</v>
       </c>
       <c r="R48" s="1">
-        <v>69449114.914223105</v>
+        <v>105883105.900515</v>
       </c>
       <c r="S48" s="1">
-        <v>80414139.595070601</v>
+        <v>122772352.735294</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
@@ -6251,45 +6251,45 @@
         <v>172</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F49" s="1">
-        <v>5288229500</v>
+        <v>1515182126</v>
       </c>
       <c r="G49" s="1">
-        <v>3.4209999999999998</v>
+        <v>12.065</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I49" s="1">
-        <v>37331561.963830203</v>
+        <v>87965503.698252007</v>
       </c>
       <c r="J49" s="1">
-        <v>47265026.776933298</v>
+        <v>56900917.152678601</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
-        <v>46593692.630720504</v>
+        <v>89715815.536837295</v>
       </c>
       <c r="N49" s="1">
-        <v>34.251494999999998</v>
+        <v>34.381152999999998</v>
       </c>
       <c r="O49" s="1">
-        <v>34.015846000000003</v>
+        <v>34.509360000000001</v>
       </c>
       <c r="P49" s="1">
-        <v>45641462.246179998</v>
+        <v>83962213.090234995</v>
       </c>
       <c r="Q49" s="1">
-        <v>31.794879999999999</v>
+        <v>31.108111999999998</v>
       </c>
       <c r="R49" s="1">
-        <v>44750784.057454497</v>
+        <v>69449114.914223105</v>
       </c>
       <c r="S49" s="1">
-        <v>51912883.517433897</v>
+        <v>80414139.595070601</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
@@ -6309,42 +6309,42 @@
         <v>42</v>
       </c>
       <c r="F50" s="1">
-        <v>14885325000</v>
+        <v>5288229500</v>
       </c>
       <c r="G50" s="1">
-        <v>8.3160000000000007</v>
+        <v>3.4209999999999998</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I50" s="1">
-        <v>174638252.883463</v>
+        <v>37331561.963830203</v>
       </c>
       <c r="J50" s="1">
-        <v>154501945.24873301</v>
+        <v>47265026.776933298</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
-        <v>214231635.31398699</v>
+        <v>46593692.630720504</v>
       </c>
       <c r="N50" s="1">
-        <v>36.022101999999997</v>
+        <v>34.251494999999998</v>
       </c>
       <c r="O50" s="1">
-        <v>35.048878000000002</v>
+        <v>34.015846000000003</v>
       </c>
       <c r="P50" s="1">
-        <v>203362407.62259501</v>
+        <v>45641462.246179998</v>
       </c>
       <c r="Q50" s="1">
-        <v>34.674720000000001</v>
+        <v>31.794879999999999</v>
       </c>
       <c r="R50" s="1">
-        <v>169193106.19599199</v>
+        <v>44750784.057454497</v>
       </c>
       <c r="S50" s="1">
-        <v>195880401.943562</v>
+        <v>51912883.517433897</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
@@ -6361,45 +6361,45 @@
         <v>178</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F51" s="1">
-        <v>959841035</v>
+        <v>14885325000</v>
       </c>
       <c r="G51" s="1">
-        <v>13.19</v>
+        <v>8.3160000000000007</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I51" s="1">
-        <v>24204678.150172099</v>
+        <v>174638252.883463</v>
       </c>
       <c r="J51" s="1">
-        <v>16543034.1124667</v>
+        <v>154501945.24873301</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
-        <v>30005524.9519476</v>
+        <v>214231635.31398699</v>
       </c>
       <c r="N51" s="1">
-        <v>35.793495</v>
+        <v>36.022101999999997</v>
       </c>
       <c r="O51" s="1">
-        <v>34.857757999999997</v>
+        <v>35.048878000000002</v>
       </c>
       <c r="P51" s="1">
-        <v>25679955.559377</v>
+        <v>203362407.62259501</v>
       </c>
       <c r="Q51" s="1">
-        <v>33.771706000000002</v>
+        <v>34.674720000000001</v>
       </c>
       <c r="R51" s="1">
-        <v>21181348.662354499</v>
+        <v>169193106.19599199</v>
       </c>
       <c r="S51" s="1">
-        <v>24496783.593030401</v>
+        <v>195880401.943562</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -6416,45 +6416,45 @@
         <v>181</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F52" s="1">
-        <v>898866150</v>
+        <v>959841035</v>
       </c>
       <c r="G52" s="1">
-        <v>13.225</v>
+        <v>13.19</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I52" s="1">
-        <v>22207245.9078588</v>
+        <v>24204678.150172099</v>
       </c>
       <c r="J52" s="1">
-        <v>14154363.4413333</v>
+        <v>16543034.1124667</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
-        <v>28363048.869159099</v>
+        <v>30005524.9519476</v>
       </c>
       <c r="N52" s="1">
-        <v>31.474572999999999</v>
+        <v>35.793495</v>
       </c>
       <c r="O52" s="1">
-        <v>31.954853</v>
+        <v>34.857757999999997</v>
       </c>
       <c r="P52" s="1">
-        <v>27677525.321394999</v>
+        <v>25679955.559377</v>
       </c>
       <c r="Q52" s="1">
-        <v>28.794632</v>
+        <v>33.771706000000002</v>
       </c>
       <c r="R52" s="1">
-        <v>28271630.008030299</v>
+        <v>21181348.662354499</v>
       </c>
       <c r="S52" s="1">
-        <v>32556409.967936799</v>
+        <v>24496783.593030401</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
@@ -6471,45 +6471,45 @@
         <v>184</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F53" s="1">
-        <v>893854900</v>
+        <v>898866150</v>
       </c>
       <c r="G53" s="1">
-        <v>48.06</v>
+        <v>13.225</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I53" s="1">
-        <v>125723717.587954</v>
+        <v>22207245.9078588</v>
       </c>
       <c r="J53" s="1">
-        <v>103367106.529</v>
+        <v>14154363.4413333</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
-        <v>140158390.499764</v>
+        <v>28363048.869159099</v>
       </c>
       <c r="N53" s="1">
-        <v>33.462960000000002</v>
+        <v>31.474572999999999</v>
       </c>
       <c r="O53" s="1">
-        <v>29.723597000000002</v>
+        <v>31.954853</v>
       </c>
       <c r="P53" s="1">
-        <v>128608873.80065</v>
+        <v>27677525.321394999</v>
       </c>
       <c r="Q53" s="1">
-        <v>32.813853999999999</v>
+        <v>28.794632</v>
       </c>
       <c r="R53" s="1">
-        <v>112872825.32583299</v>
+        <v>28271630.008030299</v>
       </c>
       <c r="S53" s="1">
-        <v>130911778.891142</v>
+        <v>32556409.967936799</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
@@ -6526,45 +6526,45 @@
         <v>187</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="F54" s="1">
-        <v>78600000</v>
+        <v>893854900</v>
       </c>
       <c r="G54" s="1">
-        <v>114.4</v>
+        <v>48.06</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I54" s="1">
-        <v>11673969.829446601</v>
+        <v>125723717.587954</v>
       </c>
       <c r="J54" s="1">
-        <v>14858611.869999999</v>
+        <v>103367106.529</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
-        <v>14575015.9204724</v>
+        <v>140158390.499764</v>
       </c>
       <c r="N54" s="1">
-        <v>34.273266</v>
+        <v>33.462960000000002</v>
       </c>
       <c r="O54" s="1">
-        <v>32.078069999999997</v>
+        <v>29.723597000000002</v>
       </c>
       <c r="P54" s="1">
-        <v>13402088.156500001</v>
+        <v>128608873.80065</v>
       </c>
       <c r="Q54" s="1">
-        <v>31.42624</v>
+        <v>32.813853999999999</v>
       </c>
       <c r="R54" s="1">
-        <v>12848583.212878801</v>
+        <v>112872825.32583299</v>
       </c>
       <c r="S54" s="1">
-        <v>14890940.1681924</v>
+        <v>130911778.891142</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
@@ -6581,45 +6581,45 @@
         <v>190</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F55" s="1">
-        <v>982424100</v>
+        <v>78600000</v>
       </c>
       <c r="G55" s="1">
-        <v>28.555</v>
+        <v>114.4</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I55" s="1">
-        <v>89149670.771687806</v>
+        <v>11673969.829446601</v>
       </c>
       <c r="J55" s="1">
-        <v>78003468.113833398</v>
+        <v>14858611.869999999</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
-        <v>94184630.816980407</v>
+        <v>14575015.9204724</v>
       </c>
       <c r="N55" s="1">
-        <v>40.670819999999999</v>
+        <v>34.273266</v>
       </c>
       <c r="O55" s="1">
-        <v>38.491188000000001</v>
+        <v>32.078069999999997</v>
       </c>
       <c r="P55" s="1">
-        <v>89808036.067265004</v>
+        <v>13402088.156500001</v>
       </c>
       <c r="Q55" s="1">
-        <v>36.986550000000001</v>
+        <v>31.42624</v>
       </c>
       <c r="R55" s="1">
-        <v>81132310.308333293</v>
+        <v>12848583.212878801</v>
       </c>
       <c r="S55" s="1">
-        <v>93989057.394591093</v>
+        <v>14890940.1681924</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
@@ -6636,45 +6636,45 @@
         <v>193</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F56" s="1">
-        <v>5763285600</v>
+        <v>982424100</v>
       </c>
       <c r="G56" s="1">
-        <v>16.454999999999998</v>
+        <v>28.555</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="1">
-        <v>118103535.994224</v>
+        <v>89149670.771687806</v>
       </c>
       <c r="J56" s="1">
-        <v>107598396.911</v>
+        <v>78003468.113833398</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
-        <v>133821362.46429899</v>
+        <v>94184630.816980407</v>
       </c>
       <c r="N56" s="1">
-        <v>33.95532</v>
+        <v>40.670819999999999</v>
       </c>
       <c r="O56" s="1">
-        <v>33.24785</v>
+        <v>38.491188000000001</v>
       </c>
       <c r="P56" s="1">
-        <v>127739987.127575</v>
+        <v>89808036.067265004</v>
       </c>
       <c r="Q56" s="1">
-        <v>31.513884999999998</v>
+        <v>36.986550000000001</v>
       </c>
       <c r="R56" s="1">
-        <v>109598635.864848</v>
+        <v>81132310.308333293</v>
       </c>
       <c r="S56" s="1">
-        <v>126881319.696946</v>
+        <v>93989057.394591093</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
@@ -6691,45 +6691,45 @@
         <v>196</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F57" s="1">
-        <v>81146738</v>
+        <v>5763285600</v>
       </c>
       <c r="G57" s="1">
-        <v>119</v>
+        <v>16.454999999999998</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I57" s="1">
-        <v>53459080.706490196</v>
+        <v>118103535.994224</v>
       </c>
       <c r="J57" s="1">
-        <v>34609119.288333401</v>
+        <v>107598396.911</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
-        <v>53649708.457401499</v>
+        <v>133821362.46429899</v>
       </c>
       <c r="N57" s="1">
-        <v>49.960982999999999</v>
+        <v>33.95532</v>
       </c>
       <c r="O57" s="1">
-        <v>49.494489999999999</v>
+        <v>33.24785</v>
       </c>
       <c r="P57" s="1">
-        <v>54961277.0141</v>
+        <v>127739987.127575</v>
       </c>
       <c r="Q57" s="1">
-        <v>46.402766999999997</v>
+        <v>31.513884999999998</v>
       </c>
       <c r="R57" s="1">
-        <v>51077485.2632576</v>
+        <v>109598635.864848</v>
       </c>
       <c r="S57" s="1">
-        <v>59245585.940035999</v>
+        <v>126881319.696946</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -6746,45 +6746,45 @@
         <v>199</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F58" s="1">
-        <v>126000000</v>
+        <v>81146738</v>
       </c>
       <c r="G58" s="1">
-        <v>41.38</v>
+        <v>119</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I58" s="1">
-        <v>9093871.8531225193</v>
+        <v>53459080.706490196</v>
       </c>
       <c r="J58" s="1">
-        <v>9682771.4213333298</v>
+        <v>34609119.288333401</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
-        <v>11651603.3476378</v>
+        <v>53649708.457401499</v>
       </c>
       <c r="N58" s="1">
-        <v>48.213802000000001</v>
+        <v>49.960982999999999</v>
       </c>
       <c r="O58" s="1">
-        <v>38.216983999999997</v>
+        <v>49.494489999999999</v>
       </c>
       <c r="P58" s="1">
-        <v>8366429.1727999998</v>
+        <v>54961277.0141</v>
       </c>
       <c r="Q58" s="1">
-        <v>43.422280000000001</v>
+        <v>46.402766999999997</v>
       </c>
       <c r="R58" s="1">
-        <v>7657060.2346969703</v>
+        <v>51077485.2632576</v>
       </c>
       <c r="S58" s="1">
-        <v>8872232.6253295504</v>
+        <v>59245585.940035999</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
@@ -6804,42 +6804,42 @@
         <v>55</v>
       </c>
       <c r="F59" s="1">
-        <v>242600000</v>
+        <v>126000000</v>
       </c>
       <c r="G59" s="1">
-        <v>99.56</v>
+        <v>41.38</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I59" s="1">
-        <v>33216062.2982806</v>
+        <v>9093871.8531225193</v>
       </c>
       <c r="J59" s="1">
-        <v>48937369.099333301</v>
+        <v>9682771.4213333298</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
-        <v>39053733.284370102</v>
+        <v>11651603.3476378</v>
       </c>
       <c r="N59" s="1">
-        <v>26.619129999999998</v>
+        <v>48.213802000000001</v>
       </c>
       <c r="O59" s="1">
-        <v>26.580181</v>
+        <v>38.216983999999997</v>
       </c>
       <c r="P59" s="1">
-        <v>37348294.6149</v>
+        <v>8366429.1727999998</v>
       </c>
       <c r="Q59" s="1">
-        <v>24.125927000000001</v>
+        <v>43.422280000000001</v>
       </c>
       <c r="R59" s="1">
-        <v>36770370.600606099</v>
+        <v>7657060.2346969703</v>
       </c>
       <c r="S59" s="1">
-        <v>42610721.160369404</v>
+        <v>8872232.6253295504</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
@@ -6859,42 +6859,42 @@
         <v>55</v>
       </c>
       <c r="F60" s="1">
-        <v>37606373</v>
+        <v>242600000</v>
       </c>
       <c r="G60" s="1">
-        <v>91.1</v>
+        <v>99.56</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I60" s="1">
-        <v>6631050.3725296399</v>
+        <v>33216062.2982806</v>
       </c>
       <c r="J60" s="1">
-        <v>8872620.3583333306</v>
+        <v>48937369.099333301</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
-        <v>11130373.2448819</v>
+        <v>39053733.284370102</v>
       </c>
       <c r="N60" s="1">
-        <v>45.282153999999998</v>
+        <v>26.619129999999998</v>
       </c>
       <c r="O60" s="1">
-        <v>35.191850000000002</v>
+        <v>26.580181</v>
       </c>
       <c r="P60" s="1">
-        <v>10282043.535</v>
+        <v>37348294.6149</v>
       </c>
       <c r="Q60" s="1">
-        <v>40.331817999999998</v>
+        <v>24.125927000000001</v>
       </c>
       <c r="R60" s="1">
-        <v>10859569.2314394</v>
+        <v>36770370.600606099</v>
       </c>
       <c r="S60" s="1">
-        <v>12595093.5408228</v>
+        <v>42610721.160369404</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
@@ -6911,45 +6911,45 @@
         <v>208</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F61" s="1">
-        <v>118361220</v>
+        <v>37606373</v>
       </c>
       <c r="G61" s="1">
-        <v>127.4</v>
+        <v>91.1</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I61" s="1">
-        <v>12232904.672451001</v>
+        <v>6631050.3725296399</v>
       </c>
       <c r="J61" s="1">
-        <v>9682894.1133333407</v>
+        <v>8872620.3583333306</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
-        <v>13556048.2555118</v>
+        <v>11130373.2448819</v>
       </c>
       <c r="N61" s="1">
-        <v>21.325109999999999</v>
+        <v>45.282153999999998</v>
       </c>
       <c r="O61" s="1">
-        <v>21.780138000000001</v>
+        <v>35.191850000000002</v>
       </c>
       <c r="P61" s="1">
-        <v>13144940.611</v>
+        <v>10282043.535</v>
       </c>
       <c r="Q61" s="1">
-        <v>21.071155999999998</v>
+        <v>40.331817999999998</v>
       </c>
       <c r="R61" s="1">
-        <v>12598459.105303001</v>
+        <v>10859569.2314394</v>
       </c>
       <c r="S61" s="1">
-        <v>14582258.5385183</v>
+        <v>12595093.5408228</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
@@ -6966,45 +6966,45 @@
         <v>211</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F62" s="1">
-        <v>561134950</v>
+        <v>118361220</v>
       </c>
       <c r="G62" s="1">
-        <v>91.42</v>
+        <v>127.4</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I62" s="1">
-        <v>98719324.327747107</v>
+        <v>12232904.672451001</v>
       </c>
       <c r="J62" s="1">
-        <v>73942262.239333302</v>
+        <v>9682894.1133333407</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
-        <v>101961688.876378</v>
+        <v>13556048.2555118</v>
       </c>
       <c r="N62" s="1">
-        <v>34.509630000000001</v>
+        <v>21.325109999999999</v>
       </c>
       <c r="O62" s="1">
-        <v>32.277045999999999</v>
+        <v>21.780138000000001</v>
       </c>
       <c r="P62" s="1">
-        <v>93116076.829699993</v>
+        <v>13144940.611</v>
       </c>
       <c r="Q62" s="1">
-        <v>33.120643999999999</v>
+        <v>21.071155999999998</v>
       </c>
       <c r="R62" s="1">
-        <v>84429620.8784848</v>
+        <v>12598459.105303001</v>
       </c>
       <c r="S62" s="1">
-        <v>97931823.576652706</v>
+        <v>14582258.5385183</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
@@ -7021,45 +7021,45 @@
         <v>214</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F63" s="1">
-        <v>1130810671</v>
+        <v>561134950</v>
       </c>
       <c r="G63" s="1">
-        <v>83.38</v>
+        <v>91.42</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I63" s="1">
-        <v>197678039.37370601</v>
+        <v>98719324.327747107</v>
       </c>
       <c r="J63" s="1">
-        <v>141560217.55599999</v>
+        <v>73942262.239333302</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
-        <v>229866423.64637801</v>
+        <v>101961688.876378</v>
       </c>
       <c r="N63" s="1">
-        <v>30.953129000000001</v>
+        <v>34.509630000000001</v>
       </c>
       <c r="O63" s="1">
-        <v>30.492428</v>
+        <v>32.277045999999999</v>
       </c>
       <c r="P63" s="1">
-        <v>216978718.88815001</v>
+        <v>93116076.829699993</v>
       </c>
       <c r="Q63" s="1">
-        <v>28.057687999999999</v>
+        <v>33.120643999999999</v>
       </c>
       <c r="R63" s="1">
-        <v>181644370.60462099</v>
+        <v>84429620.8784848</v>
       </c>
       <c r="S63" s="1">
-        <v>210174324.969457</v>
+        <v>97931823.576652706</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
@@ -7079,42 +7079,42 @@
         <v>35</v>
       </c>
       <c r="F64" s="1">
-        <v>2812303983</v>
+        <v>1130810671</v>
       </c>
       <c r="G64" s="1">
-        <v>5.0999999999999996</v>
+        <v>83.38</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I64" s="1">
-        <v>5544591.8001313703</v>
+        <v>197678039.37370601</v>
       </c>
       <c r="J64" s="1">
-        <v>2653251.6691333302</v>
+        <v>141560217.55599999</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
-        <v>5644002.4808740197</v>
+        <v>229866423.64637801</v>
       </c>
       <c r="N64" s="1">
-        <v>18.883354000000001</v>
+        <v>30.953129000000001</v>
       </c>
       <c r="O64" s="1">
-        <v>16.497305000000001</v>
+        <v>30.492428</v>
       </c>
       <c r="P64" s="1">
-        <v>5311052.0135599999</v>
+        <v>216978718.88815001</v>
       </c>
       <c r="Q64" s="1">
-        <v>17.802904000000002</v>
+        <v>28.057687999999999</v>
       </c>
       <c r="R64" s="1">
-        <v>4569024.1295454605</v>
+        <v>181644370.60462099</v>
       </c>
       <c r="S64" s="1">
-        <v>5283129.2797580799</v>
+        <v>210174324.969457</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -7134,42 +7134,42 @@
         <v>35</v>
       </c>
       <c r="F65" s="1">
-        <v>383229919</v>
+        <v>2812303983</v>
       </c>
       <c r="G65" s="1">
-        <v>38.71</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I65" s="1">
-        <v>28029650.2643921</v>
+        <v>5544591.8001313703</v>
       </c>
       <c r="J65" s="1">
-        <v>19080128.6263333</v>
+        <v>2653251.6691333302</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
-        <v>32665900.311692901</v>
+        <v>5644002.4808740197</v>
       </c>
       <c r="N65" s="1">
-        <v>22.537908999999999</v>
+        <v>18.883354000000001</v>
       </c>
       <c r="O65" s="1">
-        <v>21.710156999999999</v>
+        <v>16.497305000000001</v>
       </c>
       <c r="P65" s="1">
-        <v>31470407.486699998</v>
+        <v>5311052.0135599999</v>
       </c>
       <c r="Q65" s="1">
-        <v>19.954644999999999</v>
+        <v>17.802904000000002</v>
       </c>
       <c r="R65" s="1">
-        <v>26898733.8465151</v>
+        <v>4569024.1295454605</v>
       </c>
       <c r="S65" s="1">
-        <v>31122694.541947398</v>
+        <v>5283129.2797580799</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
@@ -7186,45 +7186,45 @@
         <v>223</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F66" s="1">
-        <v>1949849964</v>
+        <v>383229919</v>
       </c>
       <c r="G66" s="1">
-        <v>9.1460000000000008</v>
+        <v>38.71</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I66" s="1">
-        <v>104883259.005393</v>
+        <v>28029650.2643921</v>
       </c>
       <c r="J66" s="1">
-        <v>107550778.735429</v>
+        <v>19080128.6263333</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
-        <v>120390834.79088899</v>
+        <v>32665900.311692901</v>
       </c>
       <c r="N66" s="1">
-        <v>36.261420000000001</v>
+        <v>22.537908999999999</v>
       </c>
       <c r="O66" s="1">
-        <v>37.147730000000003</v>
+        <v>21.710156999999999</v>
       </c>
       <c r="P66" s="1">
-        <v>120660064.61677</v>
+        <v>31470407.486699998</v>
       </c>
       <c r="Q66" s="1">
-        <v>35.422756</v>
+        <v>19.954644999999999</v>
       </c>
       <c r="R66" s="1">
-        <v>115348997.697969</v>
+        <v>26898733.8465151</v>
       </c>
       <c r="S66" s="1">
-        <v>133679913.828325</v>
+        <v>31122694.541947398</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
@@ -7241,45 +7241,45 @@
         <v>226</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F67" s="1">
-        <v>144385380</v>
+        <v>1949849964</v>
       </c>
       <c r="G67" s="1">
-        <v>55.14</v>
+        <v>9.1460000000000008</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I67" s="1">
-        <v>17798194.797193699</v>
+        <v>104883259.005393</v>
       </c>
       <c r="J67" s="1">
-        <v>12291761.7053333</v>
+        <v>107550778.735429</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
-        <v>19484752.3154331</v>
+        <v>120390834.79088899</v>
       </c>
       <c r="N67" s="1">
-        <v>29.767196999999999</v>
+        <v>36.261420000000001</v>
       </c>
       <c r="O67" s="1">
-        <v>27.530228000000001</v>
+        <v>37.147730000000003</v>
       </c>
       <c r="P67" s="1">
-        <v>18436876.8125</v>
+        <v>120660064.61677</v>
       </c>
       <c r="Q67" s="1">
-        <v>29.005915000000002</v>
+        <v>35.422756</v>
       </c>
       <c r="R67" s="1">
-        <v>15652447.948484801</v>
+        <v>115348997.697969</v>
       </c>
       <c r="S67" s="1">
-        <v>18131561.1781318</v>
+        <v>133679913.828325</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -7296,45 +7296,45 @@
         <v>229</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F68" s="1">
-        <v>68000000</v>
+        <v>144385380</v>
       </c>
       <c r="G68" s="1">
-        <v>100.05</v>
+        <v>55.14</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I68" s="1">
-        <v>17484975.317341302</v>
+        <v>17798194.797193699</v>
       </c>
       <c r="J68" s="1">
-        <v>12229749.4</v>
+        <v>12291761.7053333</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
-        <v>16792263.734880999</v>
+        <v>19484752.3154331</v>
       </c>
       <c r="N68" s="1">
-        <v>29.857758</v>
+        <v>29.767196999999999</v>
       </c>
       <c r="O68" s="1">
-        <v>30.845686000000001</v>
+        <v>27.530228000000001</v>
       </c>
       <c r="P68" s="1">
-        <v>14951925.43495</v>
+        <v>18436876.8125</v>
       </c>
       <c r="Q68" s="1">
-        <v>29.521059000000001</v>
+        <v>29.005915000000002</v>
       </c>
       <c r="R68" s="1">
-        <v>13111589.3767692</v>
+        <v>15652447.948484801</v>
       </c>
       <c r="S68" s="1">
-        <v>15186321.7735411</v>
+        <v>18131561.1781318</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
@@ -7351,45 +7351,45 @@
         <v>232</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F69" s="1">
-        <v>453871520</v>
+        <v>68000000</v>
       </c>
       <c r="G69" s="1">
-        <v>27.22</v>
+        <v>100.05</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I69" s="1">
-        <v>28963418.564862799</v>
+        <v>17484975.317341302</v>
       </c>
       <c r="J69" s="1">
-        <v>16596721.322666701</v>
+        <v>12229749.4</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
-        <v>32205072.0515748</v>
+        <v>16792263.734880999</v>
       </c>
       <c r="N69" s="1">
-        <v>22.290648000000001</v>
+        <v>29.857758</v>
       </c>
       <c r="O69" s="1">
-        <v>22.593401</v>
+        <v>30.845686000000001</v>
       </c>
       <c r="P69" s="1">
-        <v>28033087.876200002</v>
+        <v>14951925.43495</v>
       </c>
       <c r="Q69" s="1">
-        <v>20.962074000000001</v>
+        <v>29.521059000000001</v>
       </c>
       <c r="R69" s="1">
-        <v>24428059.564848501</v>
+        <v>13111589.3767692</v>
       </c>
       <c r="S69" s="1">
-        <v>28268173.7238429</v>
+        <v>15186321.7735411</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -7406,45 +7406,45 @@
         <v>235</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F70" s="1">
-        <v>192626154</v>
+        <v>453871520</v>
       </c>
       <c r="G70" s="1">
-        <v>43.8</v>
+        <v>27.22</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I70" s="1">
-        <v>19185397.759543601</v>
+        <v>28963418.564862799</v>
       </c>
       <c r="J70" s="1">
-        <v>29435033.4814285</v>
+        <v>16596721.322666701</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
-        <v>25174350.619245999</v>
+        <v>32205072.0515748</v>
       </c>
       <c r="N70" s="1">
-        <v>48.993675000000003</v>
+        <v>22.290648000000001</v>
       </c>
       <c r="O70" s="1">
-        <v>39.419243000000002</v>
+        <v>22.593401</v>
       </c>
       <c r="P70" s="1">
-        <v>22168560.3367</v>
+        <v>28033087.876200002</v>
       </c>
       <c r="Q70" s="1">
-        <v>44.093609999999998</v>
+        <v>20.962074000000001</v>
       </c>
       <c r="R70" s="1">
-        <v>21624248.4156923</v>
+        <v>24428059.564848501</v>
       </c>
       <c r="S70" s="1">
-        <v>25087059.239085201</v>
+        <v>28268173.7238429</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -7461,45 +7461,45 @@
         <v>238</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F71" s="1">
-        <v>7085565400</v>
+        <v>192626154</v>
       </c>
       <c r="G71" s="1">
-        <v>8.7940000000000005</v>
+        <v>43.8</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I71" s="1">
-        <v>60547382.181209803</v>
+        <v>19185397.759543601</v>
       </c>
       <c r="J71" s="1">
-        <v>42336498.672933303</v>
+        <v>29435033.4814285</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
-        <v>62537157.884111799</v>
+        <v>25174350.619245999</v>
       </c>
       <c r="N71" s="1">
-        <v>33.316414000000002</v>
+        <v>48.993675000000003</v>
       </c>
       <c r="O71" s="1">
-        <v>33.283732999999998</v>
+        <v>39.419243000000002</v>
       </c>
       <c r="P71" s="1">
-        <v>59307003.280060001</v>
+        <v>22168560.3367</v>
       </c>
       <c r="Q71" s="1">
-        <v>30.491913</v>
+        <v>44.093609999999998</v>
       </c>
       <c r="R71" s="1">
-        <v>50436645.447560601</v>
+        <v>21624248.4156923</v>
       </c>
       <c r="S71" s="1">
-        <v>58372310.429260202</v>
+        <v>25087059.239085201</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
@@ -7516,45 +7516,45 @@
         <v>241</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F72" s="1">
-        <v>1231267738</v>
+        <v>7085565400</v>
       </c>
       <c r="G72" s="1">
-        <v>6.6840000000000002</v>
+        <v>8.7940000000000005</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I72" s="1">
-        <v>44202291.032730199</v>
+        <v>60547382.181209803</v>
       </c>
       <c r="J72" s="1">
-        <v>35923454.403571397</v>
+        <v>42336498.672933303</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
-        <v>44718351.871888898</v>
+        <v>62537157.884111799</v>
       </c>
       <c r="N72" s="1">
-        <v>35.336579999999998</v>
+        <v>33.316414000000002</v>
       </c>
       <c r="O72" s="1">
-        <v>33.291587999999997</v>
+        <v>33.283732999999998</v>
       </c>
       <c r="P72" s="1">
-        <v>41695980.075010002</v>
+        <v>59307003.280060001</v>
       </c>
       <c r="Q72" s="1">
-        <v>34.900706999999997</v>
+        <v>30.491913</v>
       </c>
       <c r="R72" s="1">
-        <v>41407613.187600002</v>
+        <v>50436645.447560601</v>
       </c>
       <c r="S72" s="1">
-        <v>47975272.804824702</v>
+        <v>58372310.429260202</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -7571,45 +7571,45 @@
         <v>244</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F73" s="1">
-        <v>171347471</v>
+        <v>1231267738</v>
       </c>
       <c r="G73" s="1">
-        <v>126.6</v>
+        <v>6.6840000000000002</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I73" s="1">
-        <v>70390974.670196101</v>
+        <v>44202291.032730199</v>
       </c>
       <c r="J73" s="1">
-        <v>54037858.726666696</v>
+        <v>35923454.403571397</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
-        <v>72282013.302165404</v>
+        <v>44718351.871888898</v>
       </c>
       <c r="N73" s="1">
-        <v>33.349193999999997</v>
+        <v>35.336579999999998</v>
       </c>
       <c r="O73" s="1">
-        <v>32.659877999999999</v>
+        <v>33.291587999999997</v>
       </c>
       <c r="P73" s="1">
-        <v>66695773.525749996</v>
+        <v>41695980.075010002</v>
       </c>
       <c r="Q73" s="1">
-        <v>32.745396</v>
+        <v>34.900706999999997</v>
       </c>
       <c r="R73" s="1">
-        <v>60875403.479166701</v>
+        <v>41407613.187600002</v>
       </c>
       <c r="S73" s="1">
-        <v>70547489.134108007</v>
+        <v>47975272.804824702</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -7629,42 +7629,42 @@
         <v>35</v>
       </c>
       <c r="F74" s="1">
-        <v>736314789</v>
+        <v>171347471</v>
       </c>
       <c r="G74" s="1">
-        <v>13.065</v>
+        <v>126.6</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I74" s="1">
-        <v>37908960.0980196</v>
+        <v>70390974.670196101</v>
       </c>
       <c r="J74" s="1">
-        <v>22738344.743666701</v>
+        <v>54037858.726666696</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
-        <v>42538322.024192899</v>
+        <v>72282013.302165404</v>
       </c>
       <c r="N74" s="1">
-        <v>24.336324999999999</v>
+        <v>33.349193999999997</v>
       </c>
       <c r="O74" s="1">
-        <v>25.483843</v>
+        <v>32.659877999999999</v>
       </c>
       <c r="P74" s="1">
-        <v>41185602.289250001</v>
+        <v>66695773.525749996</v>
       </c>
       <c r="Q74" s="1">
-        <v>25.618680999999999</v>
+        <v>32.745396</v>
       </c>
       <c r="R74" s="1">
-        <v>37569482.828409098</v>
+        <v>60875403.479166701</v>
       </c>
       <c r="S74" s="1">
-        <v>43520772.210837901</v>
+        <v>70547489.134108007</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -7681,45 +7681,45 @@
         <v>250</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F75" s="1">
-        <v>706475400</v>
+        <v>736314789</v>
       </c>
       <c r="G75" s="1">
-        <v>31.03</v>
+        <v>13.065</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I75" s="1">
-        <v>40561009.029056802</v>
+        <v>37908960.0980196</v>
       </c>
       <c r="J75" s="1">
-        <v>24339939.323333301</v>
+        <v>22738344.743666701</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
-        <v>40753364.775118098</v>
+        <v>42538322.024192899</v>
       </c>
       <c r="N75" s="1">
-        <v>28.87763</v>
+        <v>24.336324999999999</v>
       </c>
       <c r="O75" s="1">
-        <v>27.864895000000001</v>
+        <v>25.483843</v>
       </c>
       <c r="P75" s="1">
-        <v>38062137.780500002</v>
+        <v>41185602.289250001</v>
       </c>
       <c r="Q75" s="1">
-        <v>28.53199</v>
+        <v>25.618680999999999</v>
       </c>
       <c r="R75" s="1">
-        <v>33000192.5410606</v>
+        <v>37569482.828409098</v>
       </c>
       <c r="S75" s="1">
-        <v>38184303.678674102</v>
+        <v>43520772.210837901</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -7736,45 +7736,45 @@
         <v>253</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F76" s="1">
-        <v>38096217</v>
+        <v>706475400</v>
       </c>
       <c r="G76" s="1">
-        <v>76.3</v>
+        <v>31.03</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I76" s="1">
-        <v>5595615.4855882404</v>
+        <v>40561009.029056802</v>
       </c>
       <c r="J76" s="1">
-        <v>2962322.8066666699</v>
+        <v>24339939.323333301</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
-        <v>7044663.6448818902</v>
+        <v>40753364.775118098</v>
       </c>
       <c r="N76" s="1">
-        <v>28.697569000000001</v>
+        <v>28.87763</v>
       </c>
       <c r="O76" s="1">
-        <v>30.42456</v>
+        <v>27.864895000000001</v>
       </c>
       <c r="P76" s="1">
-        <v>7559484.2920000097</v>
+        <v>38062137.780500002</v>
       </c>
       <c r="Q76" s="1">
-        <v>27.108920999999999</v>
+        <v>28.53199</v>
       </c>
       <c r="R76" s="1">
-        <v>5326230.8446969697</v>
+        <v>33000192.5410606</v>
       </c>
       <c r="S76" s="1">
-        <v>6144817.0228898097</v>
+        <v>38184303.678674102</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -7791,45 +7791,45 @@
         <v>256</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F77" s="1">
-        <v>1127496200</v>
+        <v>38096217</v>
       </c>
       <c r="G77" s="1">
-        <v>36.46</v>
+        <v>76.3</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I77" s="1">
-        <v>117253997.525731</v>
+        <v>5595615.4855882404</v>
       </c>
       <c r="J77" s="1">
-        <v>195829782.26333299</v>
+        <v>2962322.8066666699</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
-        <v>143840306.33482301</v>
+        <v>7044663.6448818902</v>
       </c>
       <c r="N77" s="1">
-        <v>42.348956999999999</v>
+        <v>28.697569000000001</v>
       </c>
       <c r="O77" s="1">
-        <v>38.775039999999997</v>
+        <v>30.42456</v>
       </c>
       <c r="P77" s="1">
-        <v>138380113.73962501</v>
+        <v>7559484.2920000097</v>
       </c>
       <c r="Q77" s="1">
-        <v>37.192534999999999</v>
+        <v>27.108920999999999</v>
       </c>
       <c r="R77" s="1">
-        <v>133043915.99371199</v>
+        <v>5326230.8446969697</v>
       </c>
       <c r="S77" s="1">
-        <v>154325215.15235099</v>
+        <v>6144817.0228898097</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
@@ -7849,42 +7849,42 @@
         <v>55</v>
       </c>
       <c r="F78" s="1">
-        <v>200005980</v>
+        <v>1127496200</v>
       </c>
       <c r="G78" s="1">
-        <v>76.22</v>
+        <v>36.46</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I78" s="1">
-        <v>28662631.651027702</v>
+        <v>117253997.525731</v>
       </c>
       <c r="J78" s="1">
-        <v>24609148.168666702</v>
+        <v>195829782.26333299</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
-        <v>31948854.756850399</v>
+        <v>143840306.33482301</v>
       </c>
       <c r="N78" s="1">
-        <v>33.378509999999999</v>
+        <v>42.348956999999999</v>
       </c>
       <c r="O78" s="1">
-        <v>26.01257</v>
+        <v>38.775039999999997</v>
       </c>
       <c r="P78" s="1">
-        <v>30458059.2696</v>
+        <v>138380113.73962501</v>
       </c>
       <c r="Q78" s="1">
-        <v>31.151138</v>
+        <v>37.192534999999999</v>
       </c>
       <c r="R78" s="1">
-        <v>27081263.305606101</v>
+        <v>133043915.99371199</v>
       </c>
       <c r="S78" s="1">
-        <v>31341706.246554099</v>
+        <v>154325215.15235099</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
@@ -7901,45 +7901,45 @@
         <v>262</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F79" s="1">
-        <v>3079553200</v>
+        <v>200005980</v>
       </c>
       <c r="G79" s="1">
-        <v>3.83</v>
+        <v>76.22</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I79" s="1">
-        <v>7963413.2681098003</v>
+        <v>28662631.651027702</v>
       </c>
       <c r="J79" s="1">
-        <v>8384956.3165333299</v>
+        <v>24609148.168666702</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
-        <v>10197108.6773622</v>
+        <v>31948854.756850399</v>
       </c>
       <c r="N79" s="1">
-        <v>26.30705</v>
+        <v>33.378509999999999</v>
       </c>
       <c r="O79" s="1">
-        <v>27.75506</v>
+        <v>26.01257</v>
       </c>
       <c r="P79" s="1">
-        <v>11225357.77313</v>
+        <v>30458059.2696</v>
       </c>
       <c r="Q79" s="1">
-        <v>24.930809</v>
+        <v>31.151138</v>
       </c>
       <c r="R79" s="1">
-        <v>11552043.586515199</v>
+        <v>27081263.305606101</v>
       </c>
       <c r="S79" s="1">
-        <v>13331664.788620999</v>
+        <v>31341706.246554099</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
@@ -7956,45 +7956,45 @@
         <v>265</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F80" s="1">
-        <v>189000000</v>
+        <v>3079553200</v>
       </c>
       <c r="G80" s="1">
-        <v>60.24</v>
+        <v>3.83</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I80" s="1">
-        <v>16767785.5872727</v>
+        <v>7963413.2681098003</v>
       </c>
       <c r="J80" s="1">
-        <v>1524264.83</v>
+        <v>8384956.3165333299</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
-        <v>2559631.0670866198</v>
+        <v>10197108.6773622</v>
       </c>
       <c r="N80" s="1">
-        <v>8.2392299999999992</v>
+        <v>26.30705</v>
       </c>
       <c r="O80" s="1">
-        <v>7.8991636999999999</v>
+        <v>27.75506</v>
       </c>
       <c r="P80" s="1">
-        <v>1578494.3914000001</v>
+        <v>11225357.77313</v>
       </c>
       <c r="Q80" s="1">
-        <v>8.8446130000000007</v>
+        <v>24.930809</v>
       </c>
       <c r="R80" s="1">
-        <v>1660341.3563636399</v>
+        <v>11552043.586515199</v>
       </c>
       <c r="S80" s="1">
-        <v>1922297.9963706399</v>
+        <v>13331664.788620999</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
@@ -8011,45 +8011,45 @@
         <v>268</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F81" s="1">
-        <v>111623468</v>
+        <v>189000000</v>
       </c>
       <c r="G81" s="1">
-        <v>59.3</v>
+        <v>60.24</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I81" s="1">
-        <v>6297705.2254705904</v>
+        <v>16767785.5872727</v>
       </c>
       <c r="J81" s="1">
-        <v>5442266.9766666703</v>
+        <v>1524264.83</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
-        <v>6563285.1711417297</v>
+        <v>2559631.0670866198</v>
       </c>
       <c r="N81" s="1">
-        <v>26.142305</v>
+        <v>8.2392299999999992</v>
       </c>
       <c r="O81" s="1">
-        <v>26.784711999999999</v>
+        <v>7.8991636999999999</v>
       </c>
       <c r="P81" s="1">
-        <v>6272089.6379000004</v>
+        <v>1578494.3914000001</v>
       </c>
       <c r="Q81" s="1">
-        <v>24.406735999999999</v>
+        <v>8.8446130000000007</v>
       </c>
       <c r="R81" s="1">
-        <v>5943126.3463636404</v>
+        <v>1660341.3563636399</v>
       </c>
       <c r="S81" s="1">
-        <v>6880564.9441551501</v>
+        <v>1922297.9963706399</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
@@ -8069,42 +8069,42 @@
         <v>35</v>
       </c>
       <c r="F82" s="1">
-        <v>3025902350</v>
+        <v>111623468</v>
       </c>
       <c r="G82" s="1">
-        <v>17.055</v>
+        <v>59.3</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I82" s="1">
-        <v>83617460.094813704</v>
+        <v>6297705.2254705904</v>
       </c>
       <c r="J82" s="1">
-        <v>54733839.162333302</v>
+        <v>5442266.9766666703</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
-        <v>86889517.062893599</v>
+        <v>6563285.1711417297</v>
       </c>
       <c r="N82" s="1">
-        <v>22.972033</v>
+        <v>26.142305</v>
       </c>
       <c r="O82" s="1">
-        <v>23.609062000000002</v>
+        <v>26.784711999999999</v>
       </c>
       <c r="P82" s="1">
-        <v>79397375.971274897</v>
+        <v>6272089.6379000004</v>
       </c>
       <c r="Q82" s="1">
-        <v>20.455133</v>
+        <v>24.406735999999999</v>
       </c>
       <c r="R82" s="1">
-        <v>66465865.732689403</v>
+        <v>5943126.3463636404</v>
       </c>
       <c r="S82" s="1">
-        <v>76850613.485726699</v>
+        <v>6880564.9441551501</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
@@ -8121,45 +8121,45 @@
         <v>274</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F83" s="1">
-        <v>479284361</v>
+        <v>3025902350</v>
       </c>
       <c r="G83" s="1">
-        <v>18.940000000000001</v>
+        <v>17.055</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I83" s="1">
-        <v>2077806.7125490201</v>
+        <v>83617460.094813704</v>
       </c>
       <c r="J83" s="1">
-        <v>2032018.304</v>
+        <v>54733839.162333302</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1">
-        <v>2176285.0875590499</v>
+        <v>86889517.062893599</v>
       </c>
       <c r="N83" s="1">
-        <v>27.244842999999999</v>
+        <v>22.972033</v>
       </c>
       <c r="O83" s="1">
-        <v>27.704716000000001</v>
+        <v>23.609062000000002</v>
       </c>
       <c r="P83" s="1">
-        <v>2099889.8489999999</v>
+        <v>79397375.971274897</v>
       </c>
       <c r="Q83" s="1">
-        <v>25.403600000000001</v>
+        <v>20.455133</v>
       </c>
       <c r="R83" s="1">
-        <v>1920067.4</v>
+        <v>66465865.732689403</v>
       </c>
       <c r="S83" s="1">
-        <v>2226091.27767736</v>
+        <v>76850613.485726699</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
@@ -8176,45 +8176,45 @@
         <v>277</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F84" s="1">
-        <v>96000000</v>
+        <v>479284361</v>
       </c>
       <c r="G84" s="1">
-        <v>81.2</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I84" s="1">
-        <v>12502767.448023699</v>
+        <v>2077806.7125490201</v>
       </c>
       <c r="J84" s="1">
-        <v>20346773.126666699</v>
+        <v>2032018.304</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
-        <v>14991529.6301181</v>
+        <v>2176285.0875590499</v>
       </c>
       <c r="N84" s="1">
-        <v>36.484188000000003</v>
+        <v>27.244842999999999</v>
       </c>
       <c r="O84" s="1">
-        <v>36.489260000000002</v>
+        <v>27.704716000000001</v>
       </c>
       <c r="P84" s="1">
-        <v>13823584.887250001</v>
+        <v>2099889.8489999999</v>
       </c>
       <c r="Q84" s="1">
-        <v>33.440429999999999</v>
+        <v>25.403600000000001</v>
       </c>
       <c r="R84" s="1">
-        <v>13012204.2484849</v>
+        <v>1920067.4</v>
       </c>
       <c r="S84" s="1">
-        <v>15072539.4533743</v>
+        <v>2226091.27767736</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
@@ -8231,45 +8231,45 @@
         <v>280</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F85" s="1">
-        <v>1062984492</v>
+        <v>96000000</v>
       </c>
       <c r="G85" s="1">
-        <v>17.53</v>
+        <v>81.2</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I85" s="1">
-        <v>10066035.338548999</v>
+        <v>12502767.448023699</v>
       </c>
       <c r="J85" s="1">
-        <v>5117161.6866666703</v>
+        <v>20346773.126666699</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
-        <v>8668871.9338582698</v>
+        <v>14991529.6301181</v>
       </c>
       <c r="N85" s="1">
-        <v>39.594673</v>
+        <v>36.484188000000003</v>
       </c>
       <c r="O85" s="1">
-        <v>38.894343999999997</v>
+        <v>36.489260000000002</v>
       </c>
       <c r="P85" s="1">
-        <v>7787872.2037000004</v>
+        <v>13823584.887250001</v>
       </c>
       <c r="Q85" s="1">
-        <v>37.039966999999997</v>
+        <v>33.440429999999999</v>
       </c>
       <c r="R85" s="1">
-        <v>6979827.9906818196</v>
+        <v>13012204.2484849</v>
       </c>
       <c r="S85" s="1">
-        <v>8073516.1077801101</v>
+        <v>15072539.4533743</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
@@ -8286,45 +8286,45 @@
         <v>283</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F86" s="1">
-        <v>791868300</v>
+        <v>1062984492</v>
       </c>
       <c r="G86" s="1">
-        <v>41.62</v>
+        <v>17.53</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I86" s="1">
-        <v>53784314.052094899</v>
+        <v>10066035.338548999</v>
       </c>
       <c r="J86" s="1">
-        <v>31553586.689333301</v>
+        <v>5117161.6866666703</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
-        <v>60503671.870354302</v>
+        <v>8668871.9338582698</v>
       </c>
       <c r="N86" s="1">
-        <v>38.970080000000003</v>
+        <v>39.594673</v>
       </c>
       <c r="O86" s="1">
-        <v>35.670394999999999</v>
+        <v>38.894343999999997</v>
       </c>
       <c r="P86" s="1">
-        <v>53974227.916649997</v>
+        <v>7787872.2037000004</v>
       </c>
       <c r="Q86" s="1">
-        <v>37.342674000000002</v>
+        <v>37.039966999999997</v>
       </c>
       <c r="R86" s="1">
-        <v>48057775.644166701</v>
+        <v>6979827.9906818196</v>
       </c>
       <c r="S86" s="1">
-        <v>55666257.678551003</v>
+        <v>8073516.1077801101</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
@@ -8341,45 +8341,45 @@
         <v>286</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F87" s="1">
-        <v>681394483</v>
+        <v>791868300</v>
       </c>
       <c r="G87" s="1">
-        <v>73.239999999999995</v>
+        <v>41.62</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I87" s="1">
-        <v>88825587.763686404</v>
+        <v>53784314.052094899</v>
       </c>
       <c r="J87" s="1">
-        <v>66981333.285333298</v>
+        <v>31553586.689333301</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1">
-        <v>103922510.170315</v>
+        <v>60503671.870354302</v>
       </c>
       <c r="N87" s="1">
-        <v>21.669557999999999</v>
+        <v>38.970080000000003</v>
       </c>
       <c r="O87" s="1">
-        <v>21.671392000000001</v>
+        <v>35.670394999999999</v>
       </c>
       <c r="P87" s="1">
-        <v>94580783.367500007</v>
+        <v>53974227.916649997</v>
       </c>
       <c r="Q87" s="1">
-        <v>19.685269999999999</v>
+        <v>37.342674000000002</v>
       </c>
       <c r="R87" s="1">
-        <v>77221971.694091007</v>
+        <v>48057775.644166701</v>
       </c>
       <c r="S87" s="1">
-        <v>89364496.105082199</v>
+        <v>55666257.678551003</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
@@ -8399,42 +8399,42 @@
         <v>35</v>
       </c>
       <c r="F88" s="1">
-        <v>78397034</v>
+        <v>681394483</v>
       </c>
       <c r="G88" s="1">
-        <v>273.60000000000002</v>
+        <v>73.239999999999995</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I88" s="1">
-        <v>14827929.484705901</v>
+        <v>88825587.763686404</v>
       </c>
       <c r="J88" s="1">
-        <v>12886651.393333299</v>
+        <v>66981333.285333298</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
-        <v>22130721.1251968</v>
+        <v>103922510.170315</v>
       </c>
       <c r="N88" s="1">
-        <v>39.711260000000003</v>
+        <v>21.669557999999999</v>
       </c>
       <c r="O88" s="1">
-        <v>33.903312999999997</v>
+        <v>21.671392000000001</v>
       </c>
       <c r="P88" s="1">
-        <v>18158512.006000001</v>
+        <v>94580783.367500007</v>
       </c>
       <c r="Q88" s="1">
-        <v>35.90316</v>
+        <v>19.685269999999999</v>
       </c>
       <c r="R88" s="1">
-        <v>16958042.7212121</v>
+        <v>77221971.694091007</v>
       </c>
       <c r="S88" s="1">
-        <v>19638418.8656407</v>
+        <v>89364496.105082199</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
@@ -8454,42 +8454,42 @@
         <v>35</v>
       </c>
       <c r="F89" s="1">
-        <v>1344379776</v>
+        <v>78397034</v>
       </c>
       <c r="G89" s="1">
-        <v>27.13</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I89" s="1">
-        <v>52426176.362764701</v>
+        <v>14827929.484705901</v>
       </c>
       <c r="J89" s="1">
-        <v>34535382.3893333</v>
+        <v>12886651.393333299</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1">
-        <v>53243358.489448801</v>
+        <v>22130721.1251968</v>
       </c>
       <c r="N89" s="1">
-        <v>27.840257999999999</v>
+        <v>39.711260000000003</v>
       </c>
       <c r="O89" s="1">
-        <v>27.387615</v>
+        <v>33.903312999999997</v>
       </c>
       <c r="P89" s="1">
-        <v>50700775.01935</v>
+        <v>18158512.006000001</v>
       </c>
       <c r="Q89" s="1">
-        <v>28.048715999999999</v>
+        <v>35.90316</v>
       </c>
       <c r="R89" s="1">
-        <v>47583220.401363596</v>
+        <v>16958042.7212121</v>
       </c>
       <c r="S89" s="1">
-        <v>55104495.646035902</v>
+        <v>19638418.8656407</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
@@ -8506,45 +8506,45 @@
         <v>295</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F90" s="1">
-        <v>295618650</v>
+        <v>1344379776</v>
       </c>
       <c r="G90" s="1">
-        <v>24.17</v>
+        <v>27.13</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I90" s="1">
-        <v>22216187.057588901</v>
+        <v>52426176.362764701</v>
       </c>
       <c r="J90" s="1">
-        <v>11762297.276666701</v>
+        <v>34535382.3893333</v>
       </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1">
-        <v>19895222.577874001</v>
+        <v>53243358.489448801</v>
       </c>
       <c r="N90" s="1">
-        <v>55.253680000000003</v>
+        <v>27.840257999999999</v>
       </c>
       <c r="O90" s="1">
-        <v>55.551364999999997</v>
+        <v>27.387615</v>
       </c>
       <c r="P90" s="1">
-        <v>18669572.270649999</v>
+        <v>50700775.01935</v>
       </c>
       <c r="Q90" s="1">
-        <v>57.058537000000001</v>
+        <v>28.048715999999999</v>
       </c>
       <c r="R90" s="1">
-        <v>18345883.430606101</v>
+        <v>47583220.401363596</v>
       </c>
       <c r="S90" s="1">
-        <v>21290053.200465798</v>
+        <v>55104495.646035902</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
@@ -8564,42 +8564,42 @@
         <v>55</v>
       </c>
       <c r="F91" s="1">
-        <v>1948252900</v>
+        <v>295618650</v>
       </c>
       <c r="G91" s="1">
-        <v>31.7</v>
+        <v>24.17</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I91" s="1">
-        <v>148554198.92256501</v>
+        <v>22216187.057588901</v>
       </c>
       <c r="J91" s="1">
-        <v>146273600.216833</v>
+        <v>11762297.276666701</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1">
-        <v>185191285.328394</v>
+        <v>19895222.577874001</v>
       </c>
       <c r="N91" s="1">
-        <v>44.197780000000002</v>
+        <v>55.253680000000003</v>
       </c>
       <c r="O91" s="1">
-        <v>40.282597000000003</v>
+        <v>55.551364999999997</v>
       </c>
       <c r="P91" s="1">
-        <v>172948861.24031001</v>
+        <v>18669572.270649999</v>
       </c>
       <c r="Q91" s="1">
-        <v>39.235672000000001</v>
+        <v>57.058537000000001</v>
       </c>
       <c r="R91" s="1">
-        <v>158184332.13405299</v>
+        <v>18345883.430606101</v>
       </c>
       <c r="S91" s="1">
-        <v>183396181.33356899</v>
+        <v>21290053.200465798</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
@@ -8619,42 +8619,42 @@
         <v>55</v>
       </c>
       <c r="F92" s="1">
-        <v>188300000</v>
+        <v>1948252900</v>
       </c>
       <c r="G92" s="1">
-        <v>256.89999999999998</v>
+        <v>31.7</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I92" s="1">
-        <v>86684897.899604693</v>
+        <v>148554198.92256501</v>
       </c>
       <c r="J92" s="1">
-        <v>71152862.023333296</v>
+        <v>146273600.216833</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1">
-        <v>111054087.798425</v>
+        <v>185191285.328394</v>
       </c>
       <c r="N92" s="1">
-        <v>24.566600000000001</v>
+        <v>44.197780000000002</v>
       </c>
       <c r="O92" s="1">
-        <v>25.642392999999998</v>
+        <v>40.282597000000003</v>
       </c>
       <c r="P92" s="1">
-        <v>109321686.0105</v>
+        <v>172948861.24031001</v>
       </c>
       <c r="Q92" s="1">
-        <v>21.731929999999998</v>
+        <v>39.235672000000001</v>
       </c>
       <c r="R92" s="1">
-        <v>84064797.7295454</v>
+        <v>158184332.13405299</v>
       </c>
       <c r="S92" s="1">
-        <v>97361873.194792897</v>
+        <v>183396181.33356899</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
@@ -8674,42 +8674,42 @@
         <v>55</v>
       </c>
       <c r="F93" s="1">
-        <v>1200000000</v>
+        <v>188300000</v>
       </c>
       <c r="G93" s="1">
-        <v>40.18</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I93" s="1">
-        <v>92655673.989268795</v>
+        <v>86684897.899604693</v>
       </c>
       <c r="J93" s="1">
-        <v>63086069.115999997</v>
+        <v>71152862.023333296</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
-        <v>100258804.562756</v>
+        <v>111054087.798425</v>
       </c>
       <c r="N93" s="1">
-        <v>35.151027999999997</v>
+        <v>24.566600000000001</v>
       </c>
       <c r="O93" s="1">
-        <v>29.238873000000002</v>
+        <v>25.642392999999998</v>
       </c>
       <c r="P93" s="1">
-        <v>88196017.298150003</v>
+        <v>109321686.0105</v>
       </c>
       <c r="Q93" s="1">
-        <v>32.022930000000002</v>
+        <v>21.731929999999998</v>
       </c>
       <c r="R93" s="1">
-        <v>74676396.223484904</v>
+        <v>84064797.7295454</v>
       </c>
       <c r="S93" s="1">
-        <v>86444030.546506494</v>
+        <v>97361873.194792897</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
@@ -8729,42 +8729,42 @@
         <v>55</v>
       </c>
       <c r="F94" s="1">
-        <v>4905190400</v>
+        <v>1200000000</v>
       </c>
       <c r="G94" s="1">
-        <v>31.43</v>
+        <v>40.18</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I94" s="1">
-        <v>210571792.840514</v>
+        <v>92655673.989268795</v>
       </c>
       <c r="J94" s="1">
-        <v>162374284.91266701</v>
+        <v>63086069.115999997</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
-        <v>239105700.74980301</v>
+        <v>100258804.562756</v>
       </c>
       <c r="N94" s="1">
-        <v>26.329499999999999</v>
+        <v>35.151027999999997</v>
       </c>
       <c r="O94" s="1">
-        <v>25.800056000000001</v>
+        <v>29.238873000000002</v>
       </c>
       <c r="P94" s="1">
-        <v>221512693.73179999</v>
+        <v>88196017.298150003</v>
       </c>
       <c r="Q94" s="1">
-        <v>24.443729999999999</v>
+        <v>32.022930000000002</v>
       </c>
       <c r="R94" s="1">
-        <v>187261698.81454501</v>
+        <v>74676396.223484904</v>
       </c>
       <c r="S94" s="1">
-        <v>216884137.087919</v>
+        <v>86444030.546506494</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
@@ -8781,45 +8781,45 @@
         <v>310</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F95" s="1">
-        <v>55948257</v>
+        <v>4905190400</v>
       </c>
       <c r="G95" s="1">
-        <v>86.94</v>
+        <v>31.43</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I95" s="1">
-        <v>13125345.215079401</v>
+        <v>210571792.840514</v>
       </c>
       <c r="J95" s="1">
-        <v>14122408.4871429</v>
+        <v>162374284.91266701</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
-        <v>14633302.3157936</v>
+        <v>239105700.74980301</v>
       </c>
       <c r="N95" s="1">
-        <v>21.404709</v>
+        <v>26.329499999999999</v>
       </c>
       <c r="O95" s="1">
-        <v>19.995944999999999</v>
+        <v>25.800056000000001</v>
       </c>
       <c r="P95" s="1">
-        <v>14456600.7722</v>
+        <v>221512693.73179999</v>
       </c>
       <c r="Q95" s="1">
-        <v>20.226175000000001</v>
+        <v>24.443729999999999</v>
       </c>
       <c r="R95" s="1">
-        <v>14786987.3713846</v>
+        <v>187261698.81454501</v>
       </c>
       <c r="S95" s="1">
-        <v>17127434.227658801</v>
+        <v>216884137.087919</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
@@ -8836,45 +8836,45 @@
         <v>313</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F96" s="1">
-        <v>53690082</v>
+        <v>55948257</v>
       </c>
       <c r="G96" s="1">
-        <v>190.8</v>
+        <v>86.94</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I96" s="1">
-        <v>10486349.685882401</v>
+        <v>13125345.215079401</v>
       </c>
       <c r="J96" s="1">
-        <v>5124891.8233333305</v>
+        <v>14122408.4871429</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1">
-        <v>8992981.9897637796</v>
+        <v>14633302.3157936</v>
       </c>
       <c r="N96" s="1">
-        <v>26.707111000000001</v>
+        <v>21.404709</v>
       </c>
       <c r="O96" s="1">
-        <v>24.563856000000001</v>
+        <v>19.995944999999999</v>
       </c>
       <c r="P96" s="1">
-        <v>8510324.9375</v>
+        <v>14456600.7722</v>
       </c>
       <c r="Q96" s="1">
-        <v>27.075877999999999</v>
+        <v>20.226175000000001</v>
       </c>
       <c r="R96" s="1">
-        <v>7394758.07878788</v>
+        <v>14786987.3713846</v>
       </c>
       <c r="S96" s="1">
-        <v>8553858.2960614208</v>
+        <v>17127434.227658801</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
@@ -8891,45 +8891,45 @@
         <v>316</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F97" s="1">
-        <v>265676388</v>
+        <v>53690082</v>
       </c>
       <c r="G97" s="1">
-        <v>84.94</v>
+        <v>190.8</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I97" s="1">
-        <v>45501617.224411704</v>
+        <v>10486349.685882401</v>
       </c>
       <c r="J97" s="1">
-        <v>33455374.126666699</v>
+        <v>5124891.8233333305</v>
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
-        <v>44835344.634212598</v>
+        <v>8992981.9897637796</v>
       </c>
       <c r="N97" s="1">
-        <v>22.272040000000001</v>
+        <v>26.707111000000001</v>
       </c>
       <c r="O97" s="1">
-        <v>22.237368</v>
+        <v>24.563856000000001</v>
       </c>
       <c r="P97" s="1">
-        <v>43286268.475199997</v>
+        <v>8510324.9375</v>
       </c>
       <c r="Q97" s="1">
-        <v>22.920029</v>
+        <v>27.075877999999999</v>
       </c>
       <c r="R97" s="1">
-        <v>41764608.5754546</v>
+        <v>7394758.07878788</v>
       </c>
       <c r="S97" s="1">
-        <v>48347287.319509298</v>
+        <v>8553858.2960614208</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
@@ -8946,45 +8946,45 @@
         <v>319</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F98" s="1">
-        <v>2641318800</v>
+        <v>265676388</v>
       </c>
       <c r="G98" s="1">
-        <v>15.445</v>
+        <v>84.94</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I98" s="1">
-        <v>75320736.737865597</v>
+        <v>45501617.224411704</v>
       </c>
       <c r="J98" s="1">
-        <v>60386086.793333299</v>
+        <v>33455374.126666699</v>
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
-        <v>88521548.193838596</v>
+        <v>44835344.634212598</v>
       </c>
       <c r="N98" s="1">
-        <v>22.151499999999999</v>
+        <v>22.272040000000001</v>
       </c>
       <c r="O98" s="1">
-        <v>22.668483999999999</v>
+        <v>22.237368</v>
       </c>
       <c r="P98" s="1">
-        <v>84320296.069000006</v>
+        <v>43286268.475199997</v>
       </c>
       <c r="Q98" s="1">
-        <v>21.717009000000001</v>
+        <v>22.920029</v>
       </c>
       <c r="R98" s="1">
-        <v>69330813.390681803</v>
+        <v>41764608.5754546</v>
       </c>
       <c r="S98" s="1">
-        <v>80246309.951105803</v>
+        <v>48347287.319509298</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
@@ -9001,45 +9001,45 @@
         <v>322</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F99" s="1">
-        <v>239891064</v>
+        <v>2641318800</v>
       </c>
       <c r="G99" s="1">
-        <v>26.73</v>
+        <v>15.445</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I99" s="1">
-        <v>20973808.3402941</v>
+        <v>75320736.737865597</v>
       </c>
       <c r="J99" s="1">
-        <v>10503648.029999999</v>
+        <v>60386086.793333299</v>
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
-        <v>19554549.9204331</v>
+        <v>88521548.193838596</v>
       </c>
       <c r="N99" s="1">
-        <v>37.819096000000002</v>
+        <v>22.151499999999999</v>
       </c>
       <c r="O99" s="1">
-        <v>39.208224999999999</v>
+        <v>22.668483999999999</v>
       </c>
       <c r="P99" s="1">
-        <v>18484677.307149999</v>
+        <v>84320296.069000006</v>
       </c>
       <c r="Q99" s="1">
-        <v>35.172435999999998</v>
+        <v>21.717009000000001</v>
       </c>
       <c r="R99" s="1">
-        <v>15265470.192500001</v>
+        <v>69330813.390681803</v>
       </c>
       <c r="S99" s="1">
-        <v>17691457.273866799</v>
+        <v>80246309.951105803</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
@@ -9056,45 +9056,45 @@
         <v>325</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="F100" s="1">
-        <v>4184021624</v>
+        <v>239891064</v>
       </c>
       <c r="G100" s="1">
-        <v>3.8820000000000001</v>
+        <v>26.73</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I100" s="1">
-        <v>33248480.929929402</v>
+        <v>20973808.3402941</v>
       </c>
       <c r="J100" s="1">
-        <v>25965349.436233301</v>
+        <v>10503648.029999999</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1">
-        <v>37836075.333015703</v>
+        <v>19554549.9204331</v>
       </c>
       <c r="N100" s="1">
-        <v>29.302387</v>
+        <v>37.819096000000002</v>
       </c>
       <c r="O100" s="1">
-        <v>29.361298000000001</v>
+        <v>39.208224999999999</v>
       </c>
       <c r="P100" s="1">
-        <v>34972010.65715</v>
+        <v>18484677.307149999</v>
       </c>
       <c r="Q100" s="1">
-        <v>28.326146999999999</v>
+        <v>35.172435999999998</v>
       </c>
       <c r="R100" s="1">
-        <v>28575897.403613601</v>
+        <v>15265470.192500001</v>
       </c>
       <c r="S100" s="1">
-        <v>33091703.519886602</v>
+        <v>17691457.273866799</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
@@ -9111,45 +9111,45 @@
         <v>328</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F101" s="1">
-        <v>1051033116</v>
+        <v>4184021624</v>
       </c>
       <c r="G101" s="1">
-        <v>10.7</v>
+        <v>3.8820000000000001</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I101" s="1">
-        <v>12418643.4937745</v>
+        <v>33248480.929929402</v>
       </c>
       <c r="J101" s="1">
-        <v>10616105.8986667</v>
+        <v>25965349.436233301</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1">
-        <v>13218993.887185</v>
+        <v>37836075.333015703</v>
       </c>
       <c r="N101" s="1">
-        <v>42.311633999999998</v>
+        <v>29.302387</v>
       </c>
       <c r="O101" s="1">
-        <v>40.131583999999997</v>
+        <v>29.361298000000001</v>
       </c>
       <c r="P101" s="1">
-        <v>12646290.306849999</v>
+        <v>34972010.65715</v>
       </c>
       <c r="Q101" s="1">
-        <v>39.979942000000001</v>
+        <v>28.326146999999999</v>
       </c>
       <c r="R101" s="1">
-        <v>12316252.7977273</v>
+        <v>28575897.403613601</v>
       </c>
       <c r="S101" s="1">
-        <v>14269271.078281401</v>
+        <v>33091703.519886602</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
@@ -9166,45 +9166,45 @@
         <v>331</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="F102" s="1">
-        <v>98000000</v>
+        <v>1051033116</v>
       </c>
       <c r="G102" s="1">
-        <v>125.9</v>
+        <v>10.7</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I102" s="1">
-        <v>23448547.3742157</v>
+        <v>12418643.4937745</v>
       </c>
       <c r="J102" s="1">
-        <v>15816849.015000001</v>
+        <v>10616105.8986667</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
-        <v>25872287.191377901</v>
+        <v>13218993.887185</v>
       </c>
       <c r="N102" s="1">
-        <v>27.125622</v>
+        <v>42.311633999999998</v>
       </c>
       <c r="O102" s="1">
-        <v>22.278144999999999</v>
+        <v>40.131583999999997</v>
       </c>
       <c r="P102" s="1">
-        <v>23573153.272950001</v>
+        <v>12646290.306849999</v>
       </c>
       <c r="Q102" s="1">
-        <v>24.269307999999999</v>
+        <v>39.979942000000001</v>
       </c>
       <c r="R102" s="1">
-        <v>21662071.667424198</v>
+        <v>12316252.7977273</v>
       </c>
       <c r="S102" s="1">
-        <v>25073904.6676738</v>
+        <v>14269271.078281401</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
@@ -9221,45 +9221,45 @@
         <v>334</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F103" s="1">
-        <v>109072607</v>
+        <v>98000000</v>
       </c>
       <c r="G103" s="1">
-        <v>99.45</v>
+        <v>125.9</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I103" s="1">
-        <v>10968009.091078401</v>
+        <v>23448547.3742157</v>
       </c>
       <c r="J103" s="1">
-        <v>6835346.9699999997</v>
+        <v>15816849.015000001</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
-        <v>16128074.257480299</v>
+        <v>25872287.191377901</v>
       </c>
       <c r="N103" s="1">
-        <v>38.635886999999997</v>
+        <v>27.125622</v>
       </c>
       <c r="O103" s="1">
-        <v>30.398890999999999</v>
+        <v>22.278144999999999</v>
       </c>
       <c r="P103" s="1">
-        <v>14928651.696</v>
+        <v>23573153.272950001</v>
       </c>
       <c r="Q103" s="1">
-        <v>38.877827000000003</v>
+        <v>24.269307999999999</v>
       </c>
       <c r="R103" s="1">
-        <v>15118962.5507576</v>
+        <v>21662071.667424198</v>
       </c>
       <c r="S103" s="1">
-        <v>17382237.7067114</v>
+        <v>25073904.6676738</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
@@ -9276,45 +9276,45 @@
         <v>337</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F104" s="1">
-        <v>236664445</v>
+        <v>109072607</v>
       </c>
       <c r="G104" s="1">
-        <v>25.52</v>
+        <v>99.45</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I104" s="1">
-        <v>7919896.1768431403</v>
+        <v>10968009.091078401</v>
       </c>
       <c r="J104" s="1">
-        <v>4526688.86666667</v>
+        <v>6835346.9699999997</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1">
-        <v>7752678.8087401604</v>
+        <v>16128074.257480299</v>
       </c>
       <c r="N104" s="1">
-        <v>24.623583</v>
+        <v>38.635886999999997</v>
       </c>
       <c r="O104" s="1">
-        <v>21.187899000000002</v>
+        <v>30.398890999999999</v>
       </c>
       <c r="P104" s="1">
-        <v>7669306.7993000001</v>
+        <v>14928651.696</v>
       </c>
       <c r="Q104" s="1">
-        <v>23.907700999999999</v>
+        <v>38.877827000000003</v>
       </c>
       <c r="R104" s="1">
-        <v>6929035.8062121198</v>
+        <v>15118962.5507576</v>
       </c>
       <c r="S104" s="1">
-        <v>8013977.5961341001</v>
+        <v>17382237.7067114</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
@@ -9331,45 +9331,45 @@
         <v>340</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>341</v>
+        <v>35</v>
       </c>
       <c r="F105" s="1">
-        <v>167335070</v>
+        <v>236664445</v>
       </c>
       <c r="G105" s="1">
-        <v>45.9</v>
+        <v>25.52</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I105" s="1">
-        <v>11656034.085502001</v>
+        <v>7919896.1768431403</v>
       </c>
       <c r="J105" s="1">
-        <v>8326516.2413333301</v>
+        <v>4526688.86666667</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
-        <v>12441571.711200001</v>
+        <v>7752678.8087401604</v>
       </c>
       <c r="N105" s="1">
-        <v>17.962337000000002</v>
+        <v>24.623583</v>
       </c>
       <c r="O105" s="1">
-        <v>18.410485999999999</v>
+        <v>21.187899000000002</v>
       </c>
       <c r="P105" s="1">
-        <v>12383106.933499999</v>
+        <v>7669306.7993000001</v>
       </c>
       <c r="Q105" s="1">
-        <v>17.934259999999998</v>
+        <v>23.907700999999999</v>
       </c>
       <c r="R105" s="1">
-        <v>10730616.211874999</v>
+        <v>6929035.8062121198</v>
       </c>
       <c r="S105" s="1">
-        <v>12417116.4822715</v>
+        <v>8013977.5961341001</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
@@ -9377,54 +9377,54 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F106" s="1">
-        <v>261990080</v>
+        <v>167335070</v>
       </c>
       <c r="G106" s="1">
-        <v>13.515000000000001</v>
+        <v>45.9</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I106" s="1">
-        <v>12855320.1913686</v>
+        <v>11656034.085502001</v>
       </c>
       <c r="J106" s="1">
-        <v>8296075.6799999997</v>
+        <v>8326516.2413333301</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
-        <v>13202543.380062999</v>
+        <v>12441571.711200001</v>
       </c>
       <c r="N106" s="1">
-        <v>20.543037000000002</v>
+        <v>17.962337000000002</v>
       </c>
       <c r="O106" s="1">
-        <v>19.765284000000001</v>
+        <v>18.410485999999999</v>
       </c>
       <c r="P106" s="1">
-        <v>12221094.37788</v>
+        <v>12383106.933499999</v>
       </c>
       <c r="Q106" s="1">
-        <v>19.961404999999999</v>
+        <v>17.934259999999998</v>
       </c>
       <c r="R106" s="1">
-        <v>11270033.3251212</v>
+        <v>10730616.211874999</v>
       </c>
       <c r="S106" s="1">
-        <v>13058573.823690301</v>
+        <v>12417116.4822715</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
@@ -9444,42 +9444,42 @@
         <v>42</v>
       </c>
       <c r="F107" s="1">
-        <v>1058752100</v>
+        <v>261990080</v>
       </c>
       <c r="G107" s="1">
-        <v>26.73</v>
+        <v>13.515000000000001</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I107" s="1">
-        <v>25126540.3609141</v>
+        <v>12855320.1913686</v>
       </c>
       <c r="J107" s="1">
-        <v>14804582.113</v>
+        <v>8296075.6799999997</v>
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
-        <v>28540113.641944099</v>
+        <v>13202543.380062999</v>
       </c>
       <c r="N107" s="1">
-        <v>22.875703999999999</v>
+        <v>20.543037000000002</v>
       </c>
       <c r="O107" s="1">
-        <v>23.630548000000001</v>
+        <v>19.765284000000001</v>
       </c>
       <c r="P107" s="1">
-        <v>27342428.151418999</v>
+        <v>12221094.37788</v>
       </c>
       <c r="Q107" s="1">
-        <v>20.608398000000001</v>
+        <v>19.961404999999999</v>
       </c>
       <c r="R107" s="1">
-        <v>24217894.9971212</v>
+        <v>11270033.3251212</v>
       </c>
       <c r="S107" s="1">
-        <v>28037860.1902752</v>
+        <v>13058573.823690301</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
@@ -9496,45 +9496,45 @@
         <v>350</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F108" s="1">
-        <v>10166679946</v>
+        <v>1058752100</v>
       </c>
       <c r="G108" s="1">
-        <v>8.1120000000000001</v>
+        <v>26.73</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I108" s="1">
-        <v>178517665.43292901</v>
+        <v>25126540.3609141</v>
       </c>
       <c r="J108" s="1">
-        <v>136326219.547607</v>
+        <v>14804582.113</v>
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1">
-        <v>200107110.117663</v>
+        <v>28540113.641944099</v>
       </c>
       <c r="N108" s="1">
-        <v>20.457518</v>
+        <v>22.875703999999999</v>
       </c>
       <c r="O108" s="1">
-        <v>21.018160000000002</v>
+        <v>23.630548000000001</v>
       </c>
       <c r="P108" s="1">
-        <v>187869262.24256</v>
+        <v>27342428.151418999</v>
       </c>
       <c r="Q108" s="1">
-        <v>19.52936</v>
+        <v>20.608398000000001</v>
       </c>
       <c r="R108" s="1">
-        <v>152937690.747354</v>
+        <v>24217894.9971212</v>
       </c>
       <c r="S108" s="1">
-        <v>177167142.475602</v>
+        <v>28037860.1902752</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
@@ -9551,45 +9551,45 @@
         <v>353</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F109" s="1">
-        <v>2435285011</v>
+        <v>10166679946</v>
       </c>
       <c r="G109" s="1">
-        <v>18.77</v>
+        <v>8.1120000000000001</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I109" s="1">
-        <v>90975479.353294194</v>
+        <v>178517665.43292901</v>
       </c>
       <c r="J109" s="1">
-        <v>68771850.739500001</v>
+        <v>136326219.547607</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1">
-        <v>101310529.160374</v>
+        <v>200107110.117663</v>
       </c>
       <c r="N109" s="1">
-        <v>22.353183999999999</v>
+        <v>20.457518</v>
       </c>
       <c r="O109" s="1">
-        <v>22.931398000000002</v>
+        <v>21.018160000000002</v>
       </c>
       <c r="P109" s="1">
-        <v>94602352.004924998</v>
+        <v>187869262.24256</v>
       </c>
       <c r="Q109" s="1">
-        <v>20.27533</v>
+        <v>19.52936</v>
       </c>
       <c r="R109" s="1">
-        <v>77910422.5967803</v>
+        <v>152937690.747354</v>
       </c>
       <c r="S109" s="1">
-        <v>90239125.073593706</v>
+        <v>177167142.475602</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
@@ -9606,45 +9606,45 @@
         <v>356</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F110" s="1">
-        <v>3146765114</v>
+        <v>2435285011</v>
       </c>
       <c r="G110" s="1">
-        <v>15.228</v>
+        <v>18.77</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I110" s="1">
-        <v>167365992.73879799</v>
+        <v>90975479.353294194</v>
       </c>
       <c r="J110" s="1">
-        <v>127824357.94821399</v>
+        <v>68771850.739500001</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1">
-        <v>176808033.82086501</v>
+        <v>101310529.160374</v>
       </c>
       <c r="N110" s="1">
-        <v>23.765951000000001</v>
+        <v>22.353183999999999</v>
       </c>
       <c r="O110" s="1">
-        <v>24.179037000000001</v>
+        <v>22.931398000000002</v>
       </c>
       <c r="P110" s="1">
-        <v>169237518.97266001</v>
+        <v>94602352.004924998</v>
       </c>
       <c r="Q110" s="1">
-        <v>21.487245999999999</v>
+        <v>20.27533</v>
       </c>
       <c r="R110" s="1">
-        <v>149519770.08009201</v>
+        <v>77910422.5967803</v>
       </c>
       <c r="S110" s="1">
-        <v>173141617.410384</v>
+        <v>90239125.073593706</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
@@ -9661,45 +9661,45 @@
         <v>359</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="F111" s="1">
-        <v>410514370</v>
+        <v>3146765114</v>
       </c>
       <c r="G111" s="1">
-        <v>84</v>
+        <v>15.228</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I111" s="1">
-        <v>30578410.324782599</v>
+        <v>167365992.73879799</v>
       </c>
       <c r="J111" s="1">
-        <v>27164403.2183333</v>
+        <v>127824357.94821399</v>
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1">
-        <v>35536676.281968497</v>
+        <v>176808033.82086501</v>
       </c>
       <c r="N111" s="1">
-        <v>37.702156000000002</v>
+        <v>23.765951000000001</v>
       </c>
       <c r="O111" s="1">
-        <v>35.029727999999999</v>
+        <v>24.179037000000001</v>
       </c>
       <c r="P111" s="1">
-        <v>32942971.004799999</v>
+        <v>169237518.97266001</v>
       </c>
       <c r="Q111" s="1">
-        <v>35.314594</v>
+        <v>21.487245999999999</v>
       </c>
       <c r="R111" s="1">
-        <v>29648187.702651501</v>
+        <v>149519770.08009201</v>
       </c>
       <c r="S111" s="1">
-        <v>34300516.557854898</v>
+        <v>173141617.410384</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
@@ -9716,45 +9716,45 @@
         <v>362</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F112" s="1">
-        <v>463145529</v>
+        <v>410514370</v>
       </c>
       <c r="G112" s="1">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I112" s="1">
-        <v>135737329.84902</v>
+        <v>30578410.324782599</v>
       </c>
       <c r="J112" s="1">
-        <v>90728397.553333402</v>
+        <v>27164403.2183333</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1">
-        <v>154242524.43031499</v>
+        <v>35536676.281968497</v>
       </c>
       <c r="N112" s="1">
-        <v>29.986238</v>
+        <v>37.702156000000002</v>
       </c>
       <c r="O112" s="1">
-        <v>31.268488000000001</v>
+        <v>35.029727999999999</v>
       </c>
       <c r="P112" s="1">
-        <v>145106632.88600001</v>
+        <v>32942971.004799999</v>
       </c>
       <c r="Q112" s="1">
-        <v>27.710740000000001</v>
+        <v>35.314594</v>
       </c>
       <c r="R112" s="1">
-        <v>127506510.55984899</v>
+        <v>29648187.702651501</v>
       </c>
       <c r="S112" s="1">
-        <v>147310532.68487</v>
+        <v>34300516.557854898</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
@@ -9774,42 +9774,42 @@
         <v>35</v>
       </c>
       <c r="F113" s="1">
-        <v>73085760</v>
+        <v>463145529</v>
       </c>
       <c r="G113" s="1">
-        <v>57.35</v>
+        <v>272</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I113" s="1">
-        <v>7651780.0369607899</v>
+        <v>135737329.84902</v>
       </c>
       <c r="J113" s="1">
-        <v>8381369.335</v>
+        <v>90728397.553333402</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1">
-        <v>8808741.8679133896</v>
+        <v>154242524.43031499</v>
       </c>
       <c r="N113" s="1">
-        <v>38.743465</v>
+        <v>29.986238</v>
       </c>
       <c r="O113" s="1">
-        <v>40.807853999999999</v>
+        <v>31.268488000000001</v>
       </c>
       <c r="P113" s="1">
-        <v>8545259.9497500006</v>
+        <v>145106632.88600001</v>
       </c>
       <c r="Q113" s="1">
-        <v>33.986972999999999</v>
+        <v>27.710740000000001</v>
       </c>
       <c r="R113" s="1">
-        <v>8261925.3924242398</v>
+        <v>127506510.55984899</v>
       </c>
       <c r="S113" s="1">
-        <v>9576235.7987581808</v>
+        <v>147310532.68487</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
@@ -9829,42 +9829,42 @@
         <v>35</v>
       </c>
       <c r="F114" s="1">
-        <v>182163000</v>
+        <v>73085760</v>
       </c>
       <c r="G114" s="1">
-        <v>68.36</v>
+        <v>57.35</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I114" s="1">
-        <v>19932219.754960801</v>
+        <v>7651780.0369607899</v>
       </c>
       <c r="J114" s="1">
-        <v>13184943.176000001</v>
+        <v>8381369.335</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1">
-        <v>20807759.917637799</v>
+        <v>8808741.8679133896</v>
       </c>
       <c r="N114" s="1">
-        <v>31.39892</v>
+        <v>38.743465</v>
       </c>
       <c r="O114" s="1">
-        <v>31.049423000000001</v>
+        <v>40.807853999999999</v>
       </c>
       <c r="P114" s="1">
-        <v>20170714.664799999</v>
+        <v>8545259.9497500006</v>
       </c>
       <c r="Q114" s="1">
-        <v>30.300749</v>
+        <v>33.986972999999999</v>
       </c>
       <c r="R114" s="1">
-        <v>19301075.152121201</v>
+        <v>8261925.3924242398</v>
       </c>
       <c r="S114" s="1">
-        <v>22319154.180147499</v>
+        <v>9576235.7987581808</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
@@ -9884,42 +9884,42 @@
         <v>35</v>
       </c>
       <c r="F115" s="1">
-        <v>101542528</v>
+        <v>182163000</v>
       </c>
       <c r="G115" s="1">
-        <v>143</v>
+        <v>68.36</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I115" s="1">
-        <v>25953645.189019602</v>
+        <v>19932219.754960801</v>
       </c>
       <c r="J115" s="1">
-        <v>26143467.77</v>
+        <v>13184943.176000001</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1">
-        <v>32672411.827165399</v>
+        <v>20807759.917637799</v>
       </c>
       <c r="N115" s="1">
-        <v>20.358229000000001</v>
+        <v>31.39892</v>
       </c>
       <c r="O115" s="1">
-        <v>21.054821</v>
+        <v>31.049423000000001</v>
       </c>
       <c r="P115" s="1">
-        <v>31843636.093499999</v>
+        <v>20170714.664799999</v>
       </c>
       <c r="Q115" s="1">
-        <v>18.827210999999998</v>
+        <v>30.300749</v>
       </c>
       <c r="R115" s="1">
-        <v>27660804.966666698</v>
+        <v>19301075.152121201</v>
       </c>
       <c r="S115" s="1">
-        <v>31998635.206971001</v>
+        <v>22319154.180147499</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
@@ -9936,45 +9936,45 @@
         <v>374</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F116" s="1">
-        <v>466000000</v>
+        <v>101542528</v>
       </c>
       <c r="G116" s="1">
-        <v>17.2</v>
+        <v>143</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I116" s="1">
-        <v>19020565.752460498</v>
+        <v>25953645.189019602</v>
       </c>
       <c r="J116" s="1">
-        <v>17242590.404666699</v>
+        <v>26143467.77</v>
       </c>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1">
-        <v>21303136.123681098</v>
+        <v>32672411.827165399</v>
       </c>
       <c r="N116" s="1">
-        <v>32.195095000000002</v>
+        <v>20.358229000000001</v>
       </c>
       <c r="O116" s="1">
-        <v>26.710830000000001</v>
+        <v>21.054821</v>
       </c>
       <c r="P116" s="1">
-        <v>19180437.412250001</v>
+        <v>31843636.093499999</v>
       </c>
       <c r="Q116" s="1">
-        <v>29.659185000000001</v>
+        <v>18.827210999999998</v>
       </c>
       <c r="R116" s="1">
-        <v>17950711.8431818</v>
+        <v>27660804.966666698</v>
       </c>
       <c r="S116" s="1">
-        <v>20790467.569733001</v>
+        <v>31998635.206971001</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
@@ -9991,45 +9991,45 @@
         <v>377</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F117" s="1">
-        <v>207779752</v>
+        <v>466000000</v>
       </c>
       <c r="G117" s="1">
-        <v>87.25</v>
+        <v>17.2</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I117" s="1">
-        <v>15484260.633333299</v>
+        <v>19020565.752460498</v>
       </c>
       <c r="J117" s="1">
-        <v>12899449.1583333</v>
+        <v>17242590.404666699</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1">
-        <v>16880770.5003937</v>
+        <v>21303136.123681098</v>
       </c>
       <c r="N117" s="1">
-        <v>25.392261999999999</v>
+        <v>32.195095000000002</v>
       </c>
       <c r="O117" s="1">
-        <v>25.118534</v>
+        <v>26.710830000000001</v>
       </c>
       <c r="P117" s="1">
-        <v>15297473.812249999</v>
+        <v>19180437.412250001</v>
       </c>
       <c r="Q117" s="1">
-        <v>23.777073000000001</v>
+        <v>29.659185000000001</v>
       </c>
       <c r="R117" s="1">
-        <v>13561659.148484901</v>
+        <v>17950711.8431818</v>
       </c>
       <c r="S117" s="1">
-        <v>15696485.4016238</v>
+        <v>20790467.569733001</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
@@ -10046,45 +10046,45 @@
         <v>380</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F118" s="1">
-        <v>185270000</v>
+        <v>207779752</v>
       </c>
       <c r="G118" s="1">
-        <v>28.5</v>
+        <v>87.25</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I118" s="1">
-        <v>9699948.2947843205</v>
+        <v>15484260.633333299</v>
       </c>
       <c r="J118" s="1">
-        <v>8894762.8073333297</v>
+        <v>12899449.1583333</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1">
-        <v>12053875.1366929</v>
+        <v>16880770.5003937</v>
       </c>
       <c r="N118" s="1">
-        <v>27.609901000000001</v>
+        <v>25.392261999999999</v>
       </c>
       <c r="O118" s="1">
-        <v>23.366796000000001</v>
+        <v>25.118534</v>
       </c>
       <c r="P118" s="1">
-        <v>10930686.479800001</v>
+        <v>15297473.812249999</v>
       </c>
       <c r="Q118" s="1">
-        <v>25.316887000000001</v>
+        <v>23.777073000000001</v>
       </c>
       <c r="R118" s="1">
-        <v>11436298.340606101</v>
+        <v>13561659.148484901</v>
       </c>
       <c r="S118" s="1">
-        <v>13224849.329315601</v>
+        <v>15696485.4016238</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
@@ -10101,45 +10101,45 @@
         <v>383</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F119" s="1">
-        <v>193923499</v>
+        <v>185270000</v>
       </c>
       <c r="G119" s="1">
-        <v>404.1</v>
+        <v>28.5</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I119" s="1">
-        <v>141156547.220635</v>
+        <v>9699948.2947843205</v>
       </c>
       <c r="J119" s="1">
-        <v>132824098.332142</v>
+        <v>8894762.8073333297</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
-        <v>151029031.05674601</v>
+        <v>12053875.1366929</v>
       </c>
       <c r="N119" s="1">
-        <v>33.483322000000001</v>
+        <v>27.609901000000001</v>
       </c>
       <c r="O119" s="1">
-        <v>32.297348</v>
+        <v>23.366796000000001</v>
       </c>
       <c r="P119" s="1">
-        <v>136142859.16600001</v>
+        <v>10930686.479800001</v>
       </c>
       <c r="Q119" s="1">
-        <v>31.825054000000002</v>
+        <v>25.316887000000001</v>
       </c>
       <c r="R119" s="1">
-        <v>124677928.856923</v>
+        <v>11436298.340606101</v>
       </c>
       <c r="S119" s="1">
-        <v>144191104.56222999</v>
+        <v>13224849.329315601</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
@@ -10156,45 +10156,45 @@
         <v>386</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F120" s="1">
-        <v>733755400</v>
+        <v>193923499</v>
       </c>
       <c r="G120" s="1">
-        <v>47.57</v>
+        <v>404.1</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I120" s="1">
-        <v>45734080.233853303</v>
+        <v>141156547.220635</v>
       </c>
       <c r="J120" s="1">
-        <v>27685137.373333301</v>
+        <v>132824098.332142</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1">
-        <v>45773116.027576402</v>
+        <v>151029031.05674601</v>
       </c>
       <c r="N120" s="1">
-        <v>22.063675</v>
+        <v>33.483322000000001</v>
       </c>
       <c r="O120" s="1">
-        <v>22.652253999999999</v>
+        <v>32.297348</v>
       </c>
       <c r="P120" s="1">
-        <v>47773880.618839003</v>
+        <v>136142859.16600001</v>
       </c>
       <c r="Q120" s="1">
-        <v>20.628540000000001</v>
+        <v>31.825054000000002</v>
       </c>
       <c r="R120" s="1">
-        <v>41948503.844748497</v>
+        <v>124677928.856923</v>
       </c>
       <c r="S120" s="1">
-        <v>48346798.595993601</v>
+        <v>144191104.56222999</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
@@ -10211,45 +10211,45 @@
         <v>389</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F121" s="1">
-        <v>611575321</v>
+        <v>733755400</v>
       </c>
       <c r="G121" s="1">
-        <v>19.445</v>
+        <v>47.57</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I121" s="1">
-        <v>32166138.008402798</v>
+        <v>45734080.233853303</v>
       </c>
       <c r="J121" s="1">
-        <v>25568735.108571399</v>
+        <v>27685137.373333301</v>
       </c>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1">
-        <v>35972884.130436502</v>
+        <v>45773116.027576402</v>
       </c>
       <c r="N121" s="1">
-        <v>34.021239999999999</v>
+        <v>22.063675</v>
       </c>
       <c r="O121" s="1">
-        <v>33.120747000000001</v>
+        <v>22.652253999999999</v>
       </c>
       <c r="P121" s="1">
-        <v>34544541.865725003</v>
+        <v>47773880.618839003</v>
       </c>
       <c r="Q121" s="1">
-        <v>30.536299</v>
+        <v>20.628540000000001</v>
       </c>
       <c r="R121" s="1">
-        <v>28601057.8318846</v>
+        <v>41948503.844748497</v>
       </c>
       <c r="S121" s="1">
-        <v>33099401.477543801</v>
+        <v>48346798.595993601</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
@@ -10266,45 +10266,45 @@
         <v>392</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F122" s="1">
-        <v>110134544</v>
+        <v>611575321</v>
       </c>
       <c r="G122" s="1">
-        <v>28.52</v>
+        <v>19.445</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I122" s="1">
-        <v>6150545.3409782602</v>
+        <v>32166138.008402798</v>
       </c>
       <c r="J122" s="1">
-        <v>5661744.3566666702</v>
+        <v>25568735.108571399</v>
       </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1">
-        <v>8713789.5318110194</v>
+        <v>35972884.130436502</v>
       </c>
       <c r="N122" s="1">
-        <v>38.517403000000002</v>
+        <v>34.021239999999999</v>
       </c>
       <c r="O122" s="1">
-        <v>36.713431999999997</v>
+        <v>33.120747000000001</v>
       </c>
       <c r="P122" s="1">
-        <v>8071498.3610500004</v>
+        <v>34544541.865725003</v>
       </c>
       <c r="Q122" s="1">
-        <v>35.791943000000003</v>
+        <v>30.536299</v>
       </c>
       <c r="R122" s="1">
-        <v>7186133.2549999999</v>
+        <v>28601057.8318846</v>
       </c>
       <c r="S122" s="1">
-        <v>8330177.3972977903</v>
+        <v>33099401.477543801</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
@@ -10321,45 +10321,45 @@
         <v>395</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F123" s="1">
-        <v>192129070</v>
+        <v>110134544</v>
       </c>
       <c r="G123" s="1">
-        <v>24.82</v>
+        <v>28.52</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I123" s="1">
-        <v>7769356.0059411796</v>
+        <v>6150545.3409782602</v>
       </c>
       <c r="J123" s="1">
-        <v>6089732.4413333302</v>
+        <v>5661744.3566666702</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1">
-        <v>7871267.8631102303</v>
+        <v>8713789.5318110194</v>
       </c>
       <c r="N123" s="1">
-        <v>33.485076999999997</v>
+        <v>38.517403000000002</v>
       </c>
       <c r="O123" s="1">
-        <v>34.446606000000003</v>
+        <v>36.713431999999997</v>
       </c>
       <c r="P123" s="1">
-        <v>7780392.3418500004</v>
+        <v>8071498.3610500004</v>
       </c>
       <c r="Q123" s="1">
-        <v>30.881294</v>
+        <v>35.791943000000003</v>
       </c>
       <c r="R123" s="1">
-        <v>7424562.0527272699</v>
+        <v>7186133.2549999999</v>
       </c>
       <c r="S123" s="1">
-        <v>8595546.4424875602</v>
+        <v>8330177.3972977903</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
@@ -10376,45 +10376,45 @@
         <v>398</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="F124" s="1">
-        <v>897264470</v>
+        <v>192129070</v>
       </c>
       <c r="G124" s="1">
-        <v>15.31</v>
+        <v>24.82</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I124" s="1">
-        <v>20803772.7442169</v>
+        <v>7769356.0059411796</v>
       </c>
       <c r="J124" s="1">
-        <v>18302383.951333299</v>
+        <v>6089732.4413333302</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1">
-        <v>21823773.052639998</v>
+        <v>7871267.8631102303</v>
       </c>
       <c r="N124" s="1">
-        <v>26.660250000000001</v>
+        <v>33.485076999999997</v>
       </c>
       <c r="O124" s="1">
-        <v>28.442923</v>
+        <v>34.446606000000003</v>
       </c>
       <c r="P124" s="1">
-        <v>20662785.405400001</v>
+        <v>7780392.3418500004</v>
       </c>
       <c r="Q124" s="1">
-        <v>26.286514</v>
+        <v>30.881294</v>
       </c>
       <c r="R124" s="1">
-        <v>18445125.998125002</v>
+        <v>7424562.0527272699</v>
       </c>
       <c r="S124" s="1">
-        <v>21365979.6477933</v>
+        <v>8595546.4424875602</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
@@ -10431,45 +10431,45 @@
         <v>401</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="F125" s="1">
-        <v>92468704</v>
+        <v>897264470</v>
       </c>
       <c r="G125" s="1">
-        <v>76.2</v>
+        <v>15.31</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I125" s="1">
-        <v>8695141.6283992101</v>
+        <v>20803772.7442169</v>
       </c>
       <c r="J125" s="1">
-        <v>10061157.8766667</v>
+        <v>18302383.951333299</v>
       </c>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1">
-        <v>9013909.2494094502</v>
+        <v>21823773.052639998</v>
       </c>
       <c r="N125" s="1">
-        <v>25.840696000000001</v>
+        <v>26.660250000000001</v>
       </c>
       <c r="O125" s="1">
-        <v>26.54918</v>
+        <v>28.442923</v>
       </c>
       <c r="P125" s="1">
-        <v>8222048.3760000002</v>
+        <v>20662785.405400001</v>
       </c>
       <c r="Q125" s="1">
-        <v>26.211147</v>
+        <v>26.286514</v>
       </c>
       <c r="R125" s="1">
-        <v>7361212.2068181802</v>
+        <v>18445125.998125002</v>
       </c>
       <c r="S125" s="1">
-        <v>8523858.7224423196</v>
+        <v>21365979.6477933</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
@@ -10489,42 +10489,42 @@
         <v>55</v>
       </c>
       <c r="F126" s="1">
-        <v>118900600</v>
+        <v>92468704</v>
       </c>
       <c r="G126" s="1">
-        <v>28.54</v>
+        <v>76.2</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I126" s="1">
-        <v>9636072.8188932799</v>
+        <v>8695141.6283992101</v>
       </c>
       <c r="J126" s="1">
-        <v>8681309.6946666706</v>
+        <v>10061157.8766667</v>
       </c>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1">
-        <v>12516597.5740945</v>
+        <v>9013909.2494094502</v>
       </c>
       <c r="N126" s="1">
-        <v>33.930070000000001</v>
+        <v>25.840696000000001</v>
       </c>
       <c r="O126" s="1">
-        <v>36.068382</v>
+        <v>26.54918</v>
       </c>
       <c r="P126" s="1">
-        <v>11592647.568299999</v>
+        <v>8222048.3760000002</v>
       </c>
       <c r="Q126" s="1">
-        <v>30.173476999999998</v>
+        <v>26.211147</v>
       </c>
       <c r="R126" s="1">
-        <v>9791491.6845454592</v>
+        <v>7361212.2068181802</v>
       </c>
       <c r="S126" s="1">
-        <v>11320120.575444801</v>
+        <v>8523858.7224423196</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
@@ -10544,42 +10544,42 @@
         <v>55</v>
       </c>
       <c r="F127" s="1">
-        <v>293413450</v>
+        <v>118900600</v>
       </c>
       <c r="G127" s="1">
-        <v>43.6</v>
+        <v>28.54</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I127" s="1">
-        <v>21535485.429308299</v>
+        <v>9636072.8188932799</v>
       </c>
       <c r="J127" s="1">
-        <v>25161517.092333298</v>
+        <v>8681309.6946666706</v>
       </c>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1">
-        <v>26371982.9370079</v>
+        <v>12516597.5740945</v>
       </c>
       <c r="N127" s="1">
-        <v>32.028843000000002</v>
+        <v>33.930070000000001</v>
       </c>
       <c r="O127" s="1">
-        <v>30.695017</v>
+        <v>36.068382</v>
       </c>
       <c r="P127" s="1">
-        <v>25702348.73965</v>
+        <v>11592647.568299999</v>
       </c>
       <c r="Q127" s="1">
-        <v>29.355732</v>
+        <v>30.173476999999998</v>
       </c>
       <c r="R127" s="1">
-        <v>23983532.4006061</v>
+        <v>9791491.6845454592</v>
       </c>
       <c r="S127" s="1">
-        <v>27748187.847723201</v>
+        <v>11320120.575444801</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
@@ -10599,42 +10599,42 @@
         <v>55</v>
       </c>
       <c r="F128" s="1">
-        <v>563237300</v>
+        <v>293413450</v>
       </c>
       <c r="G128" s="1">
-        <v>47.69</v>
+        <v>43.6</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I128" s="1">
-        <v>37260511.379011802</v>
+        <v>21535485.429308299</v>
       </c>
       <c r="J128" s="1">
-        <v>37890973.588</v>
+        <v>25161517.092333298</v>
       </c>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1">
-        <v>42974518.218464598</v>
+        <v>26371982.9370079</v>
       </c>
       <c r="N128" s="1">
-        <v>25.660962999999999</v>
+        <v>32.028843000000002</v>
       </c>
       <c r="O128" s="1">
-        <v>24.398807999999999</v>
+        <v>30.695017</v>
       </c>
       <c r="P128" s="1">
-        <v>39558830.42475</v>
+        <v>25702348.73965</v>
       </c>
       <c r="Q128" s="1">
-        <v>23.452475</v>
+        <v>29.355732</v>
       </c>
       <c r="R128" s="1">
-        <v>33586705.531287901</v>
+        <v>23983532.4006061</v>
       </c>
       <c r="S128" s="1">
-        <v>38886734.929220803</v>
+        <v>27748187.847723201</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
@@ -10654,42 +10654,42 @@
         <v>55</v>
       </c>
       <c r="F129" s="1">
-        <v>65500000</v>
+        <v>563237300</v>
       </c>
       <c r="G129" s="1">
-        <v>42.62</v>
+        <v>47.69</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I129" s="1">
-        <v>4467030.8001581002</v>
+        <v>37260511.379011802</v>
       </c>
       <c r="J129" s="1">
-        <v>2805196.54</v>
+        <v>37890973.588</v>
       </c>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
-        <v>5544931.4377165297</v>
+        <v>42974518.218464598</v>
       </c>
       <c r="N129" s="1">
-        <v>34.983691999999998</v>
+        <v>25.660962999999999</v>
       </c>
       <c r="O129" s="1">
-        <v>32.876669999999997</v>
+        <v>24.398807999999999</v>
       </c>
       <c r="P129" s="1">
-        <v>4688383.2807999998</v>
+        <v>39558830.42475</v>
       </c>
       <c r="Q129" s="1">
-        <v>32.631034999999997</v>
+        <v>23.452475</v>
       </c>
       <c r="R129" s="1">
-        <v>4778663.2703030296</v>
+        <v>33586705.531287901</v>
       </c>
       <c r="S129" s="1">
-        <v>5529459.9228986604</v>
+        <v>38886734.929220803</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
@@ -10706,45 +10706,45 @@
         <v>416</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="F130" s="1">
-        <v>695415645</v>
+        <v>65500000</v>
       </c>
       <c r="G130" s="1">
-        <v>16.45</v>
+        <v>42.62</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I130" s="1">
-        <v>22448871.827950999</v>
+        <v>4467030.8001581002</v>
       </c>
       <c r="J130" s="1">
-        <v>20545438.2383333</v>
+        <v>2805196.54</v>
       </c>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1">
-        <v>24795640.256062999</v>
+        <v>5544931.4377165297</v>
       </c>
       <c r="N130" s="1">
-        <v>31.463723999999999</v>
+        <v>34.983691999999998</v>
       </c>
       <c r="O130" s="1">
-        <v>30.548030000000001</v>
+        <v>32.876669999999997</v>
       </c>
       <c r="P130" s="1">
-        <v>24390984.507475</v>
+        <v>4688383.2807999998</v>
       </c>
       <c r="Q130" s="1">
-        <v>28.946826999999999</v>
+        <v>32.631034999999997</v>
       </c>
       <c r="R130" s="1">
-        <v>22649333.7713257</v>
+        <v>4778663.2703030296</v>
       </c>
       <c r="S130" s="1">
-        <v>26225563.584252201</v>
+        <v>5529459.9228986604</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
@@ -10761,45 +10761,45 @@
         <v>419</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="F131" s="1">
-        <v>133200000</v>
+        <v>695415645</v>
       </c>
       <c r="G131" s="1">
-        <v>76.7</v>
+        <v>16.45</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I131" s="1">
-        <v>7385395.7815686297</v>
+        <v>22448871.827950999</v>
       </c>
       <c r="J131" s="1">
-        <v>5180988.5599999996</v>
+        <v>20545438.2383333</v>
       </c>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1">
-        <v>7972723.7547244104</v>
+        <v>24795640.256062999</v>
       </c>
       <c r="N131" s="1">
-        <v>21.892081999999998</v>
+        <v>31.463723999999999</v>
       </c>
       <c r="O131" s="1">
-        <v>22.713267999999999</v>
+        <v>30.548030000000001</v>
       </c>
       <c r="P131" s="1">
-        <v>7490271.8847500002</v>
+        <v>24390984.507475</v>
       </c>
       <c r="Q131" s="1">
-        <v>19.579742</v>
+        <v>28.946826999999999</v>
       </c>
       <c r="R131" s="1">
-        <v>6743710.9636363601</v>
+        <v>22649333.7713257</v>
       </c>
       <c r="S131" s="1">
-        <v>7797959.8534487197</v>
+        <v>26225563.584252201</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
@@ -10816,45 +10816,45 @@
         <v>422</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F132" s="1">
-        <v>162801670</v>
+        <v>133200000</v>
       </c>
       <c r="G132" s="1">
-        <v>64.7</v>
+        <v>76.7</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I132" s="1">
-        <v>17989756.585731201</v>
+        <v>7385395.7815686297</v>
       </c>
       <c r="J132" s="1">
-        <v>16962423.2816667</v>
+        <v>5180988.5599999996</v>
       </c>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1">
-        <v>22699925.7369291</v>
+        <v>7972723.7547244104</v>
       </c>
       <c r="N132" s="1">
-        <v>25.578676000000002</v>
+        <v>21.892081999999998</v>
       </c>
       <c r="O132" s="1">
-        <v>25.460940999999998</v>
+        <v>22.713267999999999</v>
       </c>
       <c r="P132" s="1">
-        <v>19934794.66065</v>
+        <v>7490271.8847500002</v>
       </c>
       <c r="Q132" s="1">
-        <v>23.148009999999999</v>
+        <v>19.579742</v>
       </c>
       <c r="R132" s="1">
-        <v>17931946.346969701</v>
+        <v>6743710.9636363601</v>
       </c>
       <c r="S132" s="1">
-        <v>20757618.554184999</v>
+        <v>7797959.8534487197</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
@@ -10871,45 +10871,45 @@
         <v>425</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F133" s="1">
-        <v>76738691</v>
+        <v>162801670</v>
       </c>
       <c r="G133" s="1">
-        <v>87.65</v>
+        <v>64.7</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I133" s="1">
-        <v>11646257.302941199</v>
+        <v>17989756.585731201</v>
       </c>
       <c r="J133" s="1">
-        <v>7303616.5800000001</v>
+        <v>16962423.2816667</v>
       </c>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1">
-        <v>11742366.3181102</v>
+        <v>22699925.7369291</v>
       </c>
       <c r="N133" s="1">
-        <v>21.445336999999999</v>
+        <v>25.578676000000002</v>
       </c>
       <c r="O133" s="1">
-        <v>22.170095</v>
+        <v>25.460940999999998</v>
       </c>
       <c r="P133" s="1">
-        <v>11399827.268750001</v>
+        <v>19934794.66065</v>
       </c>
       <c r="Q133" s="1">
-        <v>20.858903999999999</v>
+        <v>23.148009999999999</v>
       </c>
       <c r="R133" s="1">
-        <v>11129856.295833301</v>
+        <v>17931946.346969701</v>
       </c>
       <c r="S133" s="1">
-        <v>12878834.057341</v>
+        <v>20757618.554184999</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
@@ -10926,45 +10926,45 @@
         <v>428</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F134" s="1">
-        <v>1549784923</v>
+        <v>76738691</v>
       </c>
       <c r="G134" s="1">
-        <v>34.520000000000003</v>
+        <v>87.65</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I134" s="1">
-        <v>109617090.314246</v>
+        <v>11646257.302941199</v>
       </c>
       <c r="J134" s="1">
-        <v>73193214.000357196</v>
+        <v>7303616.5800000001</v>
       </c>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1">
-        <v>128908711.44190501</v>
+        <v>11742366.3181102</v>
       </c>
       <c r="N134" s="1">
-        <v>23.007769</v>
+        <v>21.445336999999999</v>
       </c>
       <c r="O134" s="1">
-        <v>25.003575999999999</v>
+        <v>22.170095</v>
       </c>
       <c r="P134" s="1">
-        <v>130314109.57625</v>
+        <v>11399827.268750001</v>
       </c>
       <c r="Q134" s="1">
-        <v>21.152913999999999</v>
+        <v>20.858903999999999</v>
       </c>
       <c r="R134" s="1">
-        <v>107455517.303385</v>
+        <v>11129856.295833301</v>
       </c>
       <c r="S134" s="1">
-        <v>124057367.53383</v>
+        <v>12878834.057341</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
@@ -10981,45 +10981,45 @@
         <v>431</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F135" s="1">
-        <v>550000000</v>
+        <v>1549784923</v>
       </c>
       <c r="G135" s="1">
-        <v>17.05</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I135" s="1">
-        <v>9737784.4868333396</v>
+        <v>109617090.314246</v>
       </c>
       <c r="J135" s="1">
-        <v>6115149.4606666705</v>
+        <v>73193214.000357196</v>
       </c>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1">
-        <v>9662926.6686614193</v>
+        <v>128908711.44190501</v>
       </c>
       <c r="N135" s="1">
-        <v>16.892063</v>
+        <v>23.007769</v>
       </c>
       <c r="O135" s="1">
-        <v>17.164954999999999</v>
+        <v>25.003575999999999</v>
       </c>
       <c r="P135" s="1">
-        <v>8936264.0100500006</v>
+        <v>130314109.57625</v>
       </c>
       <c r="Q135" s="1">
-        <v>16.200125</v>
+        <v>21.152913999999999</v>
       </c>
       <c r="R135" s="1">
-        <v>8105700.6210606098</v>
+        <v>107455517.303385</v>
       </c>
       <c r="S135" s="1">
-        <v>9379831.1355611999</v>
+        <v>124057367.53383</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
@@ -11036,45 +11036,45 @@
         <v>434</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F136" s="1">
-        <v>252291136</v>
+        <v>550000000</v>
       </c>
       <c r="G136" s="1">
-        <v>14.29</v>
+        <v>17.05</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I136" s="1">
-        <v>7210639.8425700804</v>
+        <v>9737784.4868333396</v>
       </c>
       <c r="J136" s="1">
-        <v>7399695.6342466697</v>
+        <v>6115149.4606666705</v>
       </c>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1">
-        <v>7084522.6192714302</v>
+        <v>9662926.6686614193</v>
       </c>
       <c r="N136" s="1">
-        <v>52.433610000000002</v>
+        <v>16.892063</v>
       </c>
       <c r="O136" s="1">
-        <v>40.510235000000002</v>
+        <v>17.164954999999999</v>
       </c>
       <c r="P136" s="1">
-        <v>6098362.1051139999</v>
+        <v>8936264.0100500006</v>
       </c>
       <c r="Q136" s="1">
-        <v>45.069540000000003</v>
+        <v>16.200125</v>
       </c>
       <c r="R136" s="1">
-        <v>5729889.10869091</v>
+        <v>8105700.6210606098</v>
       </c>
       <c r="S136" s="1">
-        <v>6633586.3161986899</v>
+        <v>9379831.1355611999</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
@@ -11091,45 +11091,45 @@
         <v>437</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F137" s="1">
-        <v>426129800</v>
+        <v>252291136</v>
       </c>
       <c r="G137" s="1">
-        <v>12.395</v>
+        <v>14.29</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I137" s="1">
-        <v>20035105.271209799</v>
+        <v>7210639.8425700804</v>
       </c>
       <c r="J137" s="1">
-        <v>16215215.6326667</v>
+        <v>7399695.6342466697</v>
       </c>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1">
-        <v>23137291.202948801</v>
+        <v>7084522.6192714302</v>
       </c>
       <c r="N137" s="1">
-        <v>43.915750000000003</v>
+        <v>52.433610000000002</v>
       </c>
       <c r="O137" s="1">
-        <v>38.537894999999999</v>
+        <v>40.510235000000002</v>
       </c>
       <c r="P137" s="1">
-        <v>21922117.047715001</v>
+        <v>6098362.1051139999</v>
       </c>
       <c r="Q137" s="1">
-        <v>41.028637000000003</v>
+        <v>45.069540000000003</v>
       </c>
       <c r="R137" s="1">
-        <v>21530335.949189398</v>
+        <v>5729889.10869091</v>
       </c>
       <c r="S137" s="1">
-        <v>24924198.6071034</v>
+        <v>6633586.3161986899</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.2">
@@ -11149,42 +11149,42 @@
         <v>42</v>
       </c>
       <c r="F138" s="1">
-        <v>120000000</v>
+        <v>426129800</v>
       </c>
       <c r="G138" s="1">
-        <v>48.9</v>
+        <v>12.395</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I138" s="1">
-        <v>3081942.2007921599</v>
+        <v>20035105.271209799</v>
       </c>
       <c r="J138" s="1">
-        <v>1998091.61666667</v>
+        <v>16215215.6326667</v>
       </c>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1">
-        <v>5348489.6670629904</v>
+        <v>23137291.202948801</v>
       </c>
       <c r="N138" s="1">
-        <v>24.783387999999999</v>
+        <v>43.915750000000003</v>
       </c>
       <c r="O138" s="1">
-        <v>4.4463324999999996</v>
+        <v>38.537894999999999</v>
       </c>
       <c r="P138" s="1">
-        <v>5964790.0017499998</v>
+        <v>21922117.047715001</v>
       </c>
       <c r="Q138" s="1">
-        <v>21.976713</v>
+        <v>41.028637000000003</v>
       </c>
       <c r="R138" s="1">
-        <v>3354768.5965909101</v>
+        <v>21530335.949189398</v>
       </c>
       <c r="S138" s="1">
-        <v>3891726.1081419699</v>
+        <v>24924198.6071034</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
@@ -11201,45 +11201,45 @@
         <v>443</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F139" s="1">
-        <v>37117772</v>
+        <v>120000000</v>
       </c>
       <c r="G139" s="1">
-        <v>158.5</v>
+        <v>48.9</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I139" s="1">
-        <v>14100775.9845098</v>
+        <v>3081942.2007921599</v>
       </c>
       <c r="J139" s="1">
-        <v>10905485.086666699</v>
+        <v>1998091.61666667</v>
       </c>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1">
-        <v>15027166.068503899</v>
+        <v>5348489.6670629904</v>
       </c>
       <c r="N139" s="1">
-        <v>25.481252999999999</v>
+        <v>24.783387999999999</v>
       </c>
       <c r="O139" s="1">
-        <v>24.300042999999999</v>
+        <v>4.4463324999999996</v>
       </c>
       <c r="P139" s="1">
-        <v>14093665.344000001</v>
+        <v>5964790.0017499998</v>
       </c>
       <c r="Q139" s="1">
-        <v>31.731152000000002</v>
+        <v>21.976713</v>
       </c>
       <c r="R139" s="1">
-        <v>13717901.1507576</v>
+        <v>3354768.5965909101</v>
       </c>
       <c r="S139" s="1">
-        <v>15875793.9989808</v>
+        <v>3891726.1081419699</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
@@ -11256,45 +11256,45 @@
         <v>446</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F140" s="1">
-        <v>90370864</v>
+        <v>37117772</v>
       </c>
       <c r="G140" s="1">
-        <v>129.6</v>
+        <v>158.5</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I140" s="1">
-        <v>2019495.86</v>
+        <v>14100775.9845098</v>
       </c>
       <c r="J140" s="1">
-        <v>1539505.13333333</v>
+        <v>10905485.086666699</v>
       </c>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1">
-        <v>2268767.07874016</v>
+        <v>15027166.068503899</v>
       </c>
       <c r="N140" s="1">
-        <v>17.946756000000001</v>
+        <v>25.481252999999999</v>
       </c>
       <c r="O140" s="1">
-        <v>16.036660999999999</v>
+        <v>24.300042999999999</v>
       </c>
       <c r="P140" s="1">
-        <v>2032275.541</v>
+        <v>14093665.344000001</v>
       </c>
       <c r="Q140" s="1">
-        <v>16.022099999999998</v>
+        <v>31.731152000000002</v>
       </c>
       <c r="R140" s="1">
-        <v>1757421.26969697</v>
+        <v>13717901.1507576</v>
       </c>
       <c r="S140" s="1">
-        <v>2033955.0387842399</v>
+        <v>15875793.9989808</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
@@ -11311,45 +11311,45 @@
         <v>449</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F141" s="1">
-        <v>120597140</v>
+        <v>90370864</v>
       </c>
       <c r="G141" s="1">
-        <v>252.6</v>
+        <v>129.6</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I141" s="1">
-        <v>27039828.677668002</v>
+        <v>2019495.86</v>
       </c>
       <c r="J141" s="1">
-        <v>29841487.733333301</v>
+        <v>1539505.13333333</v>
       </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1">
-        <v>30087604.918503899</v>
+        <v>2268767.07874016</v>
       </c>
       <c r="N141" s="1">
-        <v>24.582084999999999</v>
+        <v>17.946756000000001</v>
       </c>
       <c r="O141" s="1">
-        <v>25.998943000000001</v>
+        <v>16.036660999999999</v>
       </c>
       <c r="P141" s="1">
-        <v>28691836.640999999</v>
+        <v>2032275.541</v>
       </c>
       <c r="Q141" s="1">
-        <v>23.160627000000002</v>
+        <v>16.022099999999998</v>
       </c>
       <c r="R141" s="1">
-        <v>23658187.318181802</v>
+        <v>1757421.26969697</v>
       </c>
       <c r="S141" s="1">
-        <v>27417764.560711902</v>
+        <v>2033955.0387842399</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
@@ -11369,42 +11369,42 @@
         <v>55</v>
       </c>
       <c r="F142" s="1">
-        <v>178430760</v>
+        <v>120597140</v>
       </c>
       <c r="G142" s="1">
-        <v>202.9</v>
+        <v>252.6</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I142" s="1">
-        <v>62425706.566778697</v>
+        <v>27039828.677668002</v>
       </c>
       <c r="J142" s="1">
-        <v>60276882.101666696</v>
+        <v>29841487.733333301</v>
       </c>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1">
-        <v>82508424.246259898</v>
+        <v>30087604.918503899</v>
       </c>
       <c r="N142" s="1">
-        <v>44.946567999999999</v>
+        <v>24.582084999999999</v>
       </c>
       <c r="O142" s="1">
-        <v>35.165806000000003</v>
+        <v>25.998943000000001</v>
       </c>
       <c r="P142" s="1">
-        <v>73078518.781499997</v>
+        <v>28691836.640999999</v>
       </c>
       <c r="Q142" s="1">
-        <v>40.465026999999999</v>
+        <v>23.160627000000002</v>
       </c>
       <c r="R142" s="1">
-        <v>71202877.939772695</v>
+        <v>23658187.318181802</v>
       </c>
       <c r="S142" s="1">
-        <v>82432419.277306199</v>
+        <v>27417764.560711902</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
@@ -11421,45 +11421,45 @@
         <v>455</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F143" s="1">
-        <v>576002613</v>
+        <v>178430760</v>
       </c>
       <c r="G143" s="1">
-        <v>70.86</v>
+        <v>202.9</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I143" s="1">
-        <v>58156023.540823497</v>
+        <v>62425706.566778697</v>
       </c>
       <c r="J143" s="1">
-        <v>52071039.873333402</v>
+        <v>60276882.101666696</v>
       </c>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1">
-        <v>62636501.265984297</v>
+        <v>82508424.246259898</v>
       </c>
       <c r="N143" s="1">
-        <v>23.92445</v>
+        <v>44.946567999999999</v>
       </c>
       <c r="O143" s="1">
-        <v>24.986537999999999</v>
+        <v>35.165806000000003</v>
       </c>
       <c r="P143" s="1">
-        <v>58660038.117200002</v>
+        <v>73078518.781499997</v>
       </c>
       <c r="Q143" s="1">
-        <v>28.066803</v>
+        <v>40.465026999999999</v>
       </c>
       <c r="R143" s="1">
-        <v>59216991.126363598</v>
+        <v>71202877.939772695</v>
       </c>
       <c r="S143" s="1">
-        <v>68646390.222828194</v>
+        <v>82432419.277306199</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
@@ -11476,45 +11476,45 @@
         <v>458</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F144" s="1">
-        <v>178162870</v>
+        <v>576002613</v>
       </c>
       <c r="G144" s="1">
-        <v>73.92</v>
+        <v>70.86</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I144" s="1">
-        <v>31826381.563557301</v>
+        <v>58156023.540823497</v>
       </c>
       <c r="J144" s="1">
-        <v>30047146.737333301</v>
+        <v>52071039.873333402</v>
       </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1">
-        <v>36900392.599842504</v>
+        <v>62636501.265984297</v>
       </c>
       <c r="N144" s="1">
-        <v>23.985115</v>
+        <v>23.92445</v>
       </c>
       <c r="O144" s="1">
-        <v>18.892515</v>
+        <v>24.986537999999999</v>
       </c>
       <c r="P144" s="1">
-        <v>32925319.306000002</v>
+        <v>58660038.117200002</v>
       </c>
       <c r="Q144" s="1">
-        <v>21.391998000000001</v>
+        <v>28.066803</v>
       </c>
       <c r="R144" s="1">
-        <v>31048927.618333299</v>
+        <v>59216991.126363598</v>
       </c>
       <c r="S144" s="1">
-        <v>35967301.798507698</v>
+        <v>68646390.222828194</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
@@ -11534,42 +11534,42 @@
         <v>55</v>
       </c>
       <c r="F145" s="1">
-        <v>115500000</v>
+        <v>178162870</v>
       </c>
       <c r="G145" s="1">
-        <v>86.55</v>
+        <v>73.92</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I145" s="1">
-        <v>42001400.694031604</v>
+        <v>31826381.563557301</v>
       </c>
       <c r="J145" s="1">
-        <v>51432644.924999997</v>
+        <v>30047146.737333301</v>
       </c>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1">
-        <v>73327363.481417298</v>
+        <v>36900392.599842504</v>
       </c>
       <c r="N145" s="1">
-        <v>70.942880000000002</v>
+        <v>23.985115</v>
       </c>
       <c r="O145" s="1">
-        <v>59.427444000000001</v>
+        <v>18.892515</v>
       </c>
       <c r="P145" s="1">
-        <v>62650042.667049997</v>
+        <v>32925319.306000002</v>
       </c>
       <c r="Q145" s="1">
-        <v>66.293480000000002</v>
+        <v>21.391998000000001</v>
       </c>
       <c r="R145" s="1">
-        <v>67381563.282575801</v>
+        <v>31048927.618333299</v>
       </c>
       <c r="S145" s="1">
-        <v>77828851.320109606</v>
+        <v>35967301.798507698</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.2">
@@ -11586,45 +11586,45 @@
         <v>464</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F146" s="1">
-        <v>1489538745</v>
+        <v>115500000</v>
       </c>
       <c r="G146" s="1">
-        <v>3.7360000000000002</v>
+        <v>86.55</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I146" s="1">
-        <v>10450187.351948399</v>
+        <v>42001400.694031604</v>
       </c>
       <c r="J146" s="1">
-        <v>8985669.7508571409</v>
+        <v>51432644.924999997</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1">
-        <v>13361553.497396801</v>
+        <v>73327363.481417298</v>
       </c>
       <c r="N146" s="1">
-        <v>22.648651000000001</v>
+        <v>70.942880000000002</v>
       </c>
       <c r="O146" s="1">
-        <v>22.740347</v>
+        <v>59.427444000000001</v>
       </c>
       <c r="P146" s="1">
-        <v>12397928.556089999</v>
+        <v>62650042.667049997</v>
       </c>
       <c r="Q146" s="1">
-        <v>21.329515000000001</v>
+        <v>66.293480000000002</v>
       </c>
       <c r="R146" s="1">
-        <v>10792846.102384601</v>
+        <v>67381563.282575801</v>
       </c>
       <c r="S146" s="1">
-        <v>12495883.1995923</v>
+        <v>77828851.320109606</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
@@ -11641,45 +11641,45 @@
         <v>467</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F147" s="1">
-        <v>105569412</v>
+        <v>1489538745</v>
       </c>
       <c r="G147" s="1">
-        <v>2095</v>
+        <v>3.7360000000000002</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I147" s="1">
-        <v>143745943.29803899</v>
+        <v>10450187.351948399</v>
       </c>
       <c r="J147" s="1">
-        <v>105575462.3</v>
+        <v>8985669.7508571409</v>
       </c>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1">
-        <v>152383214.81496099</v>
+        <v>13361553.497396801</v>
       </c>
       <c r="N147" s="1">
-        <v>26.755009999999999</v>
+        <v>22.648651000000001</v>
       </c>
       <c r="O147" s="1">
-        <v>28.302626</v>
+        <v>22.740347</v>
       </c>
       <c r="P147" s="1">
-        <v>143171765.21000001</v>
+        <v>12397928.556089999</v>
       </c>
       <c r="Q147" s="1">
-        <v>26.023589999999999</v>
+        <v>21.329515000000001</v>
       </c>
       <c r="R147" s="1">
-        <v>124022566.03787901</v>
+        <v>10792846.102384601</v>
       </c>
       <c r="S147" s="1">
-        <v>143483550.79984799</v>
+        <v>12495883.1995923</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.2">
@@ -11696,45 +11696,45 @@
         <v>470</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>341</v>
+        <v>35</v>
       </c>
       <c r="F148" s="1">
-        <v>55182080</v>
+        <v>105569412</v>
       </c>
       <c r="G148" s="1">
-        <v>58.85</v>
+        <v>2095</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I148" s="1">
-        <v>4078748.4389558202</v>
+        <v>143745943.29803899</v>
       </c>
       <c r="J148" s="1">
-        <v>2065643.6693333299</v>
+        <v>105575462.3</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1">
-        <v>4190542.7321600001</v>
+        <v>152383214.81496099</v>
       </c>
       <c r="N148" s="1">
-        <v>38.174819999999997</v>
+        <v>26.755009999999999</v>
       </c>
       <c r="O148" s="1">
-        <v>37.196033</v>
+        <v>28.302626</v>
       </c>
       <c r="P148" s="1">
-        <v>4083396.1035000002</v>
+        <v>143171765.21000001</v>
       </c>
       <c r="Q148" s="1">
-        <v>35.605473000000003</v>
+        <v>26.023589999999999</v>
       </c>
       <c r="R148" s="1">
-        <v>3808243.6695312499</v>
+        <v>124022566.03787901</v>
       </c>
       <c r="S148" s="1">
-        <v>4406271.8504160699</v>
+        <v>143483550.79984799</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.2">
@@ -11751,45 +11751,45 @@
         <v>473</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="F149" s="1">
-        <v>77711300</v>
+        <v>55182080</v>
       </c>
       <c r="G149" s="1">
-        <v>226</v>
+        <v>58.85</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I149" s="1">
-        <v>9948038.5579051506</v>
+        <v>4078748.4389558202</v>
       </c>
       <c r="J149" s="1">
-        <v>11450308.2166667</v>
+        <v>2065643.6693333299</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1">
-        <v>14500913.5570866</v>
+        <v>4190542.7321600001</v>
       </c>
       <c r="N149" s="1">
-        <v>40.927010000000003</v>
+        <v>38.174819999999997</v>
       </c>
       <c r="O149" s="1">
-        <v>32.378715999999997</v>
+        <v>37.196033</v>
       </c>
       <c r="P149" s="1">
-        <v>11556476.691500001</v>
+        <v>4083396.1035000002</v>
       </c>
       <c r="Q149" s="1">
-        <v>36.90343</v>
+        <v>35.605473000000003</v>
       </c>
       <c r="R149" s="1">
-        <v>9951735.3106060605</v>
+        <v>3808243.6695312499</v>
       </c>
       <c r="S149" s="1">
-        <v>11541719.2660133</v>
+        <v>4406271.8504160699</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.2">
@@ -11806,45 +11806,45 @@
         <v>476</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>341</v>
+        <v>55</v>
       </c>
       <c r="F150" s="1">
-        <v>107760380</v>
+        <v>77711300</v>
       </c>
       <c r="G150" s="1">
-        <v>31.4</v>
+        <v>226</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I150" s="1">
-        <v>5329142.4216867499</v>
+        <v>9948038.5579051506</v>
       </c>
       <c r="J150" s="1">
-        <v>4037096.3946666699</v>
+        <v>11450308.2166667</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1">
-        <v>5787206.7042399999</v>
+        <v>14500913.5570866</v>
       </c>
       <c r="N150" s="1">
-        <v>22.723617999999998</v>
+        <v>40.927010000000003</v>
       </c>
       <c r="O150" s="1">
-        <v>23.567340000000002</v>
+        <v>32.378715999999997</v>
       </c>
       <c r="P150" s="1">
-        <v>5979578.4258000003</v>
+        <v>11556476.691500001</v>
       </c>
       <c r="Q150" s="1">
-        <v>23.590494</v>
+        <v>36.90343</v>
       </c>
       <c r="R150" s="1">
-        <v>5808747.1560937501</v>
+        <v>9951735.3106060605</v>
       </c>
       <c r="S150" s="1">
-        <v>6726544.7191705704</v>
+        <v>11541719.2660133</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.2">
@@ -11861,45 +11861,45 @@
         <v>479</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>42</v>
+        <v>344</v>
       </c>
       <c r="F151" s="1">
-        <v>6681227500</v>
+        <v>107760380</v>
       </c>
       <c r="G151" s="1">
-        <v>16.614999999999998</v>
+        <v>31.4</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I151" s="1">
-        <v>151246030.51835901</v>
+        <v>5329142.4216867499</v>
       </c>
       <c r="J151" s="1">
-        <v>95139403.787666798</v>
+        <v>4037096.3946666699</v>
       </c>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1">
-        <v>166355654.290898</v>
+        <v>5787206.7042399999</v>
       </c>
       <c r="N151" s="1">
-        <v>20.168521999999999</v>
+        <v>22.723617999999998</v>
       </c>
       <c r="O151" s="1">
-        <v>20.925865000000002</v>
+        <v>23.567340000000002</v>
       </c>
       <c r="P151" s="1">
-        <v>164609825.831101</v>
+        <v>5979578.4258000003</v>
       </c>
       <c r="Q151" s="1">
-        <v>18.876342999999999</v>
+        <v>23.590494</v>
       </c>
       <c r="R151" s="1">
-        <v>152417983.14689499</v>
+        <v>5808747.1560937501</v>
       </c>
       <c r="S151" s="1">
-        <v>176698905.499717</v>
+        <v>6726544.7191705704</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
@@ -11916,45 +11916,45 @@
         <v>482</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F152" s="1">
-        <v>59107999</v>
+        <v>6681227500</v>
       </c>
       <c r="G152" s="1">
-        <v>95.7</v>
+        <v>16.614999999999998</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I152" s="1">
-        <v>15142411.685352899</v>
+        <v>151246030.51835901</v>
       </c>
       <c r="J152" s="1">
-        <v>21167484.1866666</v>
+        <v>95139403.787666798</v>
       </c>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1">
-        <v>17648608.349133801</v>
+        <v>166355654.290898</v>
       </c>
       <c r="N152" s="1">
-        <v>35.851826000000003</v>
+        <v>20.168521999999999</v>
       </c>
       <c r="O152" s="1">
-        <v>37.83014</v>
+        <v>20.925865000000002</v>
       </c>
       <c r="P152" s="1">
-        <v>17604605.100900002</v>
+        <v>164609825.831101</v>
       </c>
       <c r="Q152" s="1">
-        <v>32.946964000000001</v>
+        <v>18.876342999999999</v>
       </c>
       <c r="R152" s="1">
-        <v>17984743.224469699</v>
+        <v>152417983.14689499</v>
       </c>
       <c r="S152" s="1">
-        <v>20834303.918875299</v>
+        <v>176698905.499717</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
@@ -11971,45 +11971,45 @@
         <v>485</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F153" s="1">
-        <v>3116652000</v>
+        <v>59107999</v>
       </c>
       <c r="G153" s="1">
-        <v>44.01</v>
+        <v>95.7</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I153" s="1">
-        <v>110706586.46727601</v>
+        <v>15142411.685352899</v>
       </c>
       <c r="J153" s="1">
-        <v>59890509.383666597</v>
+        <v>21167484.1866666</v>
       </c>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1">
-        <v>110287025.843465</v>
+        <v>17648608.349133801</v>
       </c>
       <c r="N153" s="1">
-        <v>24.79101</v>
+        <v>35.851826000000003</v>
       </c>
       <c r="O153" s="1">
-        <v>23.23329</v>
+        <v>37.83014</v>
       </c>
       <c r="P153" s="1">
-        <v>106120689.2568</v>
+        <v>17604605.100900002</v>
       </c>
       <c r="Q153" s="1">
-        <v>25.235157000000001</v>
+        <v>32.946964000000001</v>
       </c>
       <c r="R153" s="1">
-        <v>92018774.594924197</v>
+        <v>17984743.224469699</v>
       </c>
       <c r="S153" s="1">
-        <v>106446105.28662901</v>
+        <v>20834303.918875299</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
@@ -12029,42 +12029,42 @@
         <v>42</v>
       </c>
       <c r="F154" s="1">
-        <v>176654400</v>
+        <v>3116652000</v>
       </c>
       <c r="G154" s="1">
-        <v>33.86</v>
+        <v>44.01</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I154" s="1">
-        <v>22287785.882550601</v>
+        <v>110706586.46727601</v>
       </c>
       <c r="J154" s="1">
-        <v>23687765.701333299</v>
+        <v>59890509.383666597</v>
       </c>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1">
-        <v>35827292.714488201</v>
+        <v>110287025.843465</v>
       </c>
       <c r="N154" s="1">
-        <v>43.975945000000003</v>
+        <v>24.79101</v>
       </c>
       <c r="O154" s="1">
-        <v>40.516765999999997</v>
+        <v>23.23329</v>
       </c>
       <c r="P154" s="1">
-        <v>34833443.824000001</v>
+        <v>106120689.2568</v>
       </c>
       <c r="Q154" s="1">
-        <v>39.713818000000003</v>
+        <v>25.235157000000001</v>
       </c>
       <c r="R154" s="1">
-        <v>35782223.119999997</v>
+        <v>92018774.594924197</v>
       </c>
       <c r="S154" s="1">
-        <v>41438718.860418998</v>
+        <v>106446105.28662901</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.2">
@@ -12081,45 +12081,45 @@
         <v>491</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F155" s="1">
-        <v>1305921100</v>
+        <v>176654400</v>
       </c>
       <c r="G155" s="1">
-        <v>36.85</v>
+        <v>33.86</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I155" s="1">
-        <v>139704562.48968399</v>
+        <v>22287785.882550601</v>
       </c>
       <c r="J155" s="1">
-        <v>104456285.57449999</v>
+        <v>23687765.701333299</v>
       </c>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1">
-        <v>152317125.23919299</v>
+        <v>35827292.714488201</v>
       </c>
       <c r="N155" s="1">
-        <v>40.969844999999999</v>
+        <v>43.975945000000003</v>
       </c>
       <c r="O155" s="1">
-        <v>40.028987999999998</v>
+        <v>40.516765999999997</v>
       </c>
       <c r="P155" s="1">
-        <v>149163393.404275</v>
+        <v>34833443.824000001</v>
       </c>
       <c r="Q155" s="1">
-        <v>40.370559999999998</v>
+        <v>39.713818000000003</v>
       </c>
       <c r="R155" s="1">
-        <v>133849887.710871</v>
+        <v>35782223.119999997</v>
       </c>
       <c r="S155" s="1">
-        <v>155048372.379233</v>
+        <v>41438718.860418998</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.2">
@@ -12136,45 +12136,45 @@
         <v>494</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F156" s="1">
-        <v>3021542868</v>
+        <v>1305921100</v>
       </c>
       <c r="G156" s="1">
-        <v>21.32</v>
+        <v>36.85</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I156" s="1">
-        <v>162149786.609606</v>
+        <v>139704562.48968399</v>
       </c>
       <c r="J156" s="1">
-        <v>136135731.086766</v>
+        <v>104456285.57449999</v>
       </c>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1">
-        <v>182012891.84203601</v>
+        <v>152317125.23919299</v>
       </c>
       <c r="N156" s="1">
-        <v>30.092884000000002</v>
+        <v>40.969844999999999</v>
       </c>
       <c r="O156" s="1">
-        <v>30.277784</v>
+        <v>40.028987999999998</v>
       </c>
       <c r="P156" s="1">
-        <v>168969052.23761499</v>
+        <v>149163393.404275</v>
       </c>
       <c r="Q156" s="1">
-        <v>26.789534</v>
+        <v>40.370559999999998</v>
       </c>
       <c r="R156" s="1">
-        <v>150620860.034962</v>
+        <v>133849887.710871</v>
       </c>
       <c r="S156" s="1">
-        <v>174479148.25127101</v>
+        <v>155048372.379233</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.2">
@@ -12194,42 +12194,42 @@
         <v>27</v>
       </c>
       <c r="F157" s="1">
-        <v>500000000</v>
+        <v>3021542868</v>
       </c>
       <c r="G157" s="1">
-        <v>13.13</v>
+        <v>21.32</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I157" s="1">
-        <v>8125941.5551764704</v>
+        <v>162149786.609606</v>
       </c>
       <c r="J157" s="1">
-        <v>5477779.0516666602</v>
+        <v>136135731.086766</v>
       </c>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1">
-        <v>8731416.4576771706</v>
+        <v>182012891.84203601</v>
       </c>
       <c r="N157" s="1">
-        <v>38.332695000000001</v>
+        <v>30.092884000000002</v>
       </c>
       <c r="O157" s="1">
-        <v>33.881782999999999</v>
+        <v>30.277784</v>
       </c>
       <c r="P157" s="1">
-        <v>8256599.1815499999</v>
+        <v>168969052.23761499</v>
       </c>
       <c r="Q157" s="1">
-        <v>34.493426999999997</v>
+        <v>26.789534</v>
       </c>
       <c r="R157" s="1">
-        <v>7885826.7208333304</v>
+        <v>150620860.034962</v>
       </c>
       <c r="S157" s="1">
-        <v>9134107.7647706997</v>
+        <v>174479148.25127101</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
@@ -12246,45 +12246,45 @@
         <v>500</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F158" s="1">
-        <v>108879294</v>
+        <v>500000000</v>
       </c>
       <c r="G158" s="1">
-        <v>41.5</v>
+        <v>13.13</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I158" s="1">
-        <v>10553544.8632937</v>
+        <v>8125941.5551764704</v>
       </c>
       <c r="J158" s="1">
-        <v>12233704.012857201</v>
+        <v>5477779.0516666602</v>
       </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1">
-        <v>11890014.361031801</v>
+        <v>8731416.4576771706</v>
       </c>
       <c r="N158" s="1">
-        <v>36.545520000000003</v>
+        <v>38.332695000000001</v>
       </c>
       <c r="O158" s="1">
-        <v>37.785629999999998</v>
+        <v>33.881782999999999</v>
       </c>
       <c r="P158" s="1">
-        <v>12092708.4605</v>
+        <v>8256599.1815499999</v>
       </c>
       <c r="Q158" s="1">
-        <v>38.822617000000001</v>
+        <v>34.493426999999997</v>
       </c>
       <c r="R158" s="1">
-        <v>10738658.9338462</v>
+        <v>7885826.7208333304</v>
       </c>
       <c r="S158" s="1">
-        <v>12440839.4824598</v>
+        <v>9134107.7647706997</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
@@ -12304,42 +12304,42 @@
         <v>22</v>
       </c>
       <c r="F159" s="1">
-        <v>17803670501</v>
+        <v>108879294</v>
       </c>
       <c r="G159" s="1">
-        <v>5.6420000000000003</v>
+        <v>41.5</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I159" s="1">
-        <v>288074834.47604901</v>
+        <v>10553544.8632937</v>
       </c>
       <c r="J159" s="1">
-        <v>222509647.83510801</v>
+        <v>12233704.012857201</v>
       </c>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1">
-        <v>315416427.91956699</v>
+        <v>11890014.361031801</v>
       </c>
       <c r="N159" s="1">
-        <v>31.473044999999999</v>
+        <v>36.545520000000003</v>
       </c>
       <c r="O159" s="1">
-        <v>32.271785999999999</v>
+        <v>37.785629999999998</v>
       </c>
       <c r="P159" s="1">
-        <v>294817619.17101502</v>
+        <v>12092708.4605</v>
       </c>
       <c r="Q159" s="1">
-        <v>28.129332999999999</v>
+        <v>38.822617000000001</v>
       </c>
       <c r="R159" s="1">
-        <v>253687919.83470801</v>
+        <v>10738658.9338462</v>
       </c>
       <c r="S159" s="1">
-        <v>293459994.704799</v>
+        <v>12440839.4824598</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
@@ -12359,42 +12359,42 @@
         <v>22</v>
       </c>
       <c r="F160" s="1">
-        <v>931890010</v>
+        <v>17803670501</v>
       </c>
       <c r="G160" s="1">
-        <v>10.54</v>
+        <v>5.6420000000000003</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I160" s="1">
-        <v>13310247.585724199</v>
+        <v>288074834.47604901</v>
       </c>
       <c r="J160" s="1">
-        <v>11288475.4039286</v>
+        <v>222509647.83510801</v>
       </c>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1">
-        <v>15108603.6471627</v>
+        <v>315416427.91956699</v>
       </c>
       <c r="N160" s="1">
-        <v>22.169357000000002</v>
+        <v>31.473044999999999</v>
       </c>
       <c r="O160" s="1">
-        <v>21.657817999999999</v>
+        <v>32.271785999999999</v>
       </c>
       <c r="P160" s="1">
-        <v>15114213.572175</v>
+        <v>294817619.17101502</v>
       </c>
       <c r="Q160" s="1">
-        <v>21.184933000000001</v>
+        <v>28.129332999999999</v>
       </c>
       <c r="R160" s="1">
-        <v>13356383.8152308</v>
+        <v>253687919.83470801</v>
       </c>
       <c r="S160" s="1">
-        <v>15440513.788322899</v>
+        <v>293459994.704799</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.2">
@@ -12411,45 +12411,45 @@
         <v>509</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F161" s="1">
-        <v>83814526</v>
+        <v>931890010</v>
       </c>
       <c r="G161" s="1">
-        <v>116.7</v>
+        <v>10.54</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I161" s="1">
-        <v>7823382.8121568598</v>
+        <v>13310247.585724199</v>
       </c>
       <c r="J161" s="1">
-        <v>6217637.1266666697</v>
+        <v>11288475.4039286</v>
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1">
-        <v>8355138.4795275601</v>
+        <v>15108603.6471627</v>
       </c>
       <c r="N161" s="1">
-        <v>28.664916999999999</v>
+        <v>22.169357000000002</v>
       </c>
       <c r="O161" s="1">
-        <v>29.900057</v>
+        <v>21.657817999999999</v>
       </c>
       <c r="P161" s="1">
-        <v>8185345.3954999996</v>
+        <v>15114213.572175</v>
       </c>
       <c r="Q161" s="1">
-        <v>26.88316</v>
+        <v>21.184933000000001</v>
       </c>
       <c r="R161" s="1">
-        <v>7255432.86818182</v>
+        <v>13356383.8152308</v>
       </c>
       <c r="S161" s="1">
-        <v>8402490.9249322508</v>
+        <v>15440513.788322899</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.2">
@@ -12466,45 +12466,45 @@
         <v>512</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F162" s="1">
-        <v>1014692391</v>
+        <v>83814526</v>
       </c>
       <c r="G162" s="1">
-        <v>7.7</v>
+        <v>116.7</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I162" s="1">
-        <v>21168997.3208155</v>
+        <v>7823382.8121568598</v>
       </c>
       <c r="J162" s="1">
-        <v>20052389.873214301</v>
+        <v>6217637.1266666697</v>
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1">
-        <v>25129220.9150397</v>
+        <v>8355138.4795275601</v>
       </c>
       <c r="N162" s="1">
-        <v>21.574774000000001</v>
+        <v>28.664916999999999</v>
       </c>
       <c r="O162" s="1">
-        <v>22.086891000000001</v>
+        <v>29.900057</v>
       </c>
       <c r="P162" s="1">
-        <v>25516432.806875002</v>
+        <v>8185345.3954999996</v>
       </c>
       <c r="Q162" s="1">
-        <v>19.985903</v>
+        <v>26.88316</v>
       </c>
       <c r="R162" s="1">
-        <v>24246150.630846102</v>
+        <v>7255432.86818182</v>
       </c>
       <c r="S162" s="1">
-        <v>28047506.665076599</v>
+        <v>8402490.9249322508</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.2">
@@ -12524,42 +12524,42 @@
         <v>22</v>
       </c>
       <c r="F163" s="1">
-        <v>271215400</v>
+        <v>1014692391</v>
       </c>
       <c r="G163" s="1">
-        <v>18.34</v>
+        <v>7.7</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I163" s="1">
-        <v>36857911.487662703</v>
+        <v>21168997.3208155</v>
       </c>
       <c r="J163" s="1">
-        <v>39382985.553035699</v>
+        <v>20052389.873214301</v>
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1">
-        <v>43285627.502361096</v>
+        <v>25129220.9150397</v>
       </c>
       <c r="N163" s="1">
-        <v>46.836889999999997</v>
+        <v>21.574774000000001</v>
       </c>
       <c r="O163" s="1">
-        <v>44.368960000000001</v>
+        <v>22.086891000000001</v>
       </c>
       <c r="P163" s="1">
-        <v>44588688.619099997</v>
+        <v>25516432.806875002</v>
       </c>
       <c r="Q163" s="1">
-        <v>51.631725000000003</v>
+        <v>19.985903</v>
       </c>
       <c r="R163" s="1">
-        <v>50167371.287038498</v>
+        <v>24246150.630846102</v>
       </c>
       <c r="S163" s="1">
-        <v>58108387.941980399</v>
+        <v>28047506.665076599</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.2">
@@ -12576,45 +12576,45 @@
         <v>518</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="F164" s="1">
-        <v>629293220</v>
+        <v>271215400</v>
       </c>
       <c r="G164" s="1">
-        <v>20.9</v>
+        <v>18.34</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I164" s="1">
-        <v>13399893.6459412</v>
+        <v>36857911.487662703</v>
       </c>
       <c r="J164" s="1">
-        <v>10893891.245333301</v>
+        <v>39382985.553035699</v>
       </c>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1">
-        <v>14591348.339094499</v>
+        <v>43285627.502361096</v>
       </c>
       <c r="N164" s="1">
-        <v>25.197030999999999</v>
+        <v>46.836889999999997</v>
       </c>
       <c r="O164" s="1">
-        <v>25.864927000000002</v>
+        <v>44.368960000000001</v>
       </c>
       <c r="P164" s="1">
-        <v>14350025.6372</v>
+        <v>44588688.619099997</v>
       </c>
       <c r="Q164" s="1">
-        <v>23.675750000000001</v>
+        <v>51.631725000000003</v>
       </c>
       <c r="R164" s="1">
-        <v>12595721.4243939</v>
+        <v>50167371.287038498</v>
       </c>
       <c r="S164" s="1">
-        <v>14590856.5511794</v>
+        <v>58108387.941980399</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.2">
@@ -12631,45 +12631,45 @@
         <v>521</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="F165" s="1">
-        <v>488178642</v>
+        <v>629293220</v>
       </c>
       <c r="G165" s="1">
-        <v>26.54</v>
+        <v>20.9</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I165" s="1">
-        <v>7799393.11707843</v>
+        <v>13399893.6459412</v>
       </c>
       <c r="J165" s="1">
-        <v>7044389.9886666704</v>
+        <v>10893891.245333301</v>
       </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1">
-        <v>10126566.646023599</v>
+        <v>14591348.339094499</v>
       </c>
       <c r="N165" s="1">
-        <v>25.192710000000002</v>
+        <v>25.197030999999999</v>
       </c>
       <c r="O165" s="1">
-        <v>24.993781999999999</v>
+        <v>25.864927000000002</v>
       </c>
       <c r="P165" s="1">
-        <v>8575288.8262499999</v>
+        <v>14350025.6372</v>
       </c>
       <c r="Q165" s="1">
-        <v>26.348389999999998</v>
+        <v>23.675750000000001</v>
       </c>
       <c r="R165" s="1">
-        <v>8682473.5759090893</v>
+        <v>12595721.4243939</v>
       </c>
       <c r="S165" s="1">
-        <v>10040760.738805899</v>
+        <v>14590856.5511794</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
@@ -12689,42 +12689,42 @@
         <v>27</v>
       </c>
       <c r="F166" s="1">
-        <v>208967756</v>
+        <v>488178642</v>
       </c>
       <c r="G166" s="1">
-        <v>20.149999999999999</v>
+        <v>26.54</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I166" s="1">
-        <v>23240756.8918823</v>
+        <v>7799393.11707843</v>
       </c>
       <c r="J166" s="1">
-        <v>19292964.554666702</v>
+        <v>7044389.9886666704</v>
       </c>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1">
-        <v>25892793.9729921</v>
+        <v>10126566.646023599</v>
       </c>
       <c r="N166" s="1">
-        <v>6.8645050000000003</v>
+        <v>25.192710000000002</v>
       </c>
       <c r="O166" s="1">
-        <v>7.2123590000000002</v>
+        <v>24.993781999999999</v>
       </c>
       <c r="P166" s="1">
-        <v>19851817.470375001</v>
+        <v>8575288.8262499999</v>
       </c>
       <c r="Q166" s="1">
-        <v>67.126149999999996</v>
+        <v>26.348389999999998</v>
       </c>
       <c r="R166" s="1">
-        <v>18826189.3424621</v>
+        <v>8682473.5759090893</v>
       </c>
       <c r="S166" s="1">
-        <v>21876672.359104101</v>
+        <v>10040760.738805899</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
@@ -12741,45 +12741,45 @@
         <v>527</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F167" s="1">
-        <v>417544151</v>
+        <v>208967756</v>
       </c>
       <c r="G167" s="1">
-        <v>104.9</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I167" s="1">
-        <v>38069528.543960802</v>
+        <v>23240756.8918823</v>
       </c>
       <c r="J167" s="1">
-        <v>38277189.454000004</v>
+        <v>19292964.554666702</v>
       </c>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1">
-        <v>43167329.343858302</v>
+        <v>25892793.9729921</v>
       </c>
       <c r="N167" s="1">
-        <v>28.675166999999998</v>
+        <v>6.8645050000000003</v>
       </c>
       <c r="O167" s="1">
-        <v>29.208926999999999</v>
+        <v>7.2123590000000002</v>
       </c>
       <c r="P167" s="1">
-        <v>39807549.821999997</v>
+        <v>19851817.470375001</v>
       </c>
       <c r="Q167" s="1">
-        <v>26.46658</v>
+        <v>67.126149999999996</v>
       </c>
       <c r="R167" s="1">
-        <v>35010652.282424301</v>
+        <v>18826189.3424621</v>
       </c>
       <c r="S167" s="1">
-        <v>40554318.537983403</v>
+        <v>21876672.359104101</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
@@ -12796,45 +12796,45 @@
         <v>530</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>341</v>
+        <v>31</v>
       </c>
       <c r="F168" s="1">
-        <v>155342560</v>
+        <v>417544151</v>
       </c>
       <c r="G168" s="1">
-        <v>20.32</v>
+        <v>104.9</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I168" s="1">
-        <v>3357035.5965863499</v>
+        <v>38069528.543960802</v>
       </c>
       <c r="J168" s="1">
-        <v>3109322.3653333299</v>
+        <v>38277189.454000004</v>
       </c>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1">
-        <v>3605259.3388800002</v>
+        <v>43167329.343858302</v>
       </c>
       <c r="N168" s="1">
-        <v>26.954402999999999</v>
+        <v>28.675166999999998</v>
       </c>
       <c r="O168" s="1">
-        <v>28.102919</v>
+        <v>29.208926999999999</v>
       </c>
       <c r="P168" s="1">
-        <v>3680415.3706999999</v>
+        <v>39807549.821999997</v>
       </c>
       <c r="Q168" s="1">
-        <v>26.844946</v>
+        <v>26.46658</v>
       </c>
       <c r="R168" s="1">
-        <v>3132196.6460937499</v>
+        <v>35010652.282424301</v>
       </c>
       <c r="S168" s="1">
-        <v>3632676.1987834298</v>
+        <v>40554318.537983403</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.2">
@@ -12851,45 +12851,45 @@
         <v>533</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>35</v>
+        <v>344</v>
       </c>
       <c r="F169" s="1">
-        <v>123420778</v>
+        <v>155342560</v>
       </c>
       <c r="G169" s="1">
-        <v>223.8</v>
+        <v>20.32</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I169" s="1">
-        <v>79298521.693588197</v>
+        <v>3357035.5965863499</v>
       </c>
       <c r="J169" s="1">
-        <v>43123978.038333297</v>
+        <v>3109322.3653333299</v>
       </c>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1">
-        <v>75275236.3503149</v>
+        <v>3605259.3388800002</v>
       </c>
       <c r="N169" s="1">
-        <v>45.798374000000003</v>
+        <v>26.954402999999999</v>
       </c>
       <c r="O169" s="1">
-        <v>45.803170000000001</v>
+        <v>28.102919</v>
       </c>
       <c r="P169" s="1">
-        <v>68201096.456249997</v>
+        <v>3680415.3706999999</v>
       </c>
       <c r="Q169" s="1">
-        <v>44.547637999999999</v>
+        <v>26.844946</v>
       </c>
       <c r="R169" s="1">
-        <v>68218505.263712093</v>
+        <v>3132196.6460937499</v>
       </c>
       <c r="S169" s="1">
-        <v>79034884.673596293</v>
+        <v>3632676.1987834298</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.2">
@@ -12906,45 +12906,45 @@
         <v>536</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F170" s="1">
-        <v>163063409</v>
+        <v>123420778</v>
       </c>
       <c r="G170" s="1">
-        <v>81</v>
+        <v>223.8</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I170" s="1">
-        <v>30681576.912677601</v>
+        <v>79298521.693588197</v>
       </c>
       <c r="J170" s="1">
-        <v>23768816.115139998</v>
+        <v>43123978.038333297</v>
       </c>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1">
-        <v>32107659.120604798</v>
+        <v>75275236.3503149</v>
       </c>
       <c r="N170" s="1">
-        <v>22.599657000000001</v>
+        <v>45.798374000000003</v>
       </c>
       <c r="O170" s="1">
-        <v>22.268056999999999</v>
+        <v>45.803170000000001</v>
       </c>
       <c r="P170" s="1">
-        <v>30055553.095934</v>
+        <v>68201096.456249997</v>
       </c>
       <c r="Q170" s="1">
-        <v>20.945173</v>
+        <v>44.547637999999999</v>
       </c>
       <c r="R170" s="1">
-        <v>27632670.986207601</v>
+        <v>68218505.263712093</v>
       </c>
       <c r="S170" s="1">
-        <v>31977711.396812201</v>
+        <v>79034884.673596293</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.2">
@@ -12961,45 +12961,45 @@
         <v>539</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="F171" s="1">
-        <v>273130980</v>
+        <v>163063409</v>
       </c>
       <c r="G171" s="1">
-        <v>19.68</v>
+        <v>81</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I171" s="1">
-        <v>9594479.0223694798</v>
+        <v>30681576.912677601</v>
       </c>
       <c r="J171" s="1">
-        <v>6764346.148</v>
+        <v>23768816.115139998</v>
       </c>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1">
-        <v>10230230.09904</v>
+        <v>32107659.120604798</v>
       </c>
       <c r="N171" s="1">
-        <v>20.522333</v>
+        <v>22.599657000000001</v>
       </c>
       <c r="O171" s="1">
-        <v>20.841598999999999</v>
+        <v>22.268056999999999</v>
       </c>
       <c r="P171" s="1">
-        <v>9786360.6442000009</v>
+        <v>30055553.095934</v>
       </c>
       <c r="Q171" s="1">
-        <v>20.554435999999999</v>
+        <v>20.945173</v>
       </c>
       <c r="R171" s="1">
-        <v>8891669.5451562498</v>
+        <v>27632670.986207601</v>
       </c>
       <c r="S171" s="1">
-        <v>10295562.7127323</v>
+        <v>31977711.396812201</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.2">
@@ -13016,45 +13016,45 @@
         <v>542</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="F172" s="1">
-        <v>181665844</v>
+        <v>273130980</v>
       </c>
       <c r="G172" s="1">
-        <v>69.900000000000006</v>
+        <v>19.68</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I172" s="1">
-        <v>28485886.5458287</v>
+        <v>9594479.0223694798</v>
       </c>
       <c r="J172" s="1">
-        <v>29672198.6427067</v>
+        <v>6764346.148</v>
       </c>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1">
-        <v>31232318.011923</v>
+        <v>10230230.09904</v>
       </c>
       <c r="N172" s="1">
-        <v>34.346530000000001</v>
+        <v>20.522333</v>
       </c>
       <c r="O172" s="1">
-        <v>32.231290000000001</v>
+        <v>20.841598999999999</v>
       </c>
       <c r="P172" s="1">
-        <v>28333222.077773999</v>
+        <v>9786360.6442000009</v>
       </c>
       <c r="Q172" s="1">
-        <v>35.319274999999998</v>
+        <v>20.554435999999999</v>
       </c>
       <c r="R172" s="1">
-        <v>27291188.1860197</v>
+        <v>8891669.5451562498</v>
       </c>
       <c r="S172" s="1">
-        <v>31618774.655229099</v>
+        <v>10295562.7127323</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.2">
@@ -13071,45 +13071,45 @@
         <v>545</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F173" s="1">
-        <v>131198650</v>
+        <v>181665844</v>
       </c>
       <c r="G173" s="1">
-        <v>59.4</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I173" s="1">
-        <v>12391875.258102801</v>
+        <v>28485886.5458287</v>
       </c>
       <c r="J173" s="1">
-        <v>12176288.595000001</v>
+        <v>29672198.6427067</v>
       </c>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1">
-        <v>16689840.158858299</v>
+        <v>31232318.011923</v>
       </c>
       <c r="N173" s="1">
-        <v>51.469783999999997</v>
+        <v>34.346530000000001</v>
       </c>
       <c r="O173" s="1">
-        <v>41.116672999999999</v>
+        <v>32.231290000000001</v>
       </c>
       <c r="P173" s="1">
-        <v>15351636.9987</v>
+        <v>28333222.077773999</v>
       </c>
       <c r="Q173" s="1">
-        <v>48.744526</v>
+        <v>35.319274999999998</v>
       </c>
       <c r="R173" s="1">
-        <v>15211465.8113636</v>
+        <v>27291188.1860197</v>
       </c>
       <c r="S173" s="1">
-        <v>17662298.362820599</v>
+        <v>31618774.655229099</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.2">
@@ -13126,45 +13126,45 @@
         <v>548</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F174" s="1">
-        <v>286861172</v>
+        <v>131198650</v>
       </c>
       <c r="G174" s="1">
-        <v>35.380000000000003</v>
+        <v>59.4</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I174" s="1">
-        <v>17801332.394196101</v>
+        <v>12391875.258102801</v>
       </c>
       <c r="J174" s="1">
-        <v>12322826.536</v>
+        <v>12176288.595000001</v>
       </c>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1">
-        <v>18587539.692598399</v>
+        <v>16689840.158858299</v>
       </c>
       <c r="N174" s="1">
-        <v>18.444649999999999</v>
+        <v>51.469783999999997</v>
       </c>
       <c r="O174" s="1">
-        <v>18.769611000000001</v>
+        <v>41.116672999999999</v>
       </c>
       <c r="P174" s="1">
-        <v>17954499.237</v>
+        <v>15351636.9987</v>
       </c>
       <c r="Q174" s="1">
-        <v>17.563831</v>
+        <v>48.744526</v>
       </c>
       <c r="R174" s="1">
-        <v>16602514.6572727</v>
+        <v>15211465.8113636</v>
       </c>
       <c r="S174" s="1">
-        <v>19217162.6984911</v>
+        <v>17662298.362820599</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.2">
@@ -13181,45 +13181,45 @@
         <v>551</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F175" s="1">
-        <v>161200000</v>
+        <v>286861172</v>
       </c>
       <c r="G175" s="1">
-        <v>91.05</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I175" s="1">
-        <v>11649001.497331999</v>
+        <v>17801332.394196101</v>
       </c>
       <c r="J175" s="1">
-        <v>8874266.0016666707</v>
+        <v>12322826.536</v>
       </c>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1">
-        <v>14238177.7391732</v>
+        <v>18587539.692598399</v>
       </c>
       <c r="N175" s="1">
-        <v>33.84395</v>
+        <v>18.444649999999999</v>
       </c>
       <c r="O175" s="1">
-        <v>28.027453999999999</v>
+        <v>18.769611000000001</v>
       </c>
       <c r="P175" s="1">
-        <v>12011736.593499999</v>
+        <v>17954499.237</v>
       </c>
       <c r="Q175" s="1">
-        <v>30.986280000000001</v>
+        <v>17.563831</v>
       </c>
       <c r="R175" s="1">
-        <v>10771758.198484801</v>
+        <v>16602514.6572727</v>
       </c>
       <c r="S175" s="1">
-        <v>12482214.1371757</v>
+        <v>19217162.6984911</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.2">
@@ -13236,45 +13236,45 @@
         <v>554</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>341</v>
+        <v>55</v>
       </c>
       <c r="F176" s="1">
-        <v>453187130</v>
+        <v>161200000</v>
       </c>
       <c r="G176" s="1">
-        <v>54</v>
+        <v>91.05</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I176" s="1">
-        <v>26395920.470562302</v>
+        <v>11649001.497331999</v>
       </c>
       <c r="J176" s="1">
-        <v>16891408.230666701</v>
+        <v>8874266.0016666707</v>
       </c>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1">
-        <v>27137445.79064</v>
+        <v>14238177.7391732</v>
       </c>
       <c r="N176" s="1">
-        <v>20.574978000000002</v>
+        <v>33.84395</v>
       </c>
       <c r="O176" s="1">
-        <v>21.098564</v>
+        <v>28.027453999999999</v>
       </c>
       <c r="P176" s="1">
-        <v>26094678.9516</v>
+        <v>12011736.593499999</v>
       </c>
       <c r="Q176" s="1">
-        <v>19.843885</v>
+        <v>30.986280000000001</v>
       </c>
       <c r="R176" s="1">
-        <v>23473039.445781201</v>
+        <v>10771758.198484801</v>
       </c>
       <c r="S176" s="1">
-        <v>27190981.082724199</v>
+        <v>12482214.1371757</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
@@ -13291,45 +13291,45 @@
         <v>557</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F177" s="1">
-        <v>79221900</v>
+        <v>453187130</v>
       </c>
       <c r="G177" s="1">
-        <v>73.95</v>
+        <v>54</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I177" s="1">
-        <v>7442485.7123293197</v>
+        <v>26395920.470562302</v>
       </c>
       <c r="J177" s="1">
-        <v>4751404.4560000002</v>
+        <v>16891408.230666701</v>
       </c>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1">
-        <v>8451427.7301599998</v>
+        <v>27137445.79064</v>
       </c>
       <c r="N177" s="1">
-        <v>38.678739999999998</v>
+        <v>20.574978000000002</v>
       </c>
       <c r="O177" s="1">
-        <v>34.985469999999999</v>
+        <v>21.098564</v>
       </c>
       <c r="P177" s="1">
-        <v>8540744.7487000003</v>
+        <v>26094678.9516</v>
       </c>
       <c r="Q177" s="1">
-        <v>35.134680000000003</v>
+        <v>19.843885</v>
       </c>
       <c r="R177" s="1">
-        <v>7940863.2864062497</v>
+        <v>23473039.445781201</v>
       </c>
       <c r="S177" s="1">
-        <v>9160825.8196322508</v>
+        <v>27190981.082724199</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
@@ -13346,45 +13346,45 @@
         <v>560</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>27</v>
+        <v>344</v>
       </c>
       <c r="F178" s="1">
-        <v>3888930422</v>
+        <v>79221900</v>
       </c>
       <c r="G178" s="1">
-        <v>4.0620000000000003</v>
+        <v>73.95</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I178" s="1">
-        <v>34585441.859841198</v>
+        <v>7442485.7123293197</v>
       </c>
       <c r="J178" s="1">
-        <v>26656115.998166699</v>
+        <v>4751404.4560000002</v>
       </c>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1">
-        <v>41699905.6588661</v>
+        <v>8451427.7301599998</v>
       </c>
       <c r="N178" s="1">
-        <v>18.32123</v>
+        <v>38.678739999999998</v>
       </c>
       <c r="O178" s="1">
-        <v>18.264347000000001</v>
+        <v>34.985469999999999</v>
       </c>
       <c r="P178" s="1">
-        <v>41909528.303740002</v>
+        <v>8540744.7487000003</v>
       </c>
       <c r="Q178" s="1">
-        <v>17.363426</v>
+        <v>35.134680000000003</v>
       </c>
       <c r="R178" s="1">
-        <v>37551902.463431798</v>
+        <v>7940863.2864062497</v>
       </c>
       <c r="S178" s="1">
-        <v>43515230.799478598</v>
+        <v>9160825.8196322508</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
@@ -13401,45 +13401,45 @@
         <v>563</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F179" s="1">
-        <v>75570800</v>
+        <v>3888930422</v>
       </c>
       <c r="G179" s="1">
-        <v>73.55</v>
+        <v>4.0620000000000003</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I179" s="1">
-        <v>15637876.5664625</v>
+        <v>34585441.859841198</v>
       </c>
       <c r="J179" s="1">
-        <v>10683191.778333301</v>
+        <v>26656115.998166699</v>
       </c>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1">
-        <v>17790505.541063</v>
+        <v>41699905.6588661</v>
       </c>
       <c r="N179" s="1">
-        <v>28.190041999999998</v>
+        <v>18.32123</v>
       </c>
       <c r="O179" s="1">
-        <v>28.016871999999999</v>
+        <v>18.264347000000001</v>
       </c>
       <c r="P179" s="1">
-        <v>15968822.780649999</v>
+        <v>41909528.303740002</v>
       </c>
       <c r="Q179" s="1">
-        <v>28.181830000000001</v>
+        <v>17.363426</v>
       </c>
       <c r="R179" s="1">
-        <v>12942440.171969701</v>
+        <v>37551902.463431798</v>
       </c>
       <c r="S179" s="1">
-        <v>14969027.4232827</v>
+        <v>43515230.799478598</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
@@ -13456,45 +13456,45 @@
         <v>566</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F180" s="1">
-        <v>262245733</v>
+        <v>75570800</v>
       </c>
       <c r="G180" s="1">
-        <v>132.1</v>
+        <v>73.55</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I180" s="1">
-        <v>56771256.324784301</v>
+        <v>15637876.5664625</v>
       </c>
       <c r="J180" s="1">
-        <v>58871012.715000004</v>
+        <v>10683191.778333301</v>
       </c>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1">
-        <v>61461840.137244098</v>
+        <v>17790505.541063</v>
       </c>
       <c r="N180" s="1">
-        <v>28.052309000000001</v>
+        <v>28.190041999999998</v>
       </c>
       <c r="O180" s="1">
-        <v>27.891387999999999</v>
+        <v>28.016871999999999</v>
       </c>
       <c r="P180" s="1">
-        <v>59608814.755599998</v>
+        <v>15968822.780649999</v>
       </c>
       <c r="Q180" s="1">
-        <v>29.58689</v>
+        <v>28.181830000000001</v>
       </c>
       <c r="R180" s="1">
-        <v>60250024.703030303</v>
+        <v>12942440.171969701</v>
       </c>
       <c r="S180" s="1">
-        <v>69797342.657273501</v>
+        <v>14969027.4232827</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
@@ -13511,45 +13511,45 @@
         <v>569</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F181" s="1">
-        <v>578150395</v>
+        <v>262245733</v>
       </c>
       <c r="G181" s="1">
-        <v>47.35</v>
+        <v>132.1</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I181" s="1">
-        <v>134242008.86039701</v>
+        <v>56771256.324784301</v>
       </c>
       <c r="J181" s="1">
-        <v>208962801.80607101</v>
+        <v>58871012.715000004</v>
       </c>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1">
-        <v>195046189.34329399</v>
+        <v>61461840.137244098</v>
       </c>
       <c r="N181" s="1">
-        <v>52.488624999999999</v>
+        <v>28.052309000000001</v>
       </c>
       <c r="O181" s="1">
-        <v>48.43374</v>
+        <v>27.891387999999999</v>
       </c>
       <c r="P181" s="1">
-        <v>165482550.72645</v>
+        <v>59608814.755599998</v>
       </c>
       <c r="Q181" s="1">
-        <v>47.065536000000002</v>
+        <v>29.58689</v>
       </c>
       <c r="R181" s="1">
-        <v>165076471.19299999</v>
+        <v>60250024.703030303</v>
       </c>
       <c r="S181" s="1">
-        <v>191074125.362896</v>
+        <v>69797342.657273501</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
@@ -13566,45 +13566,45 @@
         <v>572</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F182" s="1">
-        <v>533204913</v>
+        <v>578150395</v>
       </c>
       <c r="G182" s="1">
-        <v>399</v>
+        <v>47.35</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I182" s="1">
-        <v>146168210.822745</v>
+        <v>134242008.86039701</v>
       </c>
       <c r="J182" s="1">
-        <v>83073907.179999903</v>
+        <v>208962801.80607101</v>
       </c>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1">
-        <v>144699421.95059001</v>
+        <v>195046189.34329399</v>
       </c>
       <c r="N182" s="1">
-        <v>26.170245999999999</v>
+        <v>52.488624999999999</v>
       </c>
       <c r="O182" s="1">
-        <v>26.896954999999998</v>
+        <v>48.43374</v>
       </c>
       <c r="P182" s="1">
-        <v>135962778.199</v>
+        <v>165482550.72645</v>
       </c>
       <c r="Q182" s="1">
-        <v>25.502337000000001</v>
+        <v>47.065536000000002</v>
       </c>
       <c r="R182" s="1">
-        <v>110349748.387879</v>
+        <v>165076471.19299999</v>
       </c>
       <c r="S182" s="1">
-        <v>127687376.956523</v>
+        <v>191074125.362896</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
@@ -13621,45 +13621,45 @@
         <v>575</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F183" s="1">
-        <v>251630412</v>
+        <v>533204913</v>
       </c>
       <c r="G183" s="1">
-        <v>23.72</v>
+        <v>399</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I183" s="1">
-        <v>9560231.9158730209</v>
+        <v>146168210.822745</v>
       </c>
       <c r="J183" s="1">
-        <v>12028102.3078571</v>
+        <v>83073907.179999903</v>
       </c>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1">
-        <v>15573977.8392857</v>
+        <v>144699421.95059001</v>
       </c>
       <c r="N183" s="1">
-        <v>29.54964</v>
+        <v>26.170245999999999</v>
       </c>
       <c r="O183" s="1">
-        <v>31.466825</v>
+        <v>26.896954999999998</v>
       </c>
       <c r="P183" s="1">
-        <v>16584214.420299999</v>
+        <v>135962778.199</v>
       </c>
       <c r="Q183" s="1">
-        <v>26.851133000000001</v>
+        <v>25.502337000000001</v>
       </c>
       <c r="R183" s="1">
-        <v>18215430.590923101</v>
+        <v>110349748.387879</v>
       </c>
       <c r="S183" s="1">
-        <v>21092913.0659061</v>
+        <v>127687376.956523</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
@@ -13676,45 +13676,45 @@
         <v>578</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F184" s="1">
-        <v>816013</v>
+        <v>251630412</v>
       </c>
       <c r="G184" s="1">
-        <v>8220</v>
+        <v>23.72</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I184" s="1">
-        <v>6170750.2549019596</v>
+        <v>9560231.9158730209</v>
       </c>
       <c r="J184" s="1">
-        <v>6713318.6666666605</v>
+        <v>12028102.3078571</v>
       </c>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1">
-        <v>6808873.1102362201</v>
+        <v>15573977.8392857</v>
       </c>
       <c r="N184" s="1">
-        <v>28.393948000000002</v>
+        <v>29.54964</v>
       </c>
       <c r="O184" s="1">
-        <v>29.61938</v>
+        <v>31.466825</v>
       </c>
       <c r="P184" s="1">
-        <v>6498699.6500000004</v>
+        <v>16584214.420299999</v>
       </c>
       <c r="Q184" s="1">
-        <v>28.621701999999999</v>
+        <v>26.851133000000001</v>
       </c>
       <c r="R184" s="1">
-        <v>5938836.3636363596</v>
+        <v>18215430.590923101</v>
       </c>
       <c r="S184" s="1">
-        <v>6879902.84186872</v>
+        <v>21092913.0659061</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
@@ -13731,45 +13731,45 @@
         <v>581</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F185" s="1">
-        <v>1200015000</v>
+        <v>816013</v>
       </c>
       <c r="G185" s="1">
-        <v>8.2720000000000002</v>
+        <v>8220</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I185" s="1">
-        <v>42230539.628644302</v>
+        <v>6170750.2549019596</v>
       </c>
       <c r="J185" s="1">
-        <v>39688725.651066698</v>
+        <v>6713318.6666666605</v>
       </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1">
-        <v>48372884.014393702</v>
+        <v>6808873.1102362201</v>
       </c>
       <c r="N185" s="1">
-        <v>38.674709999999997</v>
+        <v>28.393948000000002</v>
       </c>
       <c r="O185" s="1">
-        <v>31.969774000000001</v>
+        <v>29.61938</v>
       </c>
       <c r="P185" s="1">
-        <v>41293490.95465</v>
+        <v>6498699.6500000004</v>
       </c>
       <c r="Q185" s="1">
-        <v>36.709499999999998</v>
+        <v>28.621701999999999</v>
       </c>
       <c r="R185" s="1">
-        <v>39022845.055348501</v>
+        <v>5938836.3636363596</v>
       </c>
       <c r="S185" s="1">
-        <v>45187068.356958598</v>
+        <v>6879902.84186872</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
@@ -13786,45 +13786,45 @@
         <v>584</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F186" s="1">
-        <v>500141700</v>
+        <v>1200015000</v>
       </c>
       <c r="G186" s="1">
-        <v>495.1</v>
+        <v>8.2720000000000002</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I186" s="1">
-        <v>304163714.98156899</v>
+        <v>42230539.628644302</v>
       </c>
       <c r="J186" s="1">
-        <v>180522261.66333401</v>
+        <v>39688725.651066698</v>
       </c>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1">
-        <v>302058439.90748</v>
+        <v>48372884.014393702</v>
       </c>
       <c r="N186" s="1">
-        <v>32.132640000000002</v>
+        <v>38.674709999999997</v>
       </c>
       <c r="O186" s="1">
-        <v>34.558647000000001</v>
+        <v>31.969774000000001</v>
       </c>
       <c r="P186" s="1">
-        <v>289364299.63300002</v>
+        <v>41293490.95465</v>
       </c>
       <c r="Q186" s="1">
-        <v>32.943283000000001</v>
+        <v>36.709499999999998</v>
       </c>
       <c r="R186" s="1">
-        <v>239689973.029167</v>
+        <v>39022845.055348501</v>
       </c>
       <c r="S186" s="1">
-        <v>277725323.64791697</v>
+        <v>45187068.356958598</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
@@ -13841,45 +13841,45 @@
         <v>587</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>341</v>
+        <v>35</v>
       </c>
       <c r="F187" s="1">
-        <v>502696750</v>
+        <v>500141700</v>
       </c>
       <c r="G187" s="1">
-        <v>6.0279999999999996</v>
+        <v>495.1</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I187" s="1">
-        <v>6404909.1007228903</v>
+        <v>304163714.98156899</v>
       </c>
       <c r="J187" s="1">
-        <v>6779701.8566666702</v>
+        <v>180522261.66333401</v>
       </c>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1">
-        <v>9264954.83024</v>
+        <v>302058439.90748</v>
       </c>
       <c r="N187" s="1">
-        <v>24.472328000000001</v>
+        <v>32.132640000000002</v>
       </c>
       <c r="O187" s="1">
-        <v>26.101096999999999</v>
+        <v>34.558647000000001</v>
       </c>
       <c r="P187" s="1">
-        <v>8815819.2141999993</v>
+        <v>289364299.63300002</v>
       </c>
       <c r="Q187" s="1">
-        <v>24.479773000000002</v>
+        <v>32.943283000000001</v>
       </c>
       <c r="R187" s="1">
-        <v>8008518.4421875002</v>
+        <v>239689973.029167</v>
       </c>
       <c r="S187" s="1">
-        <v>9246718.6769792009</v>
+        <v>277725323.64791697</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
@@ -13896,45 +13896,45 @@
         <v>590</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>22</v>
+        <v>344</v>
       </c>
       <c r="F188" s="1">
-        <v>813279689</v>
+        <v>502696750</v>
       </c>
       <c r="G188" s="1">
-        <v>21.51</v>
+        <v>6.0279999999999996</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I188" s="1">
-        <v>57701161.081686497</v>
+        <v>6404909.1007228903</v>
       </c>
       <c r="J188" s="1">
-        <v>70178452.180714399</v>
+        <v>6779701.8566666702</v>
       </c>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1">
-        <v>74190754.3208929</v>
+        <v>9264954.83024</v>
       </c>
       <c r="N188" s="1">
-        <v>34.772995000000002</v>
+        <v>24.472328000000001</v>
       </c>
       <c r="O188" s="1">
-        <v>36.799365999999999</v>
+        <v>26.101096999999999</v>
       </c>
       <c r="P188" s="1">
-        <v>80434540.372749999</v>
+        <v>8815819.2141999993</v>
       </c>
       <c r="Q188" s="1">
-        <v>32.329216000000002</v>
+        <v>24.479773000000002</v>
       </c>
       <c r="R188" s="1">
-        <v>73774852.137384593</v>
+        <v>8008518.4421875002</v>
       </c>
       <c r="S188" s="1">
-        <v>85403838.559197202</v>
+        <v>9246718.6769792009</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
@@ -14116,7 +14116,7 @@
         <v>602</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F192" s="1">
         <v>828972400</v>
@@ -14501,7 +14501,7 @@
         <v>623</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F199" s="1">
         <v>769211060</v>
@@ -14721,7 +14721,7 @@
         <v>635</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F203" s="1">
         <v>5455850600</v>
@@ -14776,7 +14776,7 @@
         <v>638</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F204" s="1">
         <v>3457827600</v>
@@ -14886,7 +14886,7 @@
         <v>644</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F206" s="1">
         <v>327272740</v>
@@ -14996,7 +14996,7 @@
         <v>650</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F208" s="1">
         <v>109162500</v>
@@ -15546,7 +15546,7 @@
         <v>680</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F218" s="1">
         <v>328939640</v>
@@ -16536,7 +16536,7 @@
         <v>734</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F236" s="1">
         <v>2691238800</v>
@@ -17856,7 +17856,7 @@
         <v>806</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F260" s="1">
         <v>613067900</v>
@@ -19121,7 +19121,7 @@
         <v>875</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F283" s="1">
         <v>527735700</v>
@@ -19286,7 +19286,7 @@
         <v>884</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F286" s="1">
         <v>184529600</v>
@@ -19396,7 +19396,7 @@
         <v>890</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F288" s="1">
         <v>170233670</v>
@@ -19616,7 +19616,7 @@
         <v>902</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F292" s="1">
         <v>178549160</v>
@@ -19836,7 +19836,7 @@
         <v>914</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F296" s="1">
         <v>591723400</v>
@@ -20001,7 +20001,7 @@
         <v>923</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F299" s="1">
         <v>109497696</v>

--- a/GUI + Reviews/202509/Eurozone 300.xlsx
+++ b/GUI + Reviews/202509/Eurozone 300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202509\202512\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202509/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{7F73D439-CAFF-4CB7-AD32-FE2D2DAB75E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA55FEA7-29F8-483C-A4D9-E09977B17649}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{AA55FEA7-29F8-483C-A4D9-E09977B17649}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3224,28 +3224,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C62BB62-41E2-4B44-BD63-DFC11FBEAC65}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C62BB62-41E2-4B44-BD63-DFC11FBEAC65}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:S301" xr:uid="{7C62BB62-41E2-4B44-BD63-DFC11FBEAC65}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E215F094-97BE-4944-88AF-6E03B27FD7E1}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{A91E4964-0DFA-4C23-9C32-4C5B7F81E079}" name="Ticker" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{09C61BBF-4A7D-445C-A174-2633C89C4D03}" name="Name" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{A2472CB4-6BAC-4A2A-A7CD-0C0986AFFA63}" name="ISIN" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{52862F4B-863C-44C7-85EC-28DD545EAF94}" name="MIC" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{CA9060AC-1882-4ED3-A92F-F226B2FAB108}" name="NOSH" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{2CFCA56F-E81D-4BB6-95AA-E107AD2EA801}" name="Price" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{B724BE25-F6F2-44D7-880D-281A7204221D}" name="Currency" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{C58A7779-7C0E-4D8A-80BB-1A3B56CDAC1A}" name="12 month aver. turnover EUR" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{96C464E6-4883-4130-8153-D3AA680273F4}" name="20 days aver. turn EUR" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{007E292D-134A-48BF-A792-25AD6AAECFD6}" name="10 days aver. turn EUR" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{8F40393A-8172-46B5-801C-C6DD195B08B4}" name="5 days aver. turn EUR" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{EA764463-63A5-4B5F-A1D4-28595B849551}" name="6 month aver. turnover EUR" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{6A7F90B4-D9B5-48B0-B4F4-D0D8434BD9CD}" name="126 days volatility" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{8FD176E5-A4AD-4105-9F15-8855B3459B1C}" name="100 days volatility" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{29334AF4-219B-454C-9C53-2C5E4BB0FB4B}" name="100 days aver. turn EUR" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{3786DFEC-D1DB-43ED-8937-1DAF377442D5}" name="180 days volatility" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{FB6945E7-B6C3-4AF7-A681-AB7CB1A73445}" name="3 months aver. Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{EB7D353A-E6FC-4087-8884-A5CA1001B142}" name="3 months aver. Turnover USD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E215F094-97BE-4944-88AF-6E03B27FD7E1}" name="Rank" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{A91E4964-0DFA-4C23-9C32-4C5B7F81E079}" name="Ticker" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{09C61BBF-4A7D-445C-A174-2633C89C4D03}" name="Name" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{A2472CB4-6BAC-4A2A-A7CD-0C0986AFFA63}" name="ISIN" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{52862F4B-863C-44C7-85EC-28DD545EAF94}" name="MIC" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{CA9060AC-1882-4ED3-A92F-F226B2FAB108}" name="NOSH" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{2CFCA56F-E81D-4BB6-95AA-E107AD2EA801}" name="Price" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{B724BE25-F6F2-44D7-880D-281A7204221D}" name="Currency" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{C58A7779-7C0E-4D8A-80BB-1A3B56CDAC1A}" name="12 month aver. turnover EUR" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{96C464E6-4883-4130-8153-D3AA680273F4}" name="20 days aver. turn EUR" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{007E292D-134A-48BF-A792-25AD6AAECFD6}" name="10 days aver. turn EUR" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{8F40393A-8172-46B5-801C-C6DD195B08B4}" name="5 days aver. turn EUR" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{EA764463-63A5-4B5F-A1D4-28595B849551}" name="6 month aver. turnover EUR" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{6A7F90B4-D9B5-48B0-B4F4-D0D8434BD9CD}" name="126 days volatility" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{8FD176E5-A4AD-4105-9F15-8855B3459B1C}" name="100 days volatility" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{29334AF4-219B-454C-9C53-2C5E4BB0FB4B}" name="100 days aver. turn EUR" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{3786DFEC-D1DB-43ED-8937-1DAF377442D5}" name="180 days volatility" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{FB6945E7-B6C3-4AF7-A681-AB7CB1A73445}" name="3 months aver. Turnover EUR" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{EB7D353A-E6FC-4087-8884-A5CA1001B142}" name="3 months aver. Turnover USD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3570,7 +3570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECF2085-3478-42F7-A3CA-E0866A8BCD8A}">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
